--- a/Seed Generator/SPSA Depth = 1/SPSA Code/static seeds 3.xlsx
+++ b/Seed Generator/SPSA Depth = 1/SPSA Code/static seeds 3.xlsx
@@ -1875,7 +1875,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J2">
-        <v>13.77250194549561</v>
+        <v>17.91378116607666</v>
       </c>
       <c r="K2">
         <v>-12</v>
@@ -1916,7 +1916,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J3">
-        <v>14.89590501785278</v>
+        <v>37.49735498428345</v>
       </c>
       <c r="K3">
         <v>-12</v>
@@ -1957,7 +1957,7 @@
         <v>-6</v>
       </c>
       <c r="J4">
-        <v>14.66181612014771</v>
+        <v>75.43206405639648</v>
       </c>
       <c r="K4">
         <v>-12</v>
@@ -1998,7 +1998,7 @@
         <v>-2.99999927568896</v>
       </c>
       <c r="J5">
-        <v>15.18740487098694</v>
+        <v>74.56329107284546</v>
       </c>
       <c r="K5">
         <v>-8.99999927568896</v>
@@ -2039,7 +2039,7 @@
         <v>-6</v>
       </c>
       <c r="J6">
-        <v>17.18829202651978</v>
+        <v>75.42204689979553</v>
       </c>
       <c r="K6">
         <v>-12</v>
@@ -2080,7 +2080,7 @@
         <v>-6</v>
       </c>
       <c r="J7">
-        <v>19.85042190551758</v>
+        <v>77.49312400817871</v>
       </c>
       <c r="K7">
         <v>-12</v>
@@ -2121,7 +2121,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J8">
-        <v>18.64565992355347</v>
+        <v>80.59325909614563</v>
       </c>
       <c r="K8">
         <v>-12</v>
@@ -2162,7 +2162,7 @@
         <v>-5.182136761853819</v>
       </c>
       <c r="J9">
-        <v>19.03984904289246</v>
+        <v>85.9529402256012</v>
       </c>
       <c r="K9">
         <v>-11.18213676185382</v>
@@ -2203,7 +2203,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J10">
-        <v>21.41349625587463</v>
+        <v>84.19365692138672</v>
       </c>
       <c r="K10">
         <v>-12</v>
@@ -2244,7 +2244,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J11">
-        <v>21.17734098434448</v>
+        <v>70.47447991371155</v>
       </c>
       <c r="K11">
         <v>-12</v>
@@ -2285,7 +2285,7 @@
         <v>-6</v>
       </c>
       <c r="J12">
-        <v>25.18042588233948</v>
+        <v>63.40110611915588</v>
       </c>
       <c r="K12">
         <v>-12</v>
@@ -2326,7 +2326,7 @@
         <v>-2.99995741083999</v>
       </c>
       <c r="J13">
-        <v>20.11389493942261</v>
+        <v>70.00651478767395</v>
       </c>
       <c r="K13">
         <v>-8.99995741083999</v>
@@ -2367,7 +2367,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J14">
-        <v>20.26121497154236</v>
+        <v>48.35690712928772</v>
       </c>
       <c r="K14">
         <v>-12</v>
@@ -2408,7 +2408,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J15">
-        <v>20.49061512947083</v>
+        <v>42.67926716804504</v>
       </c>
       <c r="K15">
         <v>-12</v>
@@ -2449,7 +2449,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J16">
-        <v>19.8173360824585</v>
+        <v>57.75478601455688</v>
       </c>
       <c r="K16">
         <v>-12</v>
@@ -2490,7 +2490,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J17">
-        <v>20.19701600074768</v>
+        <v>69.11380481719971</v>
       </c>
       <c r="K17">
         <v>-12</v>
@@ -2531,7 +2531,7 @@
         <v>-6</v>
       </c>
       <c r="J18">
-        <v>20.58996796607971</v>
+        <v>75.84278106689453</v>
       </c>
       <c r="K18">
         <v>-12</v>
@@ -2572,7 +2572,7 @@
         <v>-6</v>
       </c>
       <c r="J19">
-        <v>19.63543820381165</v>
+        <v>76.05538511276245</v>
       </c>
       <c r="K19">
         <v>-12</v>
@@ -2613,7 +2613,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J20">
-        <v>18.7752161026001</v>
+        <v>54.61229109764099</v>
       </c>
       <c r="K20">
         <v>-12</v>
@@ -2654,7 +2654,7 @@
         <v>-6</v>
       </c>
       <c r="J21">
-        <v>18.46273303031921</v>
+        <v>61.06218886375427</v>
       </c>
       <c r="K21">
         <v>-12</v>
@@ -2695,7 +2695,7 @@
         <v>-6</v>
       </c>
       <c r="J22">
-        <v>18.71489596366882</v>
+        <v>59.7260000705719</v>
       </c>
       <c r="K22">
         <v>-12</v>
@@ -2736,7 +2736,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J23">
-        <v>18.57072496414185</v>
+        <v>38.54131484031677</v>
       </c>
       <c r="K23">
         <v>-12</v>
@@ -2777,7 +2777,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J24">
-        <v>18.56482577323914</v>
+        <v>51.37337708473206</v>
       </c>
       <c r="K24">
         <v>-12</v>
@@ -2818,7 +2818,7 @@
         <v>-6</v>
       </c>
       <c r="J25">
-        <v>18.36383008956909</v>
+        <v>56.62124490737915</v>
       </c>
       <c r="K25">
         <v>-12</v>
@@ -2859,7 +2859,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J26">
-        <v>19.85874891281128</v>
+        <v>79.77162480354309</v>
       </c>
       <c r="K26">
         <v>-12</v>
@@ -2900,7 +2900,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J27">
-        <v>19.17804408073425</v>
+        <v>73.5765860080719</v>
       </c>
       <c r="K27">
         <v>-12</v>
@@ -2941,7 +2941,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J28">
-        <v>18.67695426940918</v>
+        <v>57.19098401069641</v>
       </c>
       <c r="K28">
         <v>-12</v>
@@ -2982,7 +2982,7 @@
         <v>-6</v>
       </c>
       <c r="J29">
-        <v>18.99546194076538</v>
+        <v>49.89271879196167</v>
       </c>
       <c r="K29">
         <v>-12</v>
@@ -3023,7 +3023,7 @@
         <v>-6</v>
       </c>
       <c r="J30">
-        <v>18.52716183662415</v>
+        <v>44.26489114761353</v>
       </c>
       <c r="K30">
         <v>-12</v>
@@ -3064,7 +3064,7 @@
         <v>-2.999999617739696</v>
       </c>
       <c r="J31">
-        <v>18.72730588912964</v>
+        <v>60.12791585922241</v>
       </c>
       <c r="K31">
         <v>-8.999999617739697</v>
@@ -3105,7 +3105,7 @@
         <v>-6</v>
       </c>
       <c r="J32">
-        <v>18.66955780982971</v>
+        <v>46.83875703811646</v>
       </c>
       <c r="K32">
         <v>-12</v>
@@ -3146,7 +3146,7 @@
         <v>-2.999999821858977</v>
       </c>
       <c r="J33">
-        <v>18.60895991325378</v>
+        <v>67.22806191444397</v>
       </c>
       <c r="K33">
         <v>-8.999999821858976</v>
@@ -3187,7 +3187,7 @@
         <v>-2.999999282902597</v>
       </c>
       <c r="J34">
-        <v>18.91746783256531</v>
+        <v>84.91200184822083</v>
       </c>
       <c r="K34">
         <v>-8.999999282902596</v>
@@ -3228,7 +3228,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J35">
-        <v>18.60355806350708</v>
+        <v>84.66796374320984</v>
       </c>
       <c r="K35">
         <v>-11.99999999999999</v>
@@ -3269,7 +3269,7 @@
         <v>-6</v>
       </c>
       <c r="J36">
-        <v>18.99335813522339</v>
+        <v>81.50349593162537</v>
       </c>
       <c r="K36">
         <v>-12</v>
@@ -3310,7 +3310,7 @@
         <v>-2.99999911021348</v>
       </c>
       <c r="J37">
-        <v>18.89254117012024</v>
+        <v>43.58346796035767</v>
       </c>
       <c r="K37">
         <v>-8.99999911021348</v>
@@ -3351,7 +3351,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J38">
-        <v>18.60022902488708</v>
+        <v>51.45905995368958</v>
       </c>
       <c r="K38">
         <v>-11.99999999999999</v>
@@ -3392,7 +3392,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J39">
-        <v>18.6463520526886</v>
+        <v>50.69706320762634</v>
       </c>
       <c r="K39">
         <v>-12</v>
@@ -3433,7 +3433,7 @@
         <v>-6</v>
       </c>
       <c r="J40">
-        <v>18.77159595489502</v>
+        <v>55.22148394584656</v>
       </c>
       <c r="K40">
         <v>-12</v>
@@ -3474,7 +3474,7 @@
         <v>-2.999999428104936</v>
       </c>
       <c r="J41">
-        <v>18.82615494728088</v>
+        <v>65.07982802391052</v>
       </c>
       <c r="K41">
         <v>-8.999999428104935</v>
@@ -3515,7 +3515,7 @@
         <v>-6</v>
       </c>
       <c r="J42">
-        <v>18.99281001091003</v>
+        <v>58.40224170684814</v>
       </c>
       <c r="K42">
         <v>-12</v>
@@ -3556,7 +3556,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J43">
-        <v>18.97332406044006</v>
+        <v>52.99365282058716</v>
       </c>
       <c r="K43">
         <v>-12</v>
@@ -3597,7 +3597,7 @@
         <v>-6</v>
       </c>
       <c r="J44">
-        <v>19.54833173751831</v>
+        <v>81.94909691810608</v>
       </c>
       <c r="K44">
         <v>-12</v>
@@ -3638,7 +3638,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J45">
-        <v>18.66944932937622</v>
+        <v>57.2519588470459</v>
       </c>
       <c r="K45">
         <v>-12</v>
@@ -3679,7 +3679,7 @@
         <v>-2.999998888884862</v>
       </c>
       <c r="J46">
-        <v>18.62941908836365</v>
+        <v>50.53802895545959</v>
       </c>
       <c r="K46">
         <v>-8.999998888884862</v>
@@ -3720,7 +3720,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J47">
-        <v>18.74586486816406</v>
+        <v>52.82365226745605</v>
       </c>
       <c r="K47">
         <v>-12</v>
@@ -3761,7 +3761,7 @@
         <v>-6</v>
       </c>
       <c r="J48">
-        <v>18.57309794425964</v>
+        <v>58.64080119132996</v>
       </c>
       <c r="K48">
         <v>-12</v>
@@ -3802,7 +3802,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J49">
-        <v>18.73218107223511</v>
+        <v>58.81742596626282</v>
       </c>
       <c r="K49">
         <v>-12</v>
@@ -3843,7 +3843,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J50">
-        <v>18.92634773254395</v>
+        <v>63.35250091552734</v>
       </c>
       <c r="K50">
         <v>-11.99999999999999</v>
@@ -3884,7 +3884,7 @@
         <v>-6</v>
       </c>
       <c r="J51">
-        <v>19.03975677490234</v>
+        <v>66.14803719520569</v>
       </c>
       <c r="K51">
         <v>-12</v>
@@ -3925,7 +3925,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J52">
-        <v>18.25108766555786</v>
+        <v>50.32144165039062</v>
       </c>
       <c r="K52">
         <v>-12</v>
@@ -3966,7 +3966,7 @@
         <v>-6</v>
       </c>
       <c r="J53">
-        <v>18.70812201499939</v>
+        <v>54.75675415992737</v>
       </c>
       <c r="K53">
         <v>-12</v>
@@ -4007,7 +4007,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J54">
-        <v>18.96512985229492</v>
+        <v>55.42303609848022</v>
       </c>
       <c r="K54">
         <v>-11.99999999999999</v>
@@ -4048,7 +4048,7 @@
         <v>-2.999999826908617</v>
       </c>
       <c r="J55">
-        <v>18.93394422531128</v>
+        <v>65.56224894523621</v>
       </c>
       <c r="K55">
         <v>-8.999999826908617</v>
@@ -4089,7 +4089,7 @@
         <v>-2.999999775127198</v>
       </c>
       <c r="J56">
-        <v>19.04687905311584</v>
+        <v>56.2883620262146</v>
       </c>
       <c r="K56">
         <v>-8.999999775127197</v>
@@ -4130,7 +4130,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J57">
-        <v>18.82116508483887</v>
+        <v>47.35020709037781</v>
       </c>
       <c r="K57">
         <v>-12</v>
@@ -4171,7 +4171,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J58">
-        <v>20.23555731773376</v>
+        <v>55.91473627090454</v>
       </c>
       <c r="K58">
         <v>-11.99999999999999</v>
@@ -4212,7 +4212,7 @@
         <v>-1.999999276417369</v>
       </c>
       <c r="J59">
-        <v>19.39722084999084</v>
+        <v>41.71594190597534</v>
       </c>
       <c r="K59">
         <v>-7.99999927641737</v>
@@ -4253,7 +4253,7 @@
         <v>-6</v>
       </c>
       <c r="J60">
-        <v>18.86263704299927</v>
+        <v>57.02497673034668</v>
       </c>
       <c r="K60">
         <v>-12</v>
@@ -4294,7 +4294,7 @@
         <v>-6</v>
       </c>
       <c r="J61">
-        <v>19.27802419662476</v>
+        <v>52.07089114189148</v>
       </c>
       <c r="K61">
         <v>-12</v>
@@ -4335,7 +4335,7 @@
         <v>-1.999998932370592</v>
       </c>
       <c r="J62">
-        <v>19.25582003593445</v>
+        <v>50.97716999053955</v>
       </c>
       <c r="K62">
         <v>-7.999998932370592</v>
@@ -4376,7 +4376,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J63">
-        <v>19.23441100120544</v>
+        <v>46.82445788383484</v>
       </c>
       <c r="K63">
         <v>-12</v>
@@ -4417,7 +4417,7 @@
         <v>-6</v>
       </c>
       <c r="J64">
-        <v>19.45809102058411</v>
+        <v>58.59787631034851</v>
       </c>
       <c r="K64">
         <v>-12</v>
@@ -4458,7 +4458,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J65">
-        <v>19.74672079086304</v>
+        <v>45.01310420036316</v>
       </c>
       <c r="K65">
         <v>-12</v>
@@ -4499,7 +4499,7 @@
         <v>-2.999999541563382</v>
       </c>
       <c r="J66">
-        <v>19.77222514152527</v>
+        <v>55.65505409240723</v>
       </c>
       <c r="K66">
         <v>-8.999999541563382</v>
@@ -4540,7 +4540,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J67">
-        <v>18.82660698890686</v>
+        <v>52.85432195663452</v>
       </c>
       <c r="K67">
         <v>-12</v>
@@ -4581,7 +4581,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J68">
-        <v>18.88252592086792</v>
+        <v>64.36978507041931</v>
       </c>
       <c r="K68">
         <v>-12</v>
@@ -4622,7 +4622,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J69">
-        <v>19.04401016235352</v>
+        <v>67.24374604225159</v>
       </c>
       <c r="K69">
         <v>-12.00000000000001</v>
@@ -4663,7 +4663,7 @@
         <v>-6</v>
       </c>
       <c r="J70">
-        <v>19.09753227233887</v>
+        <v>42.73749876022339</v>
       </c>
       <c r="K70">
         <v>-12</v>
@@ -4704,7 +4704,7 @@
         <v>-2.999999822137006</v>
       </c>
       <c r="J71">
-        <v>19.13418483734131</v>
+        <v>53.05742907524109</v>
       </c>
       <c r="K71">
         <v>-8.999999822137006</v>
@@ -4745,7 +4745,7 @@
         <v>-5.999999999998982</v>
       </c>
       <c r="J72">
-        <v>18.90957713127136</v>
+        <v>69.77286815643311</v>
       </c>
       <c r="K72">
         <v>-11.99999999999898</v>
@@ -4786,7 +4786,7 @@
         <v>-6</v>
       </c>
       <c r="J73">
-        <v>19.14049792289734</v>
+        <v>58.83708596229553</v>
       </c>
       <c r="K73">
         <v>-12</v>
@@ -4827,7 +4827,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J74">
-        <v>19.45738124847412</v>
+        <v>74.38795495033264</v>
       </c>
       <c r="K74">
         <v>-12</v>
@@ -4868,7 +4868,7 @@
         <v>-6</v>
       </c>
       <c r="J75">
-        <v>18.95896410942078</v>
+        <v>46.33206105232239</v>
       </c>
       <c r="K75">
         <v>-12</v>
@@ -4909,7 +4909,7 @@
         <v>-2.99999701179203</v>
       </c>
       <c r="J76">
-        <v>19.54314923286438</v>
+        <v>51.43218994140625</v>
       </c>
       <c r="K76">
         <v>-8.999997011792029</v>
@@ -4950,7 +4950,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J77">
-        <v>18.92813014984131</v>
+        <v>45.80162692070007</v>
       </c>
       <c r="K77">
         <v>-12</v>
@@ -4991,7 +4991,7 @@
         <v>-1.999964949277559</v>
       </c>
       <c r="J78">
-        <v>18.82641506195068</v>
+        <v>48.6381618976593</v>
       </c>
       <c r="K78">
         <v>-7.999964949277559</v>
@@ -5032,7 +5032,7 @@
         <v>-2.999998378164591</v>
       </c>
       <c r="J79">
-        <v>19.0146210193634</v>
+        <v>51.47661280632019</v>
       </c>
       <c r="K79">
         <v>-8.999998378164591</v>
@@ -5073,7 +5073,7 @@
         <v>-6</v>
       </c>
       <c r="J80">
-        <v>19.04473400115967</v>
+        <v>78.9385359287262</v>
       </c>
       <c r="K80">
         <v>-12</v>
@@ -5114,7 +5114,7 @@
         <v>-1.999999867976982</v>
       </c>
       <c r="J81">
-        <v>19.33833503723145</v>
+        <v>79.65843391418457</v>
       </c>
       <c r="K81">
         <v>-7.999999867976983</v>
@@ -5155,7 +5155,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J82">
-        <v>18.58110499382019</v>
+        <v>76.76712608337402</v>
       </c>
       <c r="K82">
         <v>-12</v>
@@ -5196,7 +5196,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J83">
-        <v>17.37895202636719</v>
+        <v>89.8578622341156</v>
       </c>
       <c r="K83">
         <v>-12</v>
@@ -5237,7 +5237,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J84">
-        <v>16.32228207588196</v>
+        <v>76.90271210670471</v>
       </c>
       <c r="K84">
         <v>-11.99999999999999</v>
@@ -5278,7 +5278,7 @@
         <v>-6</v>
       </c>
       <c r="J85">
-        <v>25.95656991004944</v>
+        <v>58.94383907318115</v>
       </c>
       <c r="K85">
         <v>-12</v>
@@ -5319,7 +5319,7 @@
         <v>-6</v>
       </c>
       <c r="J86">
-        <v>32.19914078712463</v>
+        <v>44.61951303482056</v>
       </c>
       <c r="K86">
         <v>-12</v>
@@ -5360,7 +5360,7 @@
         <v>-6</v>
       </c>
       <c r="J87">
-        <v>32.42540001869202</v>
+        <v>53.8832950592041</v>
       </c>
       <c r="K87">
         <v>-12</v>
@@ -5401,7 +5401,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J88">
-        <v>20.84733510017395</v>
+        <v>56.975998878479</v>
       </c>
       <c r="K88">
         <v>-12</v>
@@ -5442,7 +5442,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J89">
-        <v>18.36593794822693</v>
+        <v>44.93648171424866</v>
       </c>
       <c r="K89">
         <v>-12</v>
@@ -5483,7 +5483,7 @@
         <v>-6</v>
       </c>
       <c r="J90">
-        <v>18.36542797088623</v>
+        <v>51.42122006416321</v>
       </c>
       <c r="K90">
         <v>-12</v>
@@ -5524,7 +5524,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J91">
-        <v>18.47168493270874</v>
+        <v>57.16556286811829</v>
       </c>
       <c r="K91">
         <v>-12</v>
@@ -5565,7 +5565,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J92">
-        <v>18.37896800041199</v>
+        <v>52.54812908172607</v>
       </c>
       <c r="K92">
         <v>-12</v>
@@ -5606,7 +5606,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J93">
-        <v>18.71521687507629</v>
+        <v>46.91057109832764</v>
       </c>
       <c r="K93">
         <v>-12</v>
@@ -5647,7 +5647,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J94">
-        <v>19.60329818725586</v>
+        <v>43.426020860672</v>
       </c>
       <c r="K94">
         <v>-12</v>
@@ -5688,7 +5688,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J95">
-        <v>19.44260311126709</v>
+        <v>53.5544581413269</v>
       </c>
       <c r="K95">
         <v>-12</v>
@@ -5729,7 +5729,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J96">
-        <v>18.68985509872437</v>
+        <v>53.43747687339783</v>
       </c>
       <c r="K96">
         <v>-12.00000000000001</v>
@@ -5770,7 +5770,7 @@
         <v>-2.999998645519661</v>
       </c>
       <c r="J97">
-        <v>18.68391299247742</v>
+        <v>48.69931125640869</v>
       </c>
       <c r="K97">
         <v>-8.999998645519661</v>
@@ -5811,7 +5811,7 @@
         <v>-6</v>
       </c>
       <c r="J98">
-        <v>18.68896412849426</v>
+        <v>49.42319893836975</v>
       </c>
       <c r="K98">
         <v>-12</v>
@@ -5852,7 +5852,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J99">
-        <v>18.52243709564209</v>
+        <v>44.77086997032166</v>
       </c>
       <c r="K99">
         <v>-12</v>
@@ -5893,7 +5893,7 @@
         <v>-6</v>
       </c>
       <c r="J100">
-        <v>18.65858030319214</v>
+        <v>65.73158502578735</v>
       </c>
       <c r="K100">
         <v>-12</v>
@@ -5934,7 +5934,7 @@
         <v>-6</v>
       </c>
       <c r="J101">
-        <v>18.91647696495056</v>
+        <v>43.46562194824219</v>
       </c>
       <c r="K101">
         <v>-12</v>
@@ -5975,7 +5975,7 @@
         <v>-2.999999985799928</v>
       </c>
       <c r="J102">
-        <v>18.80037808418274</v>
+        <v>42.23899173736572</v>
       </c>
       <c r="K102">
         <v>-8.999999985799928</v>
@@ -6016,7 +6016,7 @@
         <v>-2.999999188201674</v>
       </c>
       <c r="J103">
-        <v>19.00551581382751</v>
+        <v>42.88435101509094</v>
       </c>
       <c r="K103">
         <v>-8.999999188201674</v>
@@ -6057,7 +6057,7 @@
         <v>-6</v>
       </c>
       <c r="J104">
-        <v>18.8292281627655</v>
+        <v>50.02523183822632</v>
       </c>
       <c r="K104">
         <v>-12</v>
@@ -6098,7 +6098,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J105">
-        <v>20.02623701095581</v>
+        <v>52.01440286636353</v>
       </c>
       <c r="K105">
         <v>-12</v>
@@ -6139,7 +6139,7 @@
         <v>-6</v>
       </c>
       <c r="J106">
-        <v>18.84840416908264</v>
+        <v>44.96811985969543</v>
       </c>
       <c r="K106">
         <v>-12</v>
@@ -6180,7 +6180,7 @@
         <v>-6</v>
       </c>
       <c r="J107">
-        <v>18.86773991584778</v>
+        <v>49.28019094467163</v>
       </c>
       <c r="K107">
         <v>-12</v>
@@ -6221,7 +6221,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J108">
-        <v>19.11286616325378</v>
+        <v>43.81068968772888</v>
       </c>
       <c r="K108">
         <v>-12</v>
@@ -6262,7 +6262,7 @@
         <v>-2.999999360049551</v>
       </c>
       <c r="J109">
-        <v>19.02576899528503</v>
+        <v>61.81882333755493</v>
       </c>
       <c r="K109">
         <v>-8.99999936004955</v>
@@ -6303,7 +6303,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J110">
-        <v>19.65392017364502</v>
+        <v>47.06744694709778</v>
       </c>
       <c r="K110">
         <v>-12</v>
@@ -6344,7 +6344,7 @@
         <v>-6</v>
       </c>
       <c r="J111">
-        <v>18.82714176177979</v>
+        <v>66.28410506248474</v>
       </c>
       <c r="K111">
         <v>-12</v>
@@ -6385,7 +6385,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J112">
-        <v>18.76870083808899</v>
+        <v>50.21383714675903</v>
       </c>
       <c r="K112">
         <v>-12</v>
@@ -6426,7 +6426,7 @@
         <v>-2.999999576797238</v>
       </c>
       <c r="J113">
-        <v>19.10222792625427</v>
+        <v>59.20583701133728</v>
       </c>
       <c r="K113">
         <v>-8.999999576797238</v>
@@ -6467,7 +6467,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J114">
-        <v>19.2571120262146</v>
+        <v>61.51750183105469</v>
       </c>
       <c r="K114">
         <v>-12</v>
@@ -6508,7 +6508,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J115">
-        <v>19.07937097549438</v>
+        <v>55.93990778923035</v>
       </c>
       <c r="K115">
         <v>-12</v>
@@ -6549,7 +6549,7 @@
         <v>-6</v>
       </c>
       <c r="J116">
-        <v>18.88664698600769</v>
+        <v>60.74771499633789</v>
       </c>
       <c r="K116">
         <v>-12</v>
@@ -6590,7 +6590,7 @@
         <v>-6</v>
       </c>
       <c r="J117">
-        <v>19.4294421672821</v>
+        <v>45.96264004707336</v>
       </c>
       <c r="K117">
         <v>-12</v>
@@ -6631,7 +6631,7 @@
         <v>-6</v>
       </c>
       <c r="J118">
-        <v>18.74126887321472</v>
+        <v>57.23943877220154</v>
       </c>
       <c r="K118">
         <v>-12</v>
@@ -6672,7 +6672,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J119">
-        <v>19.47957181930542</v>
+        <v>56.63784599304199</v>
       </c>
       <c r="K119">
         <v>-12</v>
@@ -6713,7 +6713,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J120">
-        <v>17.872150182724</v>
+        <v>51.67830491065979</v>
       </c>
       <c r="K120">
         <v>-12</v>
@@ -6754,7 +6754,7 @@
         <v>-2.999973980143096</v>
       </c>
       <c r="J121">
-        <v>18.87275886535645</v>
+        <v>53.76885604858398</v>
       </c>
       <c r="K121">
         <v>-8.999973980143096</v>
@@ -6795,7 +6795,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J122">
-        <v>19.52063488960266</v>
+        <v>39.14410710334778</v>
       </c>
       <c r="K122">
         <v>-11.99999999999999</v>
@@ -6836,7 +6836,7 @@
         <v>-6</v>
       </c>
       <c r="J123">
-        <v>19.34853196144104</v>
+        <v>46.77752590179443</v>
       </c>
       <c r="K123">
         <v>-12</v>
@@ -6877,7 +6877,7 @@
         <v>-2.999999758030107</v>
       </c>
       <c r="J124">
-        <v>19.00524282455444</v>
+        <v>46.34368300437927</v>
       </c>
       <c r="K124">
         <v>-8.999999758030107</v>
@@ -6918,7 +6918,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J125">
-        <v>19.82357001304626</v>
+        <v>43.61601614952087</v>
       </c>
       <c r="K125">
         <v>-12</v>
@@ -6959,7 +6959,7 @@
         <v>-6</v>
       </c>
       <c r="J126">
-        <v>18.76421999931335</v>
+        <v>45.29550576210022</v>
       </c>
       <c r="K126">
         <v>-12</v>
@@ -7000,7 +7000,7 @@
         <v>-6</v>
       </c>
       <c r="J127">
-        <v>18.90350604057312</v>
+        <v>52.34593296051025</v>
       </c>
       <c r="K127">
         <v>-12</v>
@@ -7041,7 +7041,7 @@
         <v>-2.999999641747685</v>
       </c>
       <c r="J128">
-        <v>18.95662808418274</v>
+        <v>43.22445797920227</v>
       </c>
       <c r="K128">
         <v>-8.999999641747685</v>
@@ -7082,7 +7082,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J129">
-        <v>19.01429796218872</v>
+        <v>46.20226502418518</v>
       </c>
       <c r="K129">
         <v>-11.99999999999999</v>
@@ -7123,7 +7123,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J130">
-        <v>18.97958207130432</v>
+        <v>48.91452074050903</v>
       </c>
       <c r="K130">
         <v>-12</v>
@@ -7164,7 +7164,7 @@
         <v>-1.999999338898093</v>
       </c>
       <c r="J131">
-        <v>18.96471500396729</v>
+        <v>48.1603319644928</v>
       </c>
       <c r="K131">
         <v>-7.999999338898093</v>
@@ -7205,7 +7205,7 @@
         <v>-6</v>
       </c>
       <c r="J132">
-        <v>19.01554775238037</v>
+        <v>39.8398859500885</v>
       </c>
       <c r="K132">
         <v>-12</v>
@@ -7246,7 +7246,7 @@
         <v>-6</v>
       </c>
       <c r="J133">
-        <v>18.92188501358032</v>
+        <v>69.30688095092773</v>
       </c>
       <c r="K133">
         <v>-12</v>
@@ -7287,7 +7287,7 @@
         <v>-6</v>
       </c>
       <c r="J134">
-        <v>19.01181387901306</v>
+        <v>83.84709906578064</v>
       </c>
       <c r="K134">
         <v>-12</v>
@@ -7328,7 +7328,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J135">
-        <v>18.8821439743042</v>
+        <v>76.71805000305176</v>
       </c>
       <c r="K135">
         <v>-12</v>
@@ -7369,7 +7369,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J136">
-        <v>18.90061283111572</v>
+        <v>82.63729619979858</v>
       </c>
       <c r="K136">
         <v>-12</v>
@@ -7410,7 +7410,7 @@
         <v>-2.999999938082815</v>
       </c>
       <c r="J137">
-        <v>19.29434704780579</v>
+        <v>83.98859405517578</v>
       </c>
       <c r="K137">
         <v>-8.999999938082816</v>
@@ -7451,7 +7451,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J138">
-        <v>20.85385203361511</v>
+        <v>66.52722930908203</v>
       </c>
       <c r="K138">
         <v>-12</v>
@@ -7492,7 +7492,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J139">
-        <v>18.96962189674377</v>
+        <v>51.00582814216614</v>
       </c>
       <c r="K139">
         <v>-12</v>
@@ -7533,7 +7533,7 @@
         <v>-6</v>
       </c>
       <c r="J140">
-        <v>18.87385272979736</v>
+        <v>45.7244861125946</v>
       </c>
       <c r="K140">
         <v>-12</v>
@@ -7574,7 +7574,7 @@
         <v>-6</v>
       </c>
       <c r="J141">
-        <v>19.18437504768372</v>
+        <v>59.80290508270264</v>
       </c>
       <c r="K141">
         <v>-12</v>
@@ -7615,7 +7615,7 @@
         <v>-2.999999913662009</v>
       </c>
       <c r="J142">
-        <v>18.90947508811951</v>
+        <v>51.19964098930359</v>
       </c>
       <c r="K142">
         <v>-8.999999913662009</v>
@@ -7656,7 +7656,7 @@
         <v>-6</v>
       </c>
       <c r="J143">
-        <v>18.94722986221313</v>
+        <v>87.10124492645264</v>
       </c>
       <c r="K143">
         <v>-12</v>
@@ -7697,7 +7697,7 @@
         <v>-6</v>
       </c>
       <c r="J144">
-        <v>18.8844108581543</v>
+        <v>63.23944783210754</v>
       </c>
       <c r="K144">
         <v>-12</v>
@@ -7738,7 +7738,7 @@
         <v>-6</v>
       </c>
       <c r="J145">
-        <v>18.77950191497803</v>
+        <v>60.36013007164001</v>
       </c>
       <c r="K145">
         <v>-12</v>
@@ -7779,7 +7779,7 @@
         <v>-6</v>
       </c>
       <c r="J146">
-        <v>18.94723582267761</v>
+        <v>71.3106906414032</v>
       </c>
       <c r="K146">
         <v>-12</v>
@@ -7820,7 +7820,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J147">
-        <v>18.94703006744385</v>
+        <v>59.87549996376038</v>
       </c>
       <c r="K147">
         <v>-12</v>
@@ -7861,7 +7861,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J148">
-        <v>18.91026711463928</v>
+        <v>54.98619794845581</v>
       </c>
       <c r="K148">
         <v>-12</v>
@@ -7902,7 +7902,7 @@
         <v>-6</v>
       </c>
       <c r="J149">
-        <v>19.02374196052551</v>
+        <v>65.88170862197876</v>
       </c>
       <c r="K149">
         <v>-12</v>
@@ -7943,7 +7943,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J150">
-        <v>18.99568796157837</v>
+        <v>53.9886748790741</v>
       </c>
       <c r="K150">
         <v>-12</v>
@@ -7984,7 +7984,7 @@
         <v>-6</v>
       </c>
       <c r="J151">
-        <v>20.18835401535034</v>
+        <v>76.66996097564697</v>
       </c>
       <c r="K151">
         <v>-12</v>
@@ -8025,7 +8025,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J152">
-        <v>19.33057832717896</v>
+        <v>83.10744619369507</v>
       </c>
       <c r="K152">
         <v>-12</v>
@@ -8066,7 +8066,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J153">
-        <v>19.53594207763672</v>
+        <v>75.465252161026</v>
       </c>
       <c r="K153">
         <v>-12</v>
@@ -8107,7 +8107,7 @@
         <v>-6</v>
       </c>
       <c r="J154">
-        <v>20.08843111991882</v>
+        <v>62.59604501724243</v>
       </c>
       <c r="K154">
         <v>-12</v>
@@ -8148,7 +8148,7 @@
         <v>-2.999999671475268</v>
       </c>
       <c r="J155">
-        <v>20.60144305229187</v>
+        <v>75.08077335357666</v>
       </c>
       <c r="K155">
         <v>-8.999999671475269</v>
@@ -8189,7 +8189,7 @@
         <v>-2.999999950411577</v>
       </c>
       <c r="J156">
-        <v>24.52581000328064</v>
+        <v>67.42486619949341</v>
       </c>
       <c r="K156">
         <v>-8.999999950411578</v>
@@ -8230,7 +8230,7 @@
         <v>-2.999983737059019</v>
       </c>
       <c r="J157">
-        <v>19.76226592063904</v>
+        <v>76.11497211456299</v>
       </c>
       <c r="K157">
         <v>-8.999983737059019</v>
@@ -8271,7 +8271,7 @@
         <v>-6</v>
       </c>
       <c r="J158">
-        <v>20.75525116920471</v>
+        <v>73.24400210380554</v>
       </c>
       <c r="K158">
         <v>-12</v>
@@ -8312,7 +8312,7 @@
         <v>-2.99999948191277</v>
       </c>
       <c r="J159">
-        <v>19.88190317153931</v>
+        <v>74.74123382568359</v>
       </c>
       <c r="K159">
         <v>-8.99999948191277</v>
@@ -8353,7 +8353,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J160">
-        <v>21.6205997467041</v>
+        <v>86.38031911849976</v>
       </c>
       <c r="K160">
         <v>-12</v>
@@ -8394,7 +8394,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J161">
-        <v>19.15780687332153</v>
+        <v>64.65009379386902</v>
       </c>
       <c r="K161">
         <v>-12</v>
@@ -8435,7 +8435,7 @@
         <v>-3.003214249707536</v>
       </c>
       <c r="J162">
-        <v>18.97113609313965</v>
+        <v>72.94297385215759</v>
       </c>
       <c r="K162">
         <v>-9.003214249707536</v>
@@ -8476,7 +8476,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J163">
-        <v>19.69940090179443</v>
+        <v>79.19081902503967</v>
       </c>
       <c r="K163">
         <v>-11.99999999999999</v>
@@ -8517,7 +8517,7 @@
         <v>-2.999999720472819</v>
       </c>
       <c r="J164">
-        <v>20.1308228969574</v>
+        <v>79.17198419570923</v>
       </c>
       <c r="K164">
         <v>-8.999999720472818</v>
@@ -8558,7 +8558,7 @@
         <v>-2.999999716093116</v>
       </c>
       <c r="J165">
-        <v>18.8563871383667</v>
+        <v>82.46292209625244</v>
       </c>
       <c r="K165">
         <v>-8.999999716093116</v>
@@ -8599,7 +8599,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J166">
-        <v>19.06139087677002</v>
+        <v>76.63635993003845</v>
       </c>
       <c r="K166">
         <v>-12</v>
@@ -8640,7 +8640,7 @@
         <v>-2.999999941093348</v>
       </c>
       <c r="J167">
-        <v>18.8724479675293</v>
+        <v>79.39718198776245</v>
       </c>
       <c r="K167">
         <v>-8.999999941093348</v>
@@ -8681,7 +8681,7 @@
         <v>-6</v>
       </c>
       <c r="J168">
-        <v>18.86145901679993</v>
+        <v>79.64990186691284</v>
       </c>
       <c r="K168">
         <v>-12</v>
@@ -8722,7 +8722,7 @@
         <v>-6</v>
       </c>
       <c r="J169">
-        <v>19.64156699180603</v>
+        <v>77.75029611587524</v>
       </c>
       <c r="K169">
         <v>-12</v>
@@ -8763,7 +8763,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J170">
-        <v>18.8637330532074</v>
+        <v>77.79342198371887</v>
       </c>
       <c r="K170">
         <v>-12</v>
@@ -8804,7 +8804,7 @@
         <v>-6</v>
       </c>
       <c r="J171">
-        <v>18.87586998939514</v>
+        <v>78.06179189682007</v>
       </c>
       <c r="K171">
         <v>-12</v>
@@ -8845,7 +8845,7 @@
         <v>-1.999998898740769</v>
       </c>
       <c r="J172">
-        <v>18.86613202095032</v>
+        <v>81.97308802604675</v>
       </c>
       <c r="K172">
         <v>-7.99999889874077</v>
@@ -8886,7 +8886,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J173">
-        <v>19.46078705787659</v>
+        <v>74.91281604766846</v>
       </c>
       <c r="K173">
         <v>-12</v>
@@ -8927,7 +8927,7 @@
         <v>-2.999999916992432</v>
       </c>
       <c r="J174">
-        <v>19.06647491455078</v>
+        <v>76.37143611907959</v>
       </c>
       <c r="K174">
         <v>-8.999999916992431</v>
@@ -8968,7 +8968,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J175">
-        <v>19.19502186775208</v>
+        <v>73.48018884658813</v>
       </c>
       <c r="K175">
         <v>-12</v>
@@ -9009,7 +9009,7 @@
         <v>-2.999999734752147</v>
       </c>
       <c r="J176">
-        <v>18.86614990234375</v>
+        <v>80.32506012916565</v>
       </c>
       <c r="K176">
         <v>-8.999999734752148</v>
@@ -9050,7 +9050,7 @@
         <v>-6</v>
       </c>
       <c r="J177">
-        <v>18.79596781730652</v>
+        <v>87.02260494232178</v>
       </c>
       <c r="K177">
         <v>-12</v>
@@ -9091,7 +9091,7 @@
         <v>-6</v>
       </c>
       <c r="J178">
-        <v>18.86471009254456</v>
+        <v>85.28064513206482</v>
       </c>
       <c r="K178">
         <v>-12</v>
@@ -9132,7 +9132,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J179">
-        <v>18.71335029602051</v>
+        <v>82.87451481819153</v>
       </c>
       <c r="K179">
         <v>-12</v>
@@ -9173,7 +9173,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J180">
-        <v>18.9579119682312</v>
+        <v>78.39307689666748</v>
       </c>
       <c r="K180">
         <v>-12</v>
@@ -9214,7 +9214,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J181">
-        <v>21.36390829086304</v>
+        <v>64.78905487060547</v>
       </c>
       <c r="K181">
         <v>-12</v>
@@ -9255,7 +9255,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J182">
-        <v>18.9642927646637</v>
+        <v>74.84288311004639</v>
       </c>
       <c r="K182">
         <v>-11.99999999999999</v>
@@ -9296,7 +9296,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J183">
-        <v>18.99729204177856</v>
+        <v>80.92790985107422</v>
       </c>
       <c r="K183">
         <v>-12</v>
@@ -9337,7 +9337,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J184">
-        <v>18.892245054245</v>
+        <v>83.71893787384033</v>
       </c>
       <c r="K184">
         <v>-12</v>
@@ -9378,7 +9378,7 @@
         <v>-6</v>
       </c>
       <c r="J185">
-        <v>19.03005504608154</v>
+        <v>85.10001039505005</v>
       </c>
       <c r="K185">
         <v>-12</v>
@@ -9419,7 +9419,7 @@
         <v>-2.999999512214514</v>
       </c>
       <c r="J186">
-        <v>19.30497574806213</v>
+        <v>83.01323008537292</v>
       </c>
       <c r="K186">
         <v>-8.999999512214515</v>
@@ -9460,7 +9460,7 @@
         <v>-1.999999504604696</v>
       </c>
       <c r="J187">
-        <v>19.02551507949829</v>
+        <v>82.88161301612854</v>
       </c>
       <c r="K187">
         <v>-7.999999504604697</v>
@@ -9501,7 +9501,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J188">
-        <v>24.91061305999756</v>
+        <v>80.96904611587524</v>
       </c>
       <c r="K188">
         <v>-12</v>
@@ -9542,7 +9542,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J189">
-        <v>19.27185726165771</v>
+        <v>76.23787307739258</v>
       </c>
       <c r="K189">
         <v>-11.99999999999999</v>
@@ -9583,7 +9583,7 @@
         <v>-2.999999747624007</v>
       </c>
       <c r="J190">
-        <v>19.02965092658997</v>
+        <v>75.61371111869812</v>
       </c>
       <c r="K190">
         <v>-8.999999747624006</v>
@@ -9624,7 +9624,7 @@
         <v>-6</v>
       </c>
       <c r="J191">
-        <v>20.41404294967651</v>
+        <v>84.54762315750122</v>
       </c>
       <c r="K191">
         <v>-12</v>
@@ -9665,7 +9665,7 @@
         <v>-2.9999980626562</v>
       </c>
       <c r="J192">
-        <v>19.77459692955017</v>
+        <v>77.71956396102905</v>
       </c>
       <c r="K192">
         <v>-8.9999980626562</v>
@@ -9706,7 +9706,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J193">
-        <v>19.32496500015259</v>
+        <v>77.60119771957397</v>
       </c>
       <c r="K193">
         <v>-12.00000000000001</v>
@@ -9747,7 +9747,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J194">
-        <v>18.93001008033752</v>
+        <v>76.10027408599854</v>
       </c>
       <c r="K194">
         <v>-12</v>
@@ -9788,7 +9788,7 @@
         <v>-6</v>
       </c>
       <c r="J195">
-        <v>19.20748591423035</v>
+        <v>78.15336108207703</v>
       </c>
       <c r="K195">
         <v>-12</v>
@@ -9829,7 +9829,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J196">
-        <v>19.41200494766235</v>
+        <v>85.96262502670288</v>
       </c>
       <c r="K196">
         <v>-12</v>
@@ -9870,7 +9870,7 @@
         <v>-1.999999798456942</v>
       </c>
       <c r="J197">
-        <v>20.57188105583191</v>
+        <v>87.55976486206055</v>
       </c>
       <c r="K197">
         <v>-7.999999798456942</v>
@@ -9911,7 +9911,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J198">
-        <v>19.49180006980896</v>
+        <v>87.24388909339905</v>
       </c>
       <c r="K198">
         <v>-12</v>
@@ -9952,7 +9952,7 @@
         <v>-6</v>
       </c>
       <c r="J199">
-        <v>18.82737302780151</v>
+        <v>90.3261706829071</v>
       </c>
       <c r="K199">
         <v>-12</v>
@@ -9993,7 +9993,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J200">
-        <v>19.16899085044861</v>
+        <v>86.71772909164429</v>
       </c>
       <c r="K200">
         <v>-12</v>
@@ -10034,7 +10034,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J201">
-        <v>19.30459094047546</v>
+        <v>77.70711183547974</v>
       </c>
       <c r="K201">
         <v>-12.00000000000001</v>
@@ -10075,7 +10075,7 @@
         <v>-2.999997195513643</v>
       </c>
       <c r="J202">
-        <v>19.35756015777588</v>
+        <v>83.29727578163147</v>
       </c>
       <c r="K202">
         <v>-8.999997195513643</v>
@@ -10116,7 +10116,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J203">
-        <v>19.34303903579712</v>
+        <v>85.81093406677246</v>
       </c>
       <c r="K203">
         <v>-12</v>
@@ -10157,7 +10157,7 @@
         <v>-6</v>
       </c>
       <c r="J204">
-        <v>19.04425072669983</v>
+        <v>78.48803997039795</v>
       </c>
       <c r="K204">
         <v>-12</v>
@@ -10198,7 +10198,7 @@
         <v>-2.999999591358155</v>
       </c>
       <c r="J205">
-        <v>18.80401492118835</v>
+        <v>78.85520219802856</v>
       </c>
       <c r="K205">
         <v>-8.999999591358154</v>
@@ -10239,7 +10239,7 @@
         <v>-6</v>
       </c>
       <c r="J206">
-        <v>19.31299614906311</v>
+        <v>76.07826566696167</v>
       </c>
       <c r="K206">
         <v>-12</v>
@@ -10280,7 +10280,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J207">
-        <v>19.09413981437683</v>
+        <v>79.79196715354919</v>
       </c>
       <c r="K207">
         <v>-11.99999999999999</v>
@@ -10321,7 +10321,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J208">
-        <v>18.92778491973877</v>
+        <v>84.20573401451111</v>
       </c>
       <c r="K208">
         <v>-12</v>
@@ -10362,7 +10362,7 @@
         <v>-6</v>
       </c>
       <c r="J209">
-        <v>19.3496470451355</v>
+        <v>61.2368700504303</v>
       </c>
       <c r="K209">
         <v>-12</v>
@@ -10403,7 +10403,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J210">
-        <v>18.75827980041504</v>
+        <v>83.39164686203003</v>
       </c>
       <c r="K210">
         <v>-12</v>
@@ -10444,7 +10444,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J211">
-        <v>19.01313209533691</v>
+        <v>71.61524510383606</v>
       </c>
       <c r="K211">
         <v>-12</v>
@@ -10485,7 +10485,7 @@
         <v>-1.999999046956827</v>
       </c>
       <c r="J212">
-        <v>21.24285387992859</v>
+        <v>77.8471839427948</v>
       </c>
       <c r="K212">
         <v>-7.999999046956827</v>
@@ -10526,7 +10526,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J213">
-        <v>19.46120309829712</v>
+        <v>77.28160405158997</v>
       </c>
       <c r="K213">
         <v>-11.99999999999999</v>
@@ -10567,7 +10567,7 @@
         <v>-6</v>
       </c>
       <c r="J214">
-        <v>18.93101501464844</v>
+        <v>83.89236903190613</v>
       </c>
       <c r="K214">
         <v>-12</v>
@@ -10608,7 +10608,7 @@
         <v>-5.999999997232946</v>
       </c>
       <c r="J215">
-        <v>18.79859566688538</v>
+        <v>82.75636577606201</v>
       </c>
       <c r="K215">
         <v>-11.99999999723295</v>
@@ -10649,7 +10649,7 @@
         <v>-2.999999859210292</v>
       </c>
       <c r="J216">
-        <v>19.75577592849731</v>
+        <v>79.85684394836426</v>
       </c>
       <c r="K216">
         <v>-8.999999859210291</v>
@@ -10690,7 +10690,7 @@
         <v>-6</v>
       </c>
       <c r="J217">
-        <v>19.2051420211792</v>
+        <v>74.06194400787354</v>
       </c>
       <c r="K217">
         <v>-12</v>
@@ -10731,7 +10731,7 @@
         <v>-1.999988946940844</v>
       </c>
       <c r="J218">
-        <v>19.03804016113281</v>
+        <v>86.72540020942688</v>
       </c>
       <c r="K218">
         <v>-7.999988946940844</v>
@@ -10772,7 +10772,7 @@
         <v>-6</v>
       </c>
       <c r="J219">
-        <v>19.26446175575256</v>
+        <v>90.94081377983093</v>
       </c>
       <c r="K219">
         <v>-12</v>
@@ -10813,7 +10813,7 @@
         <v>-6</v>
       </c>
       <c r="J220">
-        <v>18.83199906349182</v>
+        <v>75.30961799621582</v>
       </c>
       <c r="K220">
         <v>-12</v>
@@ -10854,7 +10854,7 @@
         <v>-2.999997371934322</v>
       </c>
       <c r="J221">
-        <v>18.90661096572876</v>
+        <v>81.86863207817078</v>
       </c>
       <c r="K221">
         <v>-8.999997371934322</v>
@@ -10895,7 +10895,7 @@
         <v>-6</v>
       </c>
       <c r="J222">
-        <v>19.10357308387756</v>
+        <v>79.45313119888306</v>
       </c>
       <c r="K222">
         <v>-12</v>
@@ -10936,7 +10936,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J223">
-        <v>19.8511700630188</v>
+        <v>85.34110689163208</v>
       </c>
       <c r="K223">
         <v>-12</v>
@@ -10977,7 +10977,7 @@
         <v>-2.99999942264109</v>
       </c>
       <c r="J224">
-        <v>19.86284494400024</v>
+        <v>83.87401294708252</v>
       </c>
       <c r="K224">
         <v>-8.999999422641089</v>
@@ -11018,7 +11018,7 @@
         <v>-2.999999776477802</v>
       </c>
       <c r="J225">
-        <v>19.89291906356812</v>
+        <v>84.07619500160217</v>
       </c>
       <c r="K225">
         <v>-8.999999776477802</v>
@@ -11059,7 +11059,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J226">
-        <v>19.53634977340698</v>
+        <v>86.52970194816589</v>
       </c>
       <c r="K226">
         <v>-12</v>
@@ -11100,7 +11100,7 @@
         <v>-2.999973903755716</v>
       </c>
       <c r="J227">
-        <v>20.00957322120667</v>
+        <v>80.71674704551697</v>
       </c>
       <c r="K227">
         <v>-8.999973903755716</v>
@@ -11141,7 +11141,7 @@
         <v>-2.999999662336055</v>
       </c>
       <c r="J228">
-        <v>19.27199196815491</v>
+        <v>63.5999321937561</v>
       </c>
       <c r="K228">
         <v>-8.999999662336055</v>
@@ -11182,7 +11182,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J229">
-        <v>19.61824178695679</v>
+        <v>73.94073390960693</v>
       </c>
       <c r="K229">
         <v>-12</v>
@@ -11223,7 +11223,7 @@
         <v>-6</v>
       </c>
       <c r="J230">
-        <v>19.45385384559631</v>
+        <v>57.94626879692078</v>
       </c>
       <c r="K230">
         <v>-12</v>
@@ -11264,7 +11264,7 @@
         <v>-6</v>
       </c>
       <c r="J231">
-        <v>19.1431999206543</v>
+        <v>49.52959513664246</v>
       </c>
       <c r="K231">
         <v>-12</v>
@@ -11305,7 +11305,7 @@
         <v>-6</v>
       </c>
       <c r="J232">
-        <v>19.31640195846558</v>
+        <v>60.15480303764343</v>
       </c>
       <c r="K232">
         <v>-12</v>
@@ -11346,7 +11346,7 @@
         <v>-2.999999950633616</v>
       </c>
       <c r="J233">
-        <v>18.97517323493958</v>
+        <v>53.01986622810364</v>
       </c>
       <c r="K233">
         <v>-8.999999950633615</v>
@@ -11387,7 +11387,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J234">
-        <v>19.02878403663635</v>
+        <v>48.20586490631104</v>
       </c>
       <c r="K234">
         <v>-12</v>
@@ -11428,7 +11428,7 @@
         <v>-6</v>
       </c>
       <c r="J235">
-        <v>18.83212900161743</v>
+        <v>50.29299807548523</v>
       </c>
       <c r="K235">
         <v>-12</v>
@@ -11469,7 +11469,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J236">
-        <v>19.44111013412476</v>
+        <v>64.38969993591309</v>
       </c>
       <c r="K236">
         <v>-12</v>
@@ -11510,7 +11510,7 @@
         <v>-6</v>
       </c>
       <c r="J237">
-        <v>18.86044716835022</v>
+        <v>65.41621279716492</v>
       </c>
       <c r="K237">
         <v>-12</v>
@@ -11551,7 +11551,7 @@
         <v>-6</v>
       </c>
       <c r="J238">
-        <v>19.10148692131042</v>
+        <v>83.72259616851807</v>
       </c>
       <c r="K238">
         <v>-12</v>
@@ -11592,7 +11592,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J239">
-        <v>19.05076932907104</v>
+        <v>73.07824110984802</v>
       </c>
       <c r="K239">
         <v>-12</v>
@@ -11633,7 +11633,7 @@
         <v>-6</v>
       </c>
       <c r="J240">
-        <v>19.71783328056335</v>
+        <v>70.06061792373657</v>
       </c>
       <c r="K240">
         <v>-12</v>
@@ -11674,7 +11674,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J241">
-        <v>18.59261894226074</v>
+        <v>65.13300204277039</v>
       </c>
       <c r="K241">
         <v>-11.99999999999999</v>
@@ -11715,7 +11715,7 @@
         <v>-6</v>
       </c>
       <c r="J242">
-        <v>17.48934984207153</v>
+        <v>53.1839919090271</v>
       </c>
       <c r="K242">
         <v>-12</v>
@@ -11756,7 +11756,7 @@
         <v>-2.999999944710012</v>
       </c>
       <c r="J243">
-        <v>19.39530491828918</v>
+        <v>82.31155490875244</v>
       </c>
       <c r="K243">
         <v>-8.999999944710012</v>
@@ -11797,7 +11797,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J244">
-        <v>19.07472467422485</v>
+        <v>81.92683529853821</v>
       </c>
       <c r="K244">
         <v>-12</v>
@@ -11838,7 +11838,7 @@
         <v>-2.99999812588079</v>
       </c>
       <c r="J245">
-        <v>19.12897372245789</v>
+        <v>79.48021721839905</v>
       </c>
       <c r="K245">
         <v>-8.99999812588079</v>
@@ -11879,7 +11879,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J246">
-        <v>19.32982301712036</v>
+        <v>80.40322494506836</v>
       </c>
       <c r="K246">
         <v>-12</v>
@@ -11920,7 +11920,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J247">
-        <v>19.39618468284607</v>
+        <v>75.19833302497864</v>
       </c>
       <c r="K247">
         <v>-12</v>
@@ -11961,7 +11961,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J248">
-        <v>20.48923397064209</v>
+        <v>76.2331211566925</v>
       </c>
       <c r="K248">
         <v>-12</v>
@@ -12002,7 +12002,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J249">
-        <v>20.65925097465515</v>
+        <v>77.02522015571594</v>
       </c>
       <c r="K249">
         <v>-12</v>
@@ -12043,7 +12043,7 @@
         <v>-6</v>
       </c>
       <c r="J250">
-        <v>20.66911315917969</v>
+        <v>81.15596222877502</v>
       </c>
       <c r="K250">
         <v>-12</v>
@@ -12084,7 +12084,7 @@
         <v>-6</v>
       </c>
       <c r="J251">
-        <v>19.8420078754425</v>
+        <v>75.53606295585632</v>
       </c>
       <c r="K251">
         <v>-12</v>
@@ -12125,7 +12125,7 @@
         <v>-6</v>
       </c>
       <c r="J252">
-        <v>19.81990885734558</v>
+        <v>73.90710997581482</v>
       </c>
       <c r="K252">
         <v>-12</v>
@@ -12166,7 +12166,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J253">
-        <v>19.41679215431213</v>
+        <v>50.39627909660339</v>
       </c>
       <c r="K253">
         <v>-12</v>
@@ -12207,7 +12207,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J254">
-        <v>21.13565421104431</v>
+        <v>83.03622508049011</v>
       </c>
       <c r="K254">
         <v>-12</v>
@@ -12248,7 +12248,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J255">
-        <v>21.45219111442566</v>
+        <v>76.64431595802307</v>
       </c>
       <c r="K255">
         <v>-12</v>
@@ -12289,7 +12289,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J256">
-        <v>20.09297204017639</v>
+        <v>74.09641981124878</v>
       </c>
       <c r="K256">
         <v>-12</v>
@@ -12330,7 +12330,7 @@
         <v>-6</v>
       </c>
       <c r="J257">
-        <v>20.15513372421265</v>
+        <v>74.77809572219849</v>
       </c>
       <c r="K257">
         <v>-12</v>
@@ -12371,7 +12371,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J258">
-        <v>19.9796040058136</v>
+        <v>77.94439196586609</v>
       </c>
       <c r="K258">
         <v>-12</v>
@@ -12412,7 +12412,7 @@
         <v>-6</v>
       </c>
       <c r="J259">
-        <v>19.61915802955627</v>
+        <v>68.10892486572266</v>
       </c>
       <c r="K259">
         <v>-12</v>
@@ -12453,7 +12453,7 @@
         <v>-6</v>
       </c>
       <c r="J260">
-        <v>19.88605737686157</v>
+        <v>76.0409529209137</v>
       </c>
       <c r="K260">
         <v>-12</v>
@@ -12494,7 +12494,7 @@
         <v>-6</v>
       </c>
       <c r="J261">
-        <v>19.41930985450745</v>
+        <v>72.29662895202637</v>
       </c>
       <c r="K261">
         <v>-12</v>
@@ -12535,7 +12535,7 @@
         <v>-6</v>
       </c>
       <c r="J262">
-        <v>19.71831393241882</v>
+        <v>81.80379271507263</v>
       </c>
       <c r="K262">
         <v>-12</v>
@@ -12576,7 +12576,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J263">
-        <v>18.95590209960938</v>
+        <v>83.29682469367981</v>
       </c>
       <c r="K263">
         <v>-12</v>
@@ -12617,7 +12617,7 @@
         <v>-2.999999838821295</v>
       </c>
       <c r="J264">
-        <v>19.73707604408264</v>
+        <v>73.64397120475769</v>
       </c>
       <c r="K264">
         <v>-8.999999838821296</v>
@@ -12658,7 +12658,7 @@
         <v>-2.999999902865858</v>
       </c>
       <c r="J265">
-        <v>19.6091001033783</v>
+        <v>70.83014607429504</v>
       </c>
       <c r="K265">
         <v>-8.999999902865857</v>
@@ -12699,7 +12699,7 @@
         <v>-2.999999998904552</v>
       </c>
       <c r="J266">
-        <v>19.05128526687622</v>
+        <v>79.3064341545105</v>
       </c>
       <c r="K266">
         <v>-8.999999998904553</v>
@@ -12740,7 +12740,7 @@
         <v>-2.999998310624879</v>
       </c>
       <c r="J267">
-        <v>19.20184278488159</v>
+        <v>80.71601605415344</v>
       </c>
       <c r="K267">
         <v>-8.999998310624878</v>
@@ -12781,7 +12781,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J268">
-        <v>19.12668013572693</v>
+        <v>74.91159200668335</v>
       </c>
       <c r="K268">
         <v>-12</v>
@@ -12822,7 +12822,7 @@
         <v>-6.000000000000008</v>
       </c>
       <c r="J269">
-        <v>19.11523413658142</v>
+        <v>74.62456822395325</v>
       </c>
       <c r="K269">
         <v>-12.00000000000001</v>
@@ -12863,7 +12863,7 @@
         <v>-1.999997926313283</v>
       </c>
       <c r="J270">
-        <v>19.26975917816162</v>
+        <v>85.14456105232239</v>
       </c>
       <c r="K270">
         <v>-7.999997926313283</v>
@@ -12904,7 +12904,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J271">
-        <v>19.05686783790588</v>
+        <v>83.66021704673767</v>
       </c>
       <c r="K271">
         <v>-12</v>
@@ -12945,7 +12945,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J272">
-        <v>19.1956160068512</v>
+        <v>76.30152201652527</v>
       </c>
       <c r="K272">
         <v>-12</v>
@@ -12986,7 +12986,7 @@
         <v>-6</v>
       </c>
       <c r="J273">
-        <v>21.86905527114868</v>
+        <v>69.28028106689453</v>
       </c>
       <c r="K273">
         <v>-12</v>
@@ -13027,7 +13027,7 @@
         <v>-2.99999999404732</v>
       </c>
       <c r="J274">
-        <v>19.55555629730225</v>
+        <v>61.41191911697388</v>
       </c>
       <c r="K274">
         <v>-8.99999999404732</v>
@@ -13068,7 +13068,7 @@
         <v>-2.999999383076276</v>
       </c>
       <c r="J275">
-        <v>18.9897449016571</v>
+        <v>60.36591696739197</v>
       </c>
       <c r="K275">
         <v>-8.999999383076275</v>
@@ -13109,7 +13109,7 @@
         <v>-5.995992399313676</v>
       </c>
       <c r="J276">
-        <v>19.0985689163208</v>
+        <v>62.09976601600647</v>
       </c>
       <c r="K276">
         <v>-11.99599239931367</v>
@@ -13150,7 +13150,7 @@
         <v>-2.999999029211641</v>
       </c>
       <c r="J277">
-        <v>19.54776000976562</v>
+        <v>58.15162801742554</v>
       </c>
       <c r="K277">
         <v>-8.99999902921164</v>
@@ -13191,7 +13191,7 @@
         <v>-2.999989095637522</v>
       </c>
       <c r="J278">
-        <v>19.59030103683472</v>
+        <v>56.49646782875061</v>
       </c>
       <c r="K278">
         <v>-8.999989095637522</v>
@@ -13232,7 +13232,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J279">
-        <v>19.35298299789429</v>
+        <v>64.69031286239624</v>
       </c>
       <c r="K279">
         <v>-12</v>
@@ -13273,7 +13273,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J280">
-        <v>19.07215285301208</v>
+        <v>60.27419900894165</v>
       </c>
       <c r="K280">
         <v>-12</v>
@@ -13314,7 +13314,7 @@
         <v>-2.999999641880549</v>
       </c>
       <c r="J281">
-        <v>21.03796291351318</v>
+        <v>66.02439284324646</v>
       </c>
       <c r="K281">
         <v>-8.999999641880549</v>
@@ -13355,7 +13355,7 @@
         <v>-6</v>
       </c>
       <c r="J282">
-        <v>19.23911714553833</v>
+        <v>64.22953820228577</v>
       </c>
       <c r="K282">
         <v>-12</v>
@@ -13396,7 +13396,7 @@
         <v>-2.999999875265091</v>
       </c>
       <c r="J283">
-        <v>18.79519724845886</v>
+        <v>64.81545996665955</v>
       </c>
       <c r="K283">
         <v>-8.999999875265091</v>
@@ -13437,7 +13437,7 @@
         <v>-6</v>
       </c>
       <c r="J284">
-        <v>24.08221793174744</v>
+        <v>62.58265995979309</v>
       </c>
       <c r="K284">
         <v>-12</v>
@@ -13478,7 +13478,7 @@
         <v>-6</v>
       </c>
       <c r="J285">
-        <v>22.4664990901947</v>
+        <v>65.04865479469299</v>
       </c>
       <c r="K285">
         <v>-12</v>
@@ -13519,7 +13519,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J286">
-        <v>19.98708820343018</v>
+        <v>63.90005493164062</v>
       </c>
       <c r="K286">
         <v>-12</v>
@@ -13560,7 +13560,7 @@
         <v>-2.999999824977826</v>
       </c>
       <c r="J287">
-        <v>22.12479305267334</v>
+        <v>64.56781792640686</v>
       </c>
       <c r="K287">
         <v>-8.999999824977825</v>
@@ -13601,7 +13601,7 @@
         <v>-6</v>
       </c>
       <c r="J288">
-        <v>19.53821802139282</v>
+        <v>57.25492095947266</v>
       </c>
       <c r="K288">
         <v>-12</v>
@@ -13642,7 +13642,7 @@
         <v>-2.999999595378681</v>
       </c>
       <c r="J289">
-        <v>18.9861741065979</v>
+        <v>63.92106699943542</v>
       </c>
       <c r="K289">
         <v>-8.99999959537868</v>
@@ -13683,7 +13683,7 @@
         <v>-6</v>
       </c>
       <c r="J290">
-        <v>20.17202997207642</v>
+        <v>58.82640099525452</v>
       </c>
       <c r="K290">
         <v>-12</v>
@@ -13724,7 +13724,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J291">
-        <v>19.89675998687744</v>
+        <v>64.49127316474915</v>
       </c>
       <c r="K291">
         <v>-12</v>
@@ -13765,7 +13765,7 @@
         <v>-6</v>
       </c>
       <c r="J292">
-        <v>19.88074326515198</v>
+        <v>65.45734977722168</v>
       </c>
       <c r="K292">
         <v>-12</v>
@@ -13806,7 +13806,7 @@
         <v>-6</v>
       </c>
       <c r="J293">
-        <v>19.52823781967163</v>
+        <v>65.01862025260925</v>
       </c>
       <c r="K293">
         <v>-12</v>
@@ -13847,7 +13847,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J294">
-        <v>19.1316249370575</v>
+        <v>64.41737985610962</v>
       </c>
       <c r="K294">
         <v>-12</v>
@@ -13888,7 +13888,7 @@
         <v>-6</v>
       </c>
       <c r="J295">
-        <v>18.89501094818115</v>
+        <v>64.02588629722595</v>
       </c>
       <c r="K295">
         <v>-12</v>
@@ -13929,7 +13929,7 @@
         <v>-6</v>
       </c>
       <c r="J296">
-        <v>20.03527307510376</v>
+        <v>63.30228304862976</v>
       </c>
       <c r="K296">
         <v>-12</v>
@@ -13970,7 +13970,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J297">
-        <v>20.17561316490173</v>
+        <v>64.55332112312317</v>
       </c>
       <c r="K297">
         <v>-12</v>
@@ -14011,7 +14011,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J298">
-        <v>19.74980306625366</v>
+        <v>59.87355899810791</v>
       </c>
       <c r="K298">
         <v>-12</v>
@@ -14052,7 +14052,7 @@
         <v>-2.999999266204704</v>
       </c>
       <c r="J299">
-        <v>18.74782109260559</v>
+        <v>63.99330806732178</v>
       </c>
       <c r="K299">
         <v>-8.999999266204703</v>
@@ -14093,7 +14093,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J300">
-        <v>19.53793215751648</v>
+        <v>64.50539803504944</v>
       </c>
       <c r="K300">
         <v>-12</v>
@@ -14134,7 +14134,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J301">
-        <v>19.01158905029297</v>
+        <v>64.50008511543274</v>
       </c>
       <c r="K301">
         <v>-12</v>
@@ -14175,7 +14175,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J302">
-        <v>19.08954787254333</v>
+        <v>63.28594088554382</v>
       </c>
       <c r="K302">
         <v>-12</v>
@@ -14216,7 +14216,7 @@
         <v>-6</v>
       </c>
       <c r="J303">
-        <v>19.53758478164673</v>
+        <v>60.27430605888367</v>
       </c>
       <c r="K303">
         <v>-12</v>
@@ -14257,7 +14257,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J304">
-        <v>19.41793394088745</v>
+        <v>64.80325317382812</v>
       </c>
       <c r="K304">
         <v>-12</v>
@@ -14298,7 +14298,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J305">
-        <v>19.14112162590027</v>
+        <v>65.02790594100952</v>
       </c>
       <c r="K305">
         <v>-12</v>
@@ -14339,7 +14339,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J306">
-        <v>19.27026796340942</v>
+        <v>65.49308514595032</v>
       </c>
       <c r="K306">
         <v>-12</v>
@@ -14380,7 +14380,7 @@
         <v>-6</v>
       </c>
       <c r="J307">
-        <v>19.61146688461304</v>
+        <v>65.5286180973053</v>
       </c>
       <c r="K307">
         <v>-12</v>
@@ -14421,7 +14421,7 @@
         <v>-2.999999906225304</v>
       </c>
       <c r="J308">
-        <v>20.03569793701172</v>
+        <v>64.36967182159424</v>
       </c>
       <c r="K308">
         <v>-8.999999906225304</v>
@@ -14462,7 +14462,7 @@
         <v>-6</v>
       </c>
       <c r="J309">
-        <v>19.36796689033508</v>
+        <v>58.48457002639771</v>
       </c>
       <c r="K309">
         <v>-12</v>
@@ -14503,7 +14503,7 @@
         <v>-6</v>
       </c>
       <c r="J310">
-        <v>19.43065500259399</v>
+        <v>60.13239097595215</v>
       </c>
       <c r="K310">
         <v>-12</v>
@@ -14544,7 +14544,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J311">
-        <v>19.20792508125305</v>
+        <v>65.33572697639465</v>
       </c>
       <c r="K311">
         <v>-12</v>
@@ -14585,7 +14585,7 @@
         <v>-6</v>
       </c>
       <c r="J312">
-        <v>19.01739692687988</v>
+        <v>63.4754421710968</v>
       </c>
       <c r="K312">
         <v>-12</v>
@@ -14626,7 +14626,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J313">
-        <v>19.20138692855835</v>
+        <v>61.14423084259033</v>
       </c>
       <c r="K313">
         <v>-12</v>
@@ -14667,7 +14667,7 @@
         <v>-6</v>
       </c>
       <c r="J314">
-        <v>19.00441884994507</v>
+        <v>64.11959910392761</v>
       </c>
       <c r="K314">
         <v>-12</v>
@@ -14708,7 +14708,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J315">
-        <v>19.89616203308105</v>
+        <v>63.80561184883118</v>
       </c>
       <c r="K315">
         <v>-12</v>
@@ -14749,7 +14749,7 @@
         <v>-6</v>
       </c>
       <c r="J316">
-        <v>19.26133799552917</v>
+        <v>64.38813376426697</v>
       </c>
       <c r="K316">
         <v>-12</v>
@@ -14790,7 +14790,7 @@
         <v>-2.999999514199122</v>
       </c>
       <c r="J317">
-        <v>19.22897171974182</v>
+        <v>64.21211123466492</v>
       </c>
       <c r="K317">
         <v>-8.999999514199121</v>
@@ -14831,7 +14831,7 @@
         <v>-5.999999999999963</v>
       </c>
       <c r="J318">
-        <v>19.05435585975647</v>
+        <v>58.91806602478027</v>
       </c>
       <c r="K318">
         <v>-11.99999999999996</v>
@@ -14872,7 +14872,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J319">
-        <v>19.14089179039001</v>
+        <v>59.91741228103638</v>
       </c>
       <c r="K319">
         <v>-12</v>
@@ -14913,7 +14913,7 @@
         <v>-6</v>
       </c>
       <c r="J320">
-        <v>19.10741877555847</v>
+        <v>64.50746202468872</v>
       </c>
       <c r="K320">
         <v>-12</v>
@@ -14954,7 +14954,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J321">
-        <v>20.32810997962952</v>
+        <v>64.91258597373962</v>
       </c>
       <c r="K321">
         <v>-12</v>
@@ -14995,7 +14995,7 @@
         <v>-2.999999748003698</v>
       </c>
       <c r="J322">
-        <v>19.91187715530396</v>
+        <v>64.72558784484863</v>
       </c>
       <c r="K322">
         <v>-8.999999748003699</v>
@@ -15036,7 +15036,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J323">
-        <v>19.12558698654175</v>
+        <v>62.63378500938416</v>
       </c>
       <c r="K323">
         <v>-12</v>
@@ -15077,7 +15077,7 @@
         <v>-2.00362678726163</v>
       </c>
       <c r="J324">
-        <v>19.1959388256073</v>
+        <v>57.77853417396545</v>
       </c>
       <c r="K324">
         <v>-8.003626787261631</v>
@@ -15118,7 +15118,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J325">
-        <v>18.96636390686035</v>
+        <v>58.03769612312317</v>
       </c>
       <c r="K325">
         <v>-12</v>
@@ -15159,7 +15159,7 @@
         <v>-2.999998914808177</v>
       </c>
       <c r="J326">
-        <v>19.08292388916016</v>
+        <v>63.91974091529846</v>
       </c>
       <c r="K326">
         <v>-8.999998914808177</v>
@@ -15200,7 +15200,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J327">
-        <v>19.70287394523621</v>
+        <v>64.08036804199219</v>
       </c>
       <c r="K327">
         <v>-12</v>
@@ -15241,7 +15241,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J328">
-        <v>19.49046397209167</v>
+        <v>63.71763110160828</v>
       </c>
       <c r="K328">
         <v>-12</v>
@@ -15282,7 +15282,7 @@
         <v>-6</v>
       </c>
       <c r="J329">
-        <v>21.34534192085266</v>
+        <v>61.44347405433655</v>
       </c>
       <c r="K329">
         <v>-12</v>
@@ -15323,7 +15323,7 @@
         <v>-6</v>
       </c>
       <c r="J330">
-        <v>19.18443536758423</v>
+        <v>61.58514308929443</v>
       </c>
       <c r="K330">
         <v>-12</v>
@@ -15364,7 +15364,7 @@
         <v>-6</v>
       </c>
       <c r="J331">
-        <v>19.40443420410156</v>
+        <v>60.64611983299255</v>
       </c>
       <c r="K331">
         <v>-12</v>
@@ -15405,7 +15405,7 @@
         <v>-2.999999202079356</v>
       </c>
       <c r="J332">
-        <v>19.26142501831055</v>
+        <v>62.3867621421814</v>
       </c>
       <c r="K332">
         <v>-8.999999202079357</v>
@@ -15446,7 +15446,7 @@
         <v>-2.999999103985273</v>
       </c>
       <c r="J333">
-        <v>19.58627891540527</v>
+        <v>64.89776802062988</v>
       </c>
       <c r="K333">
         <v>-8.999999103985273</v>
@@ -15487,7 +15487,7 @@
         <v>-2.999999820268343</v>
       </c>
       <c r="J334">
-        <v>21.46844410896301</v>
+        <v>61.60073184967041</v>
       </c>
       <c r="K334">
         <v>-8.999999820268343</v>
@@ -15528,7 +15528,7 @@
         <v>-6</v>
       </c>
       <c r="J335">
-        <v>19.56528306007385</v>
+        <v>64.60299682617188</v>
       </c>
       <c r="K335">
         <v>-12</v>
@@ -15569,7 +15569,7 @@
         <v>-6</v>
       </c>
       <c r="J336">
-        <v>19.4895601272583</v>
+        <v>63.56761765480042</v>
       </c>
       <c r="K336">
         <v>-12</v>
@@ -15610,7 +15610,7 @@
         <v>-6</v>
       </c>
       <c r="J337">
-        <v>19.47301006317139</v>
+        <v>64.83243680000305</v>
       </c>
       <c r="K337">
         <v>-12</v>
@@ -15651,7 +15651,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J338">
-        <v>19.23269200325012</v>
+        <v>64.04757308959961</v>
       </c>
       <c r="K338">
         <v>-12</v>
@@ -15692,7 +15692,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J339">
-        <v>18.75519704818726</v>
+        <v>59.60445404052734</v>
       </c>
       <c r="K339">
         <v>-12</v>
@@ -15733,7 +15733,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J340">
-        <v>21.94013690948486</v>
+        <v>64.70865106582642</v>
       </c>
       <c r="K340">
         <v>-12</v>
@@ -15774,7 +15774,7 @@
         <v>-1.999999056530315</v>
       </c>
       <c r="J341">
-        <v>19.96445488929749</v>
+        <v>60.43278312683105</v>
       </c>
       <c r="K341">
         <v>-7.999999056530315</v>
@@ -15815,7 +15815,7 @@
         <v>-6</v>
       </c>
       <c r="J342">
-        <v>19.34923696517944</v>
+        <v>62.93184924125671</v>
       </c>
       <c r="K342">
         <v>-12</v>
@@ -15856,7 +15856,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J343">
-        <v>19.09338712692261</v>
+        <v>61.66130399703979</v>
       </c>
       <c r="K343">
         <v>-12</v>
@@ -15897,7 +15897,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J344">
-        <v>19.47388696670532</v>
+        <v>64.49231386184692</v>
       </c>
       <c r="K344">
         <v>-11.99999999999999</v>
@@ -15938,7 +15938,7 @@
         <v>-2.999998915616832</v>
       </c>
       <c r="J345">
-        <v>19.11636686325073</v>
+        <v>63.81163501739502</v>
       </c>
       <c r="K345">
         <v>-8.999998915616832</v>
@@ -15979,7 +15979,7 @@
         <v>-2.999999682822345</v>
       </c>
       <c r="J346">
-        <v>19.45439887046814</v>
+        <v>64.80740571022034</v>
       </c>
       <c r="K346">
         <v>-8.999999682822345</v>
@@ -16020,7 +16020,7 @@
         <v>-2.999998906758052</v>
       </c>
       <c r="J347">
-        <v>19.20932579040527</v>
+        <v>63.48735690116882</v>
       </c>
       <c r="K347">
         <v>-8.999998906758051</v>
@@ -16061,7 +16061,7 @@
         <v>-2.999999958037205</v>
       </c>
       <c r="J348">
-        <v>19.53737902641296</v>
+        <v>62.56623506546021</v>
       </c>
       <c r="K348">
         <v>-8.999999958037204</v>
@@ -16102,7 +16102,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J349">
-        <v>19.05517983436584</v>
+        <v>62.70388579368591</v>
       </c>
       <c r="K349">
         <v>-12</v>
@@ -16143,7 +16143,7 @@
         <v>-6</v>
       </c>
       <c r="J350">
-        <v>19.69632720947266</v>
+        <v>62.87781810760498</v>
       </c>
       <c r="K350">
         <v>-12</v>
@@ -16184,7 +16184,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J351">
-        <v>19.39018082618713</v>
+        <v>62.33334612846375</v>
       </c>
       <c r="K351">
         <v>-12</v>
@@ -16225,7 +16225,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J352">
-        <v>18.89093089103699</v>
+        <v>63.83884620666504</v>
       </c>
       <c r="K352">
         <v>-12</v>
@@ -16266,7 +16266,7 @@
         <v>-6</v>
       </c>
       <c r="J353">
-        <v>19.03725814819336</v>
+        <v>64.98471093177795</v>
       </c>
       <c r="K353">
         <v>-12</v>
@@ -16307,7 +16307,7 @@
         <v>-6</v>
       </c>
       <c r="J354">
-        <v>19.13437700271606</v>
+        <v>53.13115286827087</v>
       </c>
       <c r="K354">
         <v>-12</v>
@@ -16348,7 +16348,7 @@
         <v>-6.000000000000008</v>
       </c>
       <c r="J355">
-        <v>19.14557075500488</v>
+        <v>54.82366704940796</v>
       </c>
       <c r="K355">
         <v>-12.00000000000001</v>
@@ -16389,7 +16389,7 @@
         <v>-6</v>
       </c>
       <c r="J356">
-        <v>19.48604607582092</v>
+        <v>65.14237189292908</v>
       </c>
       <c r="K356">
         <v>-12</v>
@@ -16430,7 +16430,7 @@
         <v>-6</v>
       </c>
       <c r="J357">
-        <v>19.18874979019165</v>
+        <v>62.1251368522644</v>
       </c>
       <c r="K357">
         <v>-12</v>
@@ -16471,7 +16471,7 @@
         <v>-2.999999682116477</v>
       </c>
       <c r="J358">
-        <v>18.95676517486572</v>
+        <v>65.20347023010254</v>
       </c>
       <c r="K358">
         <v>-8.999999682116478</v>
@@ -16512,7 +16512,7 @@
         <v>-6</v>
       </c>
       <c r="J359">
-        <v>18.94166469573975</v>
+        <v>59.0889720916748</v>
       </c>
       <c r="K359">
         <v>-12</v>
@@ -16553,7 +16553,7 @@
         <v>-2.999999521802638</v>
       </c>
       <c r="J360">
-        <v>18.90371203422546</v>
+        <v>64.88187694549561</v>
       </c>
       <c r="K360">
         <v>-8.999999521802637</v>
@@ -16594,7 +16594,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J361">
-        <v>18.95342707633972</v>
+        <v>55.24791884422302</v>
       </c>
       <c r="K361">
         <v>-12</v>
@@ -16635,7 +16635,7 @@
         <v>-6</v>
       </c>
       <c r="J362">
-        <v>18.67055988311768</v>
+        <v>65.0597288608551</v>
       </c>
       <c r="K362">
         <v>-12</v>
@@ -16676,7 +16676,7 @@
         <v>-2.999999584161387</v>
       </c>
       <c r="J363">
-        <v>18.88030076026917</v>
+        <v>58.36956381797791</v>
       </c>
       <c r="K363">
         <v>-8.999999584161387</v>
@@ -16717,7 +16717,7 @@
         <v>-6</v>
       </c>
       <c r="J364">
-        <v>18.8154468536377</v>
+        <v>64.88409113883972</v>
       </c>
       <c r="K364">
         <v>-12</v>
@@ -16758,7 +16758,7 @@
         <v>-1.999994204999558</v>
       </c>
       <c r="J365">
-        <v>21.30258917808533</v>
+        <v>63.83246684074402</v>
       </c>
       <c r="K365">
         <v>-7.999994204999558</v>
@@ -16799,7 +16799,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J366">
-        <v>19.04926013946533</v>
+        <v>58.26170873641968</v>
       </c>
       <c r="K366">
         <v>-12</v>
@@ -16840,7 +16840,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J367">
-        <v>19.59272718429565</v>
+        <v>64.13006329536438</v>
       </c>
       <c r="K367">
         <v>-12</v>
@@ -16881,7 +16881,7 @@
         <v>-6</v>
       </c>
       <c r="J368">
-        <v>18.86623597145081</v>
+        <v>60.74445700645447</v>
       </c>
       <c r="K368">
         <v>-12</v>
@@ -16922,7 +16922,7 @@
         <v>-2.999999682688424</v>
       </c>
       <c r="J369">
-        <v>18.73241281509399</v>
+        <v>65.04746317863464</v>
       </c>
       <c r="K369">
         <v>-8.999999682688424</v>
@@ -16963,7 +16963,7 @@
         <v>-6</v>
       </c>
       <c r="J370">
-        <v>19.07984328269958</v>
+        <v>63.96826195716858</v>
       </c>
       <c r="K370">
         <v>-12</v>
@@ -17004,7 +17004,7 @@
         <v>-6</v>
       </c>
       <c r="J371">
-        <v>18.72941112518311</v>
+        <v>64.6340229511261</v>
       </c>
       <c r="K371">
         <v>-12</v>
@@ -17045,7 +17045,7 @@
         <v>-6</v>
       </c>
       <c r="J372">
-        <v>18.81835007667542</v>
+        <v>62.67584371566772</v>
       </c>
       <c r="K372">
         <v>-12</v>
@@ -17086,7 +17086,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J373">
-        <v>19.56788992881775</v>
+        <v>64.60322523117065</v>
       </c>
       <c r="K373">
         <v>-12</v>
@@ -17127,7 +17127,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J374">
-        <v>19.08687806129456</v>
+        <v>64.21373128890991</v>
       </c>
       <c r="K374">
         <v>-12</v>
@@ -17168,7 +17168,7 @@
         <v>-6</v>
       </c>
       <c r="J375">
-        <v>19.0942530632019</v>
+        <v>52.49227094650269</v>
       </c>
       <c r="K375">
         <v>-12</v>
@@ -17209,7 +17209,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J376">
-        <v>18.88521909713745</v>
+        <v>64.62755727767944</v>
       </c>
       <c r="K376">
         <v>-11.99999999999999</v>
@@ -17250,7 +17250,7 @@
         <v>-2.999999133252133</v>
       </c>
       <c r="J377">
-        <v>19.38120985031128</v>
+        <v>63.59880518913269</v>
       </c>
       <c r="K377">
         <v>-8.999999133252132</v>
@@ -17291,7 +17291,7 @@
         <v>-6</v>
       </c>
       <c r="J378">
-        <v>19.97152328491211</v>
+        <v>63.84762597084045</v>
       </c>
       <c r="K378">
         <v>-12</v>
@@ -17332,7 +17332,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J379">
-        <v>20.05885004997253</v>
+        <v>63.00501394271851</v>
       </c>
       <c r="K379">
         <v>-12</v>
@@ -17373,7 +17373,7 @@
         <v>-1.999999079001033</v>
       </c>
       <c r="J380">
-        <v>19.57216429710388</v>
+        <v>64.485591173172</v>
       </c>
       <c r="K380">
         <v>-7.999999079001033</v>
@@ -17414,7 +17414,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J381">
-        <v>19.87265110015869</v>
+        <v>63.81935095787048</v>
       </c>
       <c r="K381">
         <v>-12</v>
@@ -17455,7 +17455,7 @@
         <v>-6</v>
       </c>
       <c r="J382">
-        <v>20.03166913986206</v>
+        <v>64.10203504562378</v>
       </c>
       <c r="K382">
         <v>-12</v>
@@ -17496,7 +17496,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J383">
-        <v>18.85351490974426</v>
+        <v>64.85828423500061</v>
       </c>
       <c r="K383">
         <v>-11.99999999999999</v>
@@ -17537,7 +17537,7 @@
         <v>-6</v>
       </c>
       <c r="J384">
-        <v>18.99030494689941</v>
+        <v>63.79091095924377</v>
       </c>
       <c r="K384">
         <v>-12</v>
@@ -17578,7 +17578,7 @@
         <v>-1.999996807221469</v>
       </c>
       <c r="J385">
-        <v>19.40969777107239</v>
+        <v>64.56273698806763</v>
       </c>
       <c r="K385">
         <v>-7.99999680722147</v>
@@ -17619,7 +17619,7 @@
         <v>-2.999999997941496</v>
       </c>
       <c r="J386">
-        <v>19.18658590316772</v>
+        <v>60.56526899337769</v>
       </c>
       <c r="K386">
         <v>-8.999999997941496</v>
@@ -17660,7 +17660,7 @@
         <v>-6</v>
       </c>
       <c r="J387">
-        <v>18.91758489608765</v>
+        <v>64.37877011299133</v>
       </c>
       <c r="K387">
         <v>-12</v>
@@ -17701,7 +17701,7 @@
         <v>-6</v>
       </c>
       <c r="J388">
-        <v>19.18775296211243</v>
+        <v>63.97375178337097</v>
       </c>
       <c r="K388">
         <v>-12</v>
@@ -17742,7 +17742,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J389">
-        <v>19.0546190738678</v>
+        <v>59.09793591499329</v>
       </c>
       <c r="K389">
         <v>-12</v>
@@ -17783,7 +17783,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J390">
-        <v>19.06470417976379</v>
+        <v>64.65785098075867</v>
       </c>
       <c r="K390">
         <v>-12</v>
@@ -17824,7 +17824,7 @@
         <v>-2.999999652679386</v>
       </c>
       <c r="J391">
-        <v>18.78667712211609</v>
+        <v>64.45801329612732</v>
       </c>
       <c r="K391">
         <v>-8.999999652679385</v>
@@ -17865,7 +17865,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J392">
-        <v>18.88935708999634</v>
+        <v>60.64932107925415</v>
       </c>
       <c r="K392">
         <v>-12.00000000000001</v>
@@ -17906,7 +17906,7 @@
         <v>-2.99999996088511</v>
       </c>
       <c r="J393">
-        <v>18.79674077033997</v>
+        <v>63.90852308273315</v>
       </c>
       <c r="K393">
         <v>-8.999999960885109</v>
@@ -17947,7 +17947,7 @@
         <v>-6</v>
       </c>
       <c r="J394">
-        <v>18.86158108711243</v>
+        <v>64.73407292366028</v>
       </c>
       <c r="K394">
         <v>-12</v>
@@ -17988,7 +17988,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J395">
-        <v>18.81886315345764</v>
+        <v>64.15915393829346</v>
       </c>
       <c r="K395">
         <v>-12</v>
@@ -18029,7 +18029,7 @@
         <v>-1.999999368717766</v>
       </c>
       <c r="J396">
-        <v>20.57396817207336</v>
+        <v>64.68651080131531</v>
       </c>
       <c r="K396">
         <v>-7.999999368717766</v>
@@ -18070,7 +18070,7 @@
         <v>-2.999999738503294</v>
       </c>
       <c r="J397">
-        <v>18.89008188247681</v>
+        <v>57.15293097496033</v>
       </c>
       <c r="K397">
         <v>-8.999999738503295</v>
@@ -18111,7 +18111,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J398">
-        <v>18.91643214225769</v>
+        <v>62.54787302017212</v>
       </c>
       <c r="K398">
         <v>-11.99999999999999</v>
@@ -18152,7 +18152,7 @@
         <v>-2.999999603745645</v>
       </c>
       <c r="J399">
-        <v>18.87065386772156</v>
+        <v>64.68348288536072</v>
       </c>
       <c r="K399">
         <v>-8.999999603745644</v>
@@ -18193,7 +18193,7 @@
         <v>-2.999999983584801</v>
       </c>
       <c r="J400">
-        <v>18.98308491706848</v>
+        <v>63.49162411689758</v>
       </c>
       <c r="K400">
         <v>-8.9999999835848</v>
@@ -18234,7 +18234,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J401">
-        <v>18.94440913200378</v>
+        <v>63.64604330062866</v>
       </c>
       <c r="K401">
         <v>-12</v>
@@ -18275,7 +18275,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J402">
-        <v>18.85539722442627</v>
+        <v>63.94038486480713</v>
       </c>
       <c r="K402">
         <v>-12</v>
@@ -18316,7 +18316,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J403">
-        <v>18.96495795249939</v>
+        <v>57.23810005187988</v>
       </c>
       <c r="K403">
         <v>-12</v>
@@ -18357,7 +18357,7 @@
         <v>-6</v>
       </c>
       <c r="J404">
-        <v>18.86901092529297</v>
+        <v>64.20710897445679</v>
       </c>
       <c r="K404">
         <v>-12</v>
@@ -18398,7 +18398,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J405">
-        <v>18.90629410743713</v>
+        <v>56.74926996231079</v>
       </c>
       <c r="K405">
         <v>-11.99999999999999</v>
@@ -18439,7 +18439,7 @@
         <v>-2.999999774241426</v>
       </c>
       <c r="J406">
-        <v>18.93455696105957</v>
+        <v>65.35443186759949</v>
       </c>
       <c r="K406">
         <v>-8.999999774241427</v>
@@ -18480,7 +18480,7 @@
         <v>-6</v>
       </c>
       <c r="J407">
-        <v>18.84394693374634</v>
+        <v>64.30809807777405</v>
       </c>
       <c r="K407">
         <v>-12</v>
@@ -18521,7 +18521,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J408">
-        <v>19.08805108070374</v>
+        <v>58.93701720237732</v>
       </c>
       <c r="K408">
         <v>-12</v>
@@ -18562,7 +18562,7 @@
         <v>-6</v>
       </c>
       <c r="J409">
-        <v>18.37416100502014</v>
+        <v>64.13581609725952</v>
       </c>
       <c r="K409">
         <v>-12</v>
@@ -18603,7 +18603,7 @@
         <v>-2.999982570112611</v>
       </c>
       <c r="J410">
-        <v>17.3767397403717</v>
+        <v>64.75113224983215</v>
       </c>
       <c r="K410">
         <v>-8.999982570112611</v>
@@ -18644,7 +18644,7 @@
         <v>-3.006766812828533</v>
       </c>
       <c r="J411">
-        <v>17.49457192420959</v>
+        <v>62.94911313056946</v>
       </c>
       <c r="K411">
         <v>-9.006766812828532</v>
@@ -18685,7 +18685,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J412">
-        <v>17.41765904426575</v>
+        <v>60.68291997909546</v>
       </c>
       <c r="K412">
         <v>-12</v>
@@ -18726,7 +18726,7 @@
         <v>-6</v>
       </c>
       <c r="J413">
-        <v>17.38228297233582</v>
+        <v>64.27638506889343</v>
       </c>
       <c r="K413">
         <v>-12</v>
@@ -18767,7 +18767,7 @@
         <v>-6</v>
       </c>
       <c r="J414">
-        <v>18.25142502784729</v>
+        <v>57.99576997756958</v>
       </c>
       <c r="K414">
         <v>-12</v>
@@ -18808,7 +18808,7 @@
         <v>-2.999999907897867</v>
       </c>
       <c r="J415">
-        <v>18.85409879684448</v>
+        <v>61.44401097297668</v>
       </c>
       <c r="K415">
         <v>-8.999999907897866</v>
@@ -18849,7 +18849,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J416">
-        <v>18.72546601295471</v>
+        <v>63.55832004547119</v>
       </c>
       <c r="K416">
         <v>-12</v>
@@ -18890,7 +18890,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J417">
-        <v>18.71962809562683</v>
+        <v>62.68376708030701</v>
       </c>
       <c r="K417">
         <v>-12</v>
@@ -18931,7 +18931,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J418">
-        <v>18.9398078918457</v>
+        <v>64.32302808761597</v>
       </c>
       <c r="K418">
         <v>-11.99999999999999</v>
@@ -18972,7 +18972,7 @@
         <v>-2.999999790968503</v>
       </c>
       <c r="J419">
-        <v>18.84778094291687</v>
+        <v>62.94789099693298</v>
       </c>
       <c r="K419">
         <v>-8.999999790968504</v>
@@ -19013,7 +19013,7 @@
         <v>-2.999993114732704</v>
       </c>
       <c r="J420">
-        <v>18.90445375442505</v>
+        <v>64.02677011489868</v>
       </c>
       <c r="K420">
         <v>-8.999993114732703</v>
@@ -19054,7 +19054,7 @@
         <v>-6</v>
       </c>
       <c r="J421">
-        <v>18.92971181869507</v>
+        <v>63.0840048789978</v>
       </c>
       <c r="K421">
         <v>-12</v>
@@ -19095,7 +19095,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J422">
-        <v>18.90283894538879</v>
+        <v>60.71246910095215</v>
       </c>
       <c r="K422">
         <v>-12</v>
@@ -19136,7 +19136,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J423">
-        <v>18.75437188148499</v>
+        <v>59.88134098052979</v>
       </c>
       <c r="K423">
         <v>-12</v>
@@ -19177,7 +19177,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J424">
-        <v>18.64936780929565</v>
+        <v>64.99693298339844</v>
       </c>
       <c r="K424">
         <v>-12</v>
@@ -19218,7 +19218,7 @@
         <v>-2.999994458759393</v>
       </c>
       <c r="J425">
-        <v>18.89277315139771</v>
+        <v>61.84653902053833</v>
       </c>
       <c r="K425">
         <v>-8.999994458759392</v>
@@ -19259,7 +19259,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J426">
-        <v>18.81691384315491</v>
+        <v>64.71844792366028</v>
       </c>
       <c r="K426">
         <v>-12</v>
@@ -19300,7 +19300,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J427">
-        <v>18.97983407974243</v>
+        <v>60.78345203399658</v>
       </c>
       <c r="K427">
         <v>-12</v>
@@ -19341,7 +19341,7 @@
         <v>-6</v>
       </c>
       <c r="J428">
-        <v>20.29265880584717</v>
+        <v>64.76020479202271</v>
       </c>
       <c r="K428">
         <v>-12</v>
@@ -19382,7 +19382,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J429">
-        <v>19.1201000213623</v>
+        <v>61.21954369544983</v>
       </c>
       <c r="K429">
         <v>-12</v>
@@ -19423,7 +19423,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J430">
-        <v>18.9664888381958</v>
+        <v>64.77812099456787</v>
       </c>
       <c r="K430">
         <v>-12</v>
@@ -19464,7 +19464,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J431">
-        <v>19.11735892295837</v>
+        <v>63.83874201774597</v>
       </c>
       <c r="K431">
         <v>-12</v>
@@ -19505,7 +19505,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J432">
-        <v>19.79311394691467</v>
+        <v>64.41463994979858</v>
       </c>
       <c r="K432">
         <v>-12</v>
@@ -19546,7 +19546,7 @@
         <v>-6</v>
       </c>
       <c r="J433">
-        <v>20.87976288795471</v>
+        <v>64.98484492301941</v>
       </c>
       <c r="K433">
         <v>-12</v>
@@ -19587,7 +19587,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J434">
-        <v>18.85491800308228</v>
+        <v>63.05769610404968</v>
       </c>
       <c r="K434">
         <v>-11.99999999999999</v>
@@ -19628,7 +19628,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J435">
-        <v>18.88825440406799</v>
+        <v>64.83700108528137</v>
       </c>
       <c r="K435">
         <v>-12</v>
@@ -19669,7 +19669,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J436">
-        <v>18.88301587104797</v>
+        <v>63.92284083366394</v>
       </c>
       <c r="K436">
         <v>-12</v>
@@ -19710,7 +19710,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J437">
-        <v>18.76811289787292</v>
+        <v>62.84847784042358</v>
       </c>
       <c r="K437">
         <v>-12</v>
@@ -19751,7 +19751,7 @@
         <v>-6</v>
       </c>
       <c r="J438">
-        <v>19.9050018787384</v>
+        <v>59.49275994300842</v>
       </c>
       <c r="K438">
         <v>-12</v>
@@ -19792,7 +19792,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J439">
-        <v>18.63853216171265</v>
+        <v>64.38384699821472</v>
       </c>
       <c r="K439">
         <v>-12</v>
@@ -19833,7 +19833,7 @@
         <v>-5.999999999971931</v>
       </c>
       <c r="J440">
-        <v>19.01875996589661</v>
+        <v>64.75079774856567</v>
       </c>
       <c r="K440">
         <v>-11.99999999997193</v>
@@ -19874,7 +19874,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J441">
-        <v>18.81786632537842</v>
+        <v>64.20879983901978</v>
       </c>
       <c r="K441">
         <v>-12</v>
@@ -19915,7 +19915,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J442">
-        <v>18.81353807449341</v>
+        <v>64.31858897209167</v>
       </c>
       <c r="K442">
         <v>-12</v>
@@ -19956,7 +19956,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J443">
-        <v>18.85552406311035</v>
+        <v>63.88010811805725</v>
       </c>
       <c r="K443">
         <v>-12</v>
@@ -19997,7 +19997,7 @@
         <v>-6</v>
       </c>
       <c r="J444">
-        <v>20.55516386032104</v>
+        <v>64.99895405769348</v>
       </c>
       <c r="K444">
         <v>-12</v>
@@ -20038,7 +20038,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J445">
-        <v>19.47482299804688</v>
+        <v>63.93819284439087</v>
       </c>
       <c r="K445">
         <v>-12</v>
@@ -20079,7 +20079,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J446">
-        <v>18.75619316101074</v>
+        <v>64.68120193481445</v>
       </c>
       <c r="K446">
         <v>-12</v>
@@ -20120,7 +20120,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J447">
-        <v>18.97989892959595</v>
+        <v>64.76660394668579</v>
       </c>
       <c r="K447">
         <v>-12</v>
@@ -20161,7 +20161,7 @@
         <v>-6</v>
       </c>
       <c r="J448">
-        <v>18.94371294975281</v>
+        <v>63.89813089370728</v>
       </c>
       <c r="K448">
         <v>-12</v>
@@ -20202,7 +20202,7 @@
         <v>-2.999999722080847</v>
       </c>
       <c r="J449">
-        <v>18.81760096549988</v>
+        <v>59.88071393966675</v>
       </c>
       <c r="K449">
         <v>-8.999999722080847</v>
@@ -20243,7 +20243,7 @@
         <v>-6</v>
       </c>
       <c r="J450">
-        <v>18.80642819404602</v>
+        <v>63.97057414054871</v>
       </c>
       <c r="K450">
         <v>-12</v>
@@ -20284,7 +20284,7 @@
         <v>-3.000162999882104</v>
       </c>
       <c r="J451">
-        <v>18.75975918769836</v>
+        <v>64.62970399856567</v>
       </c>
       <c r="K451">
         <v>-9.000162999882104</v>
@@ -20325,7 +20325,7 @@
         <v>-6</v>
       </c>
       <c r="J452">
-        <v>18.64414572715759</v>
+        <v>63.97390913963318</v>
       </c>
       <c r="K452">
         <v>-12</v>
@@ -20366,7 +20366,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J453">
-        <v>18.77789282798767</v>
+        <v>64.53364610671997</v>
       </c>
       <c r="K453">
         <v>-12</v>
@@ -20407,7 +20407,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J454">
-        <v>19.04604291915894</v>
+        <v>62.75684237480164</v>
       </c>
       <c r="K454">
         <v>-12</v>
@@ -20448,7 +20448,7 @@
         <v>-2.999999790601501</v>
       </c>
       <c r="J455">
-        <v>18.79704117774963</v>
+        <v>64.07210803031921</v>
       </c>
       <c r="K455">
         <v>-8.9999997906015</v>
@@ -20489,7 +20489,7 @@
         <v>-6</v>
       </c>
       <c r="J456">
-        <v>18.87293195724487</v>
+        <v>63.94955801963806</v>
       </c>
       <c r="K456">
         <v>-12</v>
@@ -20530,7 +20530,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J457">
-        <v>18.82506918907166</v>
+        <v>62.33533501625061</v>
       </c>
       <c r="K457">
         <v>-12</v>
@@ -20571,7 +20571,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J458">
-        <v>25.80133390426636</v>
+        <v>64.13045811653137</v>
       </c>
       <c r="K458">
         <v>-12</v>
@@ -20612,7 +20612,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J459">
-        <v>31.21643710136414</v>
+        <v>63.69164800643921</v>
       </c>
       <c r="K459">
         <v>-12</v>
@@ -20653,7 +20653,7 @@
         <v>-6</v>
       </c>
       <c r="J460">
-        <v>20.72262811660767</v>
+        <v>64.64462304115295</v>
       </c>
       <c r="K460">
         <v>-12</v>
@@ -20694,7 +20694,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J461">
-        <v>19.06397175788879</v>
+        <v>61.94246125221252</v>
       </c>
       <c r="K461">
         <v>-12</v>
@@ -20735,7 +20735,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J462">
-        <v>19.31543803215027</v>
+        <v>62.17704391479492</v>
       </c>
       <c r="K462">
         <v>-11.99999999999999</v>
@@ -20776,7 +20776,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J463">
-        <v>19.09408187866211</v>
+        <v>62.99693703651428</v>
       </c>
       <c r="K463">
         <v>-12</v>
@@ -20817,7 +20817,7 @@
         <v>-6</v>
       </c>
       <c r="J464">
-        <v>18.90293574333191</v>
+        <v>64.68830108642578</v>
       </c>
       <c r="K464">
         <v>-12</v>
@@ -20858,7 +20858,7 @@
         <v>-6</v>
       </c>
       <c r="J465">
-        <v>18.74938797950745</v>
+        <v>64.97732257843018</v>
       </c>
       <c r="K465">
         <v>-12</v>
@@ -20899,7 +20899,7 @@
         <v>-2.999999903952724</v>
       </c>
       <c r="J466">
-        <v>18.89331674575806</v>
+        <v>65.0115430355072</v>
       </c>
       <c r="K466">
         <v>-8.999999903952723</v>
@@ -20940,7 +20940,7 @@
         <v>-2.999999553386031</v>
       </c>
       <c r="J467">
-        <v>18.93518209457397</v>
+        <v>62.55984902381897</v>
       </c>
       <c r="K467">
         <v>-8.999999553386031</v>
@@ -20981,7 +20981,7 @@
         <v>-6</v>
       </c>
       <c r="J468">
-        <v>19.05398201942444</v>
+        <v>64.89323925971985</v>
       </c>
       <c r="K468">
         <v>-12</v>
@@ -21022,7 +21022,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J469">
-        <v>18.9784209728241</v>
+        <v>64.13494610786438</v>
       </c>
       <c r="K469">
         <v>-12</v>
@@ -21063,7 +21063,7 @@
         <v>-6</v>
       </c>
       <c r="J470">
-        <v>18.79062008857727</v>
+        <v>64.35200524330139</v>
       </c>
       <c r="K470">
         <v>-12</v>
@@ -21104,7 +21104,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J471">
-        <v>19.12722301483154</v>
+        <v>64.10367488861084</v>
       </c>
       <c r="K471">
         <v>-12</v>
@@ -21145,7 +21145,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J472">
-        <v>17.62969517707825</v>
+        <v>58.07558703422546</v>
       </c>
       <c r="K472">
         <v>-12</v>
@@ -21186,7 +21186,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J473">
-        <v>17.51744222640991</v>
+        <v>64.05572628974915</v>
       </c>
       <c r="K473">
         <v>-12</v>
@@ -21227,7 +21227,7 @@
         <v>-1.999997707293274</v>
       </c>
       <c r="J474">
-        <v>18.90901398658752</v>
+        <v>64.76329398155212</v>
       </c>
       <c r="K474">
         <v>-7.999997707293273</v>
@@ -21268,7 +21268,7 @@
         <v>-6</v>
       </c>
       <c r="J475">
-        <v>18.81006193161011</v>
+        <v>64.55679106712341</v>
       </c>
       <c r="K475">
         <v>-12</v>
@@ -21309,7 +21309,7 @@
         <v>-6</v>
       </c>
       <c r="J476">
-        <v>19.02253603935242</v>
+        <v>59.24349093437195</v>
       </c>
       <c r="K476">
         <v>-12</v>
@@ -21350,7 +21350,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J477">
-        <v>20.38038492202759</v>
+        <v>58.69117999076843</v>
       </c>
       <c r="K477">
         <v>-12</v>
@@ -21391,7 +21391,7 @@
         <v>-2.999999826268092</v>
       </c>
       <c r="J478">
-        <v>19.6466658115387</v>
+        <v>63.86761617660522</v>
       </c>
       <c r="K478">
         <v>-8.999999826268091</v>
@@ -21432,7 +21432,7 @@
         <v>-2.999999778986005</v>
       </c>
       <c r="J479">
-        <v>19.00619196891785</v>
+        <v>62.8224310874939</v>
       </c>
       <c r="K479">
         <v>-8.999999778986005</v>
@@ -21473,7 +21473,7 @@
         <v>-6</v>
       </c>
       <c r="J480">
-        <v>18.8308629989624</v>
+        <v>64.07999587059021</v>
       </c>
       <c r="K480">
         <v>-12</v>
@@ -21514,7 +21514,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J481">
-        <v>18.92892503738403</v>
+        <v>64.80991291999817</v>
       </c>
       <c r="K481">
         <v>-11.99999999999999</v>
@@ -21555,7 +21555,7 @@
         <v>-2.999999903116382</v>
       </c>
       <c r="J482">
-        <v>18.66684913635254</v>
+        <v>60.03784132003784</v>
       </c>
       <c r="K482">
         <v>-8.999999903116382</v>
@@ -21596,7 +21596,7 @@
         <v>-6</v>
       </c>
       <c r="J483">
-        <v>19.09004712104797</v>
+        <v>64.91776990890503</v>
       </c>
       <c r="K483">
         <v>-12</v>
@@ -21637,7 +21637,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J484">
-        <v>19.12749123573303</v>
+        <v>60.15335607528687</v>
       </c>
       <c r="K484">
         <v>-12</v>
@@ -21678,7 +21678,7 @@
         <v>-6</v>
       </c>
       <c r="J485">
-        <v>18.7742931842804</v>
+        <v>64.23839998245239</v>
       </c>
       <c r="K485">
         <v>-12</v>
@@ -21719,7 +21719,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J486">
-        <v>18.71441316604614</v>
+        <v>64.61519122123718</v>
       </c>
       <c r="K486">
         <v>-12</v>
@@ -21760,7 +21760,7 @@
         <v>-6</v>
       </c>
       <c r="J487">
-        <v>18.76495480537415</v>
+        <v>64.01298403739929</v>
       </c>
       <c r="K487">
         <v>-12</v>
@@ -21801,7 +21801,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J488">
-        <v>18.79576325416565</v>
+        <v>59.08932304382324</v>
       </c>
       <c r="K488">
         <v>-12</v>
@@ -21842,7 +21842,7 @@
         <v>-2.99999992458442</v>
       </c>
       <c r="J489">
-        <v>18.78290390968323</v>
+        <v>64.03981018066406</v>
       </c>
       <c r="K489">
         <v>-8.99999992458442</v>
@@ -21883,7 +21883,7 @@
         <v>-6</v>
       </c>
       <c r="J490">
-        <v>20.41497492790222</v>
+        <v>64.91053986549377</v>
       </c>
       <c r="K490">
         <v>-12</v>
@@ -21924,7 +21924,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J491">
-        <v>19.12980699539185</v>
+        <v>64.53241610527039</v>
       </c>
       <c r="K491">
         <v>-11.99999999999999</v>
@@ -21965,7 +21965,7 @@
         <v>-2.999999957633106</v>
       </c>
       <c r="J492">
-        <v>19.08103489875793</v>
+        <v>61.69493293762207</v>
       </c>
       <c r="K492">
         <v>-8.999999957633106</v>
@@ -22006,7 +22006,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J493">
-        <v>19.25006604194641</v>
+        <v>62.4908390045166</v>
       </c>
       <c r="K493">
         <v>-12</v>
@@ -22047,7 +22047,7 @@
         <v>-6</v>
       </c>
       <c r="J494">
-        <v>19.40073680877686</v>
+        <v>63.91815280914307</v>
       </c>
       <c r="K494">
         <v>-12</v>
@@ -22088,7 +22088,7 @@
         <v>-2.999999895720026</v>
       </c>
       <c r="J495">
-        <v>18.91532206535339</v>
+        <v>64.56472778320312</v>
       </c>
       <c r="K495">
         <v>-8.999999895720027</v>
@@ -22129,7 +22129,7 @@
         <v>-6</v>
       </c>
       <c r="J496">
-        <v>19.05435585975647</v>
+        <v>61.12190985679626</v>
       </c>
       <c r="K496">
         <v>-12</v>
@@ -22170,7 +22170,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J497">
-        <v>18.79567265510559</v>
+        <v>64.99102401733398</v>
       </c>
       <c r="K497">
         <v>-12</v>
@@ -22211,7 +22211,7 @@
         <v>-6</v>
       </c>
       <c r="J498">
-        <v>18.86285901069641</v>
+        <v>64.04398202896118</v>
       </c>
       <c r="K498">
         <v>-12</v>
@@ -22252,7 +22252,7 @@
         <v>-1.999999545791386</v>
       </c>
       <c r="J499">
-        <v>18.71539711952209</v>
+        <v>64.69593095779419</v>
       </c>
       <c r="K499">
         <v>-7.999999545791385</v>
@@ -22293,7 +22293,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J500">
-        <v>19.0030210018158</v>
+        <v>63.48030185699463</v>
       </c>
       <c r="K500">
         <v>-12</v>
@@ -22334,7 +22334,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J501">
-        <v>19.42569327354431</v>
+        <v>64.1004810333252</v>
       </c>
       <c r="K501">
         <v>-12</v>
@@ -22375,7 +22375,7 @@
         <v>-6</v>
       </c>
       <c r="J502">
-        <v>18.88909912109375</v>
+        <v>64.69172525405884</v>
       </c>
       <c r="K502">
         <v>-12</v>
@@ -22416,7 +22416,7 @@
         <v>-6</v>
       </c>
       <c r="J503">
-        <v>18.90338182449341</v>
+        <v>63.89167308807373</v>
       </c>
       <c r="K503">
         <v>-12</v>
@@ -22457,7 +22457,7 @@
         <v>-6</v>
       </c>
       <c r="J504">
-        <v>19.05270099639893</v>
+        <v>62.90430426597595</v>
       </c>
       <c r="K504">
         <v>-12</v>
@@ -22498,7 +22498,7 @@
         <v>-1.999998745170502</v>
       </c>
       <c r="J505">
-        <v>18.96531105041504</v>
+        <v>64.18751525878906</v>
       </c>
       <c r="K505">
         <v>-7.999998745170502</v>
@@ -22539,7 +22539,7 @@
         <v>-2.999998901367303</v>
       </c>
       <c r="J506">
-        <v>18.83540296554565</v>
+        <v>64.73518991470337</v>
       </c>
       <c r="K506">
         <v>-8.999998901367302</v>
@@ -22580,7 +22580,7 @@
         <v>-5.999994066859307</v>
       </c>
       <c r="J507">
-        <v>19.32798480987549</v>
+        <v>62.15818119049072</v>
       </c>
       <c r="K507">
         <v>-11.99999406685931</v>
@@ -22621,7 +22621,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J508">
-        <v>19.86713600158691</v>
+        <v>64.05128121376038</v>
       </c>
       <c r="K508">
         <v>-11.99999999999999</v>
@@ -22662,7 +22662,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J509">
-        <v>20.26663184165955</v>
+        <v>63.01655912399292</v>
       </c>
       <c r="K509">
         <v>-12</v>
@@ -22703,7 +22703,7 @@
         <v>-2.999999996697055</v>
       </c>
       <c r="J510">
-        <v>19.65876913070679</v>
+        <v>64.22335600852966</v>
       </c>
       <c r="K510">
         <v>-8.999999996697055</v>
@@ -22744,7 +22744,7 @@
         <v>-6</v>
       </c>
       <c r="J511">
-        <v>19.05482697486877</v>
+        <v>61.31550192832947</v>
       </c>
       <c r="K511">
         <v>-12</v>
@@ -22785,7 +22785,7 @@
         <v>-6</v>
       </c>
       <c r="J512">
-        <v>21.77619576454163</v>
+        <v>64.15463781356812</v>
       </c>
       <c r="K512">
         <v>-12</v>
@@ -22826,7 +22826,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J513">
-        <v>19.20818424224854</v>
+        <v>64.89721822738647</v>
       </c>
       <c r="K513">
         <v>-12</v>
@@ -22867,7 +22867,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J514">
-        <v>19.14224576950073</v>
+        <v>63.20678091049194</v>
       </c>
       <c r="K514">
         <v>-11.99999999999999</v>
@@ -22908,7 +22908,7 @@
         <v>-5.999999999999989</v>
       </c>
       <c r="J515">
-        <v>18.88379788398743</v>
+        <v>63.97621774673462</v>
       </c>
       <c r="K515">
         <v>-11.99999999999999</v>
@@ -22949,7 +22949,7 @@
         <v>-2.999999984972161</v>
       </c>
       <c r="J516">
-        <v>19.36924695968628</v>
+        <v>63.36242413520813</v>
       </c>
       <c r="K516">
         <v>-8.999999984972161</v>
@@ -22990,7 +22990,7 @@
         <v>-1.999996861227193</v>
       </c>
       <c r="J517">
-        <v>18.78717589378357</v>
+        <v>62.69348001480103</v>
       </c>
       <c r="K517">
         <v>-7.999996861227192</v>
@@ -23031,7 +23031,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J518">
-        <v>19.2474730014801</v>
+        <v>57.83263325691223</v>
       </c>
       <c r="K518">
         <v>-12</v>
@@ -23072,7 +23072,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J519">
-        <v>19.12154483795166</v>
+        <v>64.54876494407654</v>
       </c>
       <c r="K519">
         <v>-12</v>
@@ -23113,7 +23113,7 @@
         <v>-6</v>
       </c>
       <c r="J520">
-        <v>19.19315886497498</v>
+        <v>65.04153680801392</v>
       </c>
       <c r="K520">
         <v>-12</v>
@@ -23154,7 +23154,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J521">
-        <v>20.82531881332397</v>
+        <v>64.51805806159973</v>
       </c>
       <c r="K521">
         <v>-12</v>
@@ -23195,7 +23195,7 @@
         <v>-1.999967222696616</v>
       </c>
       <c r="J522">
-        <v>19.25306129455566</v>
+        <v>64.26238179206848</v>
       </c>
       <c r="K522">
         <v>-7.999967222696617</v>
@@ -23236,7 +23236,7 @@
         <v>-6</v>
       </c>
       <c r="J523">
-        <v>19.5068531036377</v>
+        <v>64.91507506370544</v>
       </c>
       <c r="K523">
         <v>-12</v>
@@ -23277,7 +23277,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J524">
-        <v>19.01290702819824</v>
+        <v>64.06437397003174</v>
       </c>
       <c r="K524">
         <v>-12</v>
@@ -23318,7 +23318,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J525">
-        <v>19.26020789146423</v>
+        <v>61.3377149105072</v>
       </c>
       <c r="K525">
         <v>-12</v>
@@ -23359,7 +23359,7 @@
         <v>-2.999998961332293</v>
       </c>
       <c r="J526">
-        <v>19.63460469245911</v>
+        <v>64.53282904624939</v>
       </c>
       <c r="K526">
         <v>-8.999998961332292</v>
@@ -23400,7 +23400,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J527">
-        <v>21.88980388641357</v>
+        <v>64.78043007850647</v>
       </c>
       <c r="K527">
         <v>-12</v>
@@ -23441,7 +23441,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J528">
-        <v>19.87845015525818</v>
+        <v>62.61469388008118</v>
       </c>
       <c r="K528">
         <v>-12</v>
@@ -23482,7 +23482,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J529">
-        <v>28.34373688697815</v>
+        <v>62.97937512397766</v>
       </c>
       <c r="K529">
         <v>-12</v>
@@ -23523,7 +23523,7 @@
         <v>-5.99999999999837</v>
       </c>
       <c r="J530">
-        <v>19.81419491767883</v>
+        <v>61.37111592292786</v>
       </c>
       <c r="K530">
         <v>-11.99999999999837</v>
@@ -23564,7 +23564,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J531">
-        <v>18.93990802764893</v>
+        <v>64.02194786071777</v>
       </c>
       <c r="K531">
         <v>-12</v>
@@ -23605,7 +23605,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J532">
-        <v>18.80990123748779</v>
+        <v>64.85824108123779</v>
       </c>
       <c r="K532">
         <v>-12</v>
@@ -23646,7 +23646,7 @@
         <v>-2.999999926040322</v>
       </c>
       <c r="J533">
-        <v>19.34661602973938</v>
+        <v>62.70030379295349</v>
       </c>
       <c r="K533">
         <v>-8.999999926040323</v>
@@ -23687,7 +23687,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J534">
-        <v>19.22575283050537</v>
+        <v>64.88411808013916</v>
       </c>
       <c r="K534">
         <v>-12</v>
@@ -23728,7 +23728,7 @@
         <v>-2.999999908089594</v>
       </c>
       <c r="J535">
-        <v>19.0346360206604</v>
+        <v>56.80618405342102</v>
       </c>
       <c r="K535">
         <v>-8.999999908089595</v>
@@ -23769,7 +23769,7 @@
         <v>-6</v>
       </c>
       <c r="J536">
-        <v>18.95042586326599</v>
+        <v>62.32880091667175</v>
       </c>
       <c r="K536">
         <v>-12</v>
@@ -23810,7 +23810,7 @@
         <v>-6</v>
       </c>
       <c r="J537">
-        <v>19.06821393966675</v>
+        <v>63.78998708724976</v>
       </c>
       <c r="K537">
         <v>-12</v>
@@ -23851,7 +23851,7 @@
         <v>-2.999999555325504</v>
       </c>
       <c r="J538">
-        <v>18.99128890037537</v>
+        <v>64.22825813293457</v>
       </c>
       <c r="K538">
         <v>-8.999999555325504</v>
@@ -23892,7 +23892,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J539">
-        <v>19.36661195755005</v>
+        <v>61.5225727558136</v>
       </c>
       <c r="K539">
         <v>-12</v>
@@ -23933,7 +23933,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J540">
-        <v>18.81736588478088</v>
+        <v>61.12808394432068</v>
       </c>
       <c r="K540">
         <v>-12</v>
@@ -23974,7 +23974,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J541">
-        <v>18.87569403648376</v>
+        <v>64.5492959022522</v>
       </c>
       <c r="K541">
         <v>-12</v>
@@ -24015,7 +24015,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J542">
-        <v>18.85759472846985</v>
+        <v>63.92814898490906</v>
       </c>
       <c r="K542">
         <v>-12</v>
@@ -24056,7 +24056,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J543">
-        <v>18.89895009994507</v>
+        <v>59.56616282463074</v>
       </c>
       <c r="K543">
         <v>-12</v>
@@ -24097,7 +24097,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J544">
-        <v>18.68105292320251</v>
+        <v>60.34591102600098</v>
       </c>
       <c r="K544">
         <v>-11.99999999999999</v>
@@ -24138,7 +24138,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J545">
-        <v>19.11743593215942</v>
+        <v>60.7107880115509</v>
       </c>
       <c r="K545">
         <v>-12</v>
@@ -24179,7 +24179,7 @@
         <v>-6</v>
       </c>
       <c r="J546">
-        <v>19.07634520530701</v>
+        <v>64.70107316970825</v>
       </c>
       <c r="K546">
         <v>-12</v>
@@ -24220,7 +24220,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J547">
-        <v>18.80520510673523</v>
+        <v>63.9835569858551</v>
       </c>
       <c r="K547">
         <v>-12</v>
@@ -24261,7 +24261,7 @@
         <v>-6</v>
       </c>
       <c r="J548">
-        <v>18.90153312683105</v>
+        <v>62.3798668384552</v>
       </c>
       <c r="K548">
         <v>-12</v>
@@ -24302,7 +24302,7 @@
         <v>-6</v>
       </c>
       <c r="J549">
-        <v>18.9328339099884</v>
+        <v>63.79593896865845</v>
       </c>
       <c r="K549">
         <v>-12</v>
@@ -24343,7 +24343,7 @@
         <v>-6</v>
       </c>
       <c r="J550">
-        <v>19.73747205734253</v>
+        <v>64.82214903831482</v>
       </c>
       <c r="K550">
         <v>-12</v>
@@ -24384,7 +24384,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J551">
-        <v>30.62270998954773</v>
+        <v>61.51738691329956</v>
       </c>
       <c r="K551">
         <v>-12</v>
@@ -24425,7 +24425,7 @@
         <v>-6</v>
       </c>
       <c r="J552">
-        <v>32.2507688999176</v>
+        <v>61.59760522842407</v>
       </c>
       <c r="K552">
         <v>-12</v>
@@ -24466,7 +24466,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J553">
-        <v>29.95248413085938</v>
+        <v>65.13282775878906</v>
       </c>
       <c r="K553">
         <v>-12</v>
@@ -24507,7 +24507,7 @@
         <v>-2.999999082593606</v>
       </c>
       <c r="J554">
-        <v>18.37331891059875</v>
+        <v>64.07806992530823</v>
       </c>
       <c r="K554">
         <v>-8.999999082593606</v>
@@ -24548,7 +24548,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J555">
-        <v>18.54518413543701</v>
+        <v>56.04824304580688</v>
       </c>
       <c r="K555">
         <v>-12</v>
@@ -24589,7 +24589,7 @@
         <v>-2.99999972657608</v>
       </c>
       <c r="J556">
-        <v>18.53171110153198</v>
+        <v>63.99440312385559</v>
       </c>
       <c r="K556">
         <v>-8.99999972657608</v>
@@ -24630,7 +24630,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J557">
-        <v>18.83115005493164</v>
+        <v>65.20942902565002</v>
       </c>
       <c r="K557">
         <v>-12</v>
@@ -24671,7 +24671,7 @@
         <v>-2.999998235728145</v>
       </c>
       <c r="J558">
-        <v>18.73656392097473</v>
+        <v>60.16507697105408</v>
       </c>
       <c r="K558">
         <v>-8.999998235728144</v>
@@ -24712,7 +24712,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J559">
-        <v>18.65155982971191</v>
+        <v>64.81266570091248</v>
       </c>
       <c r="K559">
         <v>-12</v>
@@ -24753,7 +24753,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J560">
-        <v>18.83459305763245</v>
+        <v>63.64485907554626</v>
       </c>
       <c r="K560">
         <v>-12</v>
@@ -24794,7 +24794,7 @@
         <v>-1.999999666393361</v>
       </c>
       <c r="J561">
-        <v>18.76677703857422</v>
+        <v>63.24167585372925</v>
       </c>
       <c r="K561">
         <v>-7.999999666393361</v>
@@ -24835,7 +24835,7 @@
         <v>-6</v>
       </c>
       <c r="J562">
-        <v>19.14435768127441</v>
+        <v>64.91564416885376</v>
       </c>
       <c r="K562">
         <v>-12</v>
@@ -24876,7 +24876,7 @@
         <v>-6</v>
       </c>
       <c r="J563">
-        <v>18.88098883628845</v>
+        <v>64.28820013999939</v>
       </c>
       <c r="K563">
         <v>-12</v>
@@ -24917,7 +24917,7 @@
         <v>-5.999999999994158</v>
       </c>
       <c r="J564">
-        <v>18.63105893135071</v>
+        <v>63.50603914260864</v>
       </c>
       <c r="K564">
         <v>-11.99999999999416</v>
@@ -24958,7 +24958,7 @@
         <v>-2.999998859900872</v>
       </c>
       <c r="J565">
-        <v>18.82177495956421</v>
+        <v>61.04980897903442</v>
       </c>
       <c r="K565">
         <v>-8.999998859900872</v>
@@ -24999,7 +24999,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J566">
-        <v>19.15990614891052</v>
+        <v>64.72987294197083</v>
       </c>
       <c r="K566">
         <v>-12</v>
@@ -25040,7 +25040,7 @@
         <v>-6</v>
       </c>
       <c r="J567">
-        <v>19.42453408241272</v>
+        <v>63.86041593551636</v>
       </c>
       <c r="K567">
         <v>-12</v>
@@ -25081,7 +25081,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J568">
-        <v>18.83484792709351</v>
+        <v>64.93387866020203</v>
       </c>
       <c r="K568">
         <v>-12</v>
@@ -25122,7 +25122,7 @@
         <v>-2.999999971506749</v>
       </c>
       <c r="J569">
-        <v>18.93605589866638</v>
+        <v>64.97431707382202</v>
       </c>
       <c r="K569">
         <v>-8.99999997150675</v>
@@ -25163,7 +25163,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J570">
-        <v>18.79063296318054</v>
+        <v>58.73148202896118</v>
       </c>
       <c r="K570">
         <v>-12</v>
@@ -25204,7 +25204,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J571">
-        <v>19.51398801803589</v>
+        <v>62.91844606399536</v>
       </c>
       <c r="K571">
         <v>-12</v>
@@ -25245,7 +25245,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J572">
-        <v>18.96194291114807</v>
+        <v>64.23558497428894</v>
       </c>
       <c r="K572">
         <v>-12</v>
@@ -25286,7 +25286,7 @@
         <v>-5.999999999991987</v>
       </c>
       <c r="J573">
-        <v>18.66234111785889</v>
+        <v>60.83187007904053</v>
       </c>
       <c r="K573">
         <v>-11.99999999999199</v>
@@ -25327,7 +25327,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J574">
-        <v>19.05816507339478</v>
+        <v>63.95203995704651</v>
       </c>
       <c r="K574">
         <v>-12</v>
@@ -25368,7 +25368,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J575">
-        <v>19.22203302383423</v>
+        <v>64.17828011512756</v>
       </c>
       <c r="K575">
         <v>-12</v>
@@ -25409,7 +25409,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J576">
-        <v>19.13236093521118</v>
+        <v>61.28869199752808</v>
       </c>
       <c r="K576">
         <v>-12</v>
@@ -25450,7 +25450,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J577">
-        <v>19.14112997055054</v>
+        <v>64.81026005744934</v>
       </c>
       <c r="K577">
         <v>-12</v>
@@ -25491,7 +25491,7 @@
         <v>-6</v>
       </c>
       <c r="J578">
-        <v>18.96713423728943</v>
+        <v>64.84948682785034</v>
       </c>
       <c r="K578">
         <v>-12</v>
@@ -25532,7 +25532,7 @@
         <v>-6</v>
       </c>
       <c r="J579">
-        <v>18.89173126220703</v>
+        <v>63.89385890960693</v>
       </c>
       <c r="K579">
         <v>-12</v>
@@ -25573,7 +25573,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J580">
-        <v>19.5270631313324</v>
+        <v>64.80011415481567</v>
       </c>
       <c r="K580">
         <v>-12</v>
@@ -25614,7 +25614,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J581">
-        <v>20.06463384628296</v>
+        <v>61.00983905792236</v>
       </c>
       <c r="K581">
         <v>-12</v>
@@ -25655,7 +25655,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J582">
-        <v>19.65464806556702</v>
+        <v>63.58532619476318</v>
       </c>
       <c r="K582">
         <v>-12</v>
@@ -25696,7 +25696,7 @@
         <v>-6</v>
       </c>
       <c r="J583">
-        <v>19.11988210678101</v>
+        <v>64.1183500289917</v>
       </c>
       <c r="K583">
         <v>-12</v>
@@ -25737,7 +25737,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J584">
-        <v>18.86710715293884</v>
+        <v>64.32777404785156</v>
       </c>
       <c r="K584">
         <v>-12</v>
@@ -25778,7 +25778,7 @@
         <v>-2.999998320535111</v>
       </c>
       <c r="J585">
-        <v>19.39486694335938</v>
+        <v>59.7332398891449</v>
       </c>
       <c r="K585">
         <v>-8.999998320535111</v>
@@ -25819,7 +25819,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J586">
-        <v>19.26059484481812</v>
+        <v>64.07995009422302</v>
       </c>
       <c r="K586">
         <v>-12</v>
@@ -25860,7 +25860,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J587">
-        <v>19.08480095863342</v>
+        <v>64.2854790687561</v>
       </c>
       <c r="K587">
         <v>-12</v>
@@ -25901,7 +25901,7 @@
         <v>-5.996874490000478</v>
       </c>
       <c r="J588">
-        <v>19.33153200149536</v>
+        <v>61.09245204925537</v>
       </c>
       <c r="K588">
         <v>-11.99687449000048</v>
@@ -25942,7 +25942,7 @@
         <v>-2.99999716609935</v>
       </c>
       <c r="J589">
-        <v>18.87685298919678</v>
+        <v>64.80137801170349</v>
       </c>
       <c r="K589">
         <v>-8.99999716609935</v>
@@ -25983,7 +25983,7 @@
         <v>-6</v>
       </c>
       <c r="J590">
-        <v>18.86309194564819</v>
+        <v>64.06263494491577</v>
       </c>
       <c r="K590">
         <v>-12</v>
@@ -26024,7 +26024,7 @@
         <v>-1.999999069772397</v>
       </c>
       <c r="J591">
-        <v>19.24365425109863</v>
+        <v>64.90417885780334</v>
       </c>
       <c r="K591">
         <v>-7.999999069772397</v>
@@ -26065,7 +26065,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J592">
-        <v>19.72057294845581</v>
+        <v>64.76029706001282</v>
       </c>
       <c r="K592">
         <v>-12</v>
@@ -26106,7 +26106,7 @@
         <v>-6</v>
       </c>
       <c r="J593">
-        <v>18.63706874847412</v>
+        <v>63.41464519500732</v>
       </c>
       <c r="K593">
         <v>-12</v>
@@ -26147,7 +26147,7 @@
         <v>-2.999998135894788</v>
       </c>
       <c r="J594">
-        <v>18.95562434196472</v>
+        <v>64.54384994506836</v>
       </c>
       <c r="K594">
         <v>-8.999998135894788</v>
@@ -26188,7 +26188,7 @@
         <v>-2.999999840339342</v>
       </c>
       <c r="J595">
-        <v>18.87429022789001</v>
+        <v>61.86665415763855</v>
       </c>
       <c r="K595">
         <v>-8.999999840339342</v>
@@ -26229,7 +26229,7 @@
         <v>-6</v>
       </c>
       <c r="J596">
-        <v>19.77985286712646</v>
+        <v>64.57282590866089</v>
       </c>
       <c r="K596">
         <v>-12</v>
@@ -26270,7 +26270,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J597">
-        <v>19.08188390731812</v>
+        <v>63.84695887565613</v>
       </c>
       <c r="K597">
         <v>-12</v>
@@ -26311,7 +26311,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J598">
-        <v>18.97611093521118</v>
+        <v>64.65395307540894</v>
       </c>
       <c r="K598">
         <v>-12</v>
@@ -26352,7 +26352,7 @@
         <v>-6</v>
       </c>
       <c r="J599">
-        <v>18.69570422172546</v>
+        <v>64.7678279876709</v>
       </c>
       <c r="K599">
         <v>-12</v>
@@ -26393,7 +26393,7 @@
         <v>-6</v>
       </c>
       <c r="J600">
-        <v>18.81490874290466</v>
+        <v>63.86030101776123</v>
       </c>
       <c r="K600">
         <v>-12</v>
@@ -26434,7 +26434,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J601">
-        <v>18.68591618537903</v>
+        <v>64.64819574356079</v>
       </c>
       <c r="K601">
         <v>-12</v>
@@ -26475,7 +26475,7 @@
         <v>-1.999996737587156</v>
       </c>
       <c r="J602">
-        <v>18.85763192176819</v>
+        <v>60.29369592666626</v>
       </c>
       <c r="K602">
         <v>-7.999996737587156</v>
@@ -26516,7 +26516,7 @@
         <v>-6</v>
       </c>
       <c r="J603">
-        <v>18.77808475494385</v>
+        <v>64.21506786346436</v>
       </c>
       <c r="K603">
         <v>-12</v>
@@ -26557,7 +26557,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J604">
-        <v>18.62555694580078</v>
+        <v>64.42880415916443</v>
       </c>
       <c r="K604">
         <v>-12</v>
@@ -26598,7 +26598,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J605">
-        <v>18.8132061958313</v>
+        <v>65.05399608612061</v>
       </c>
       <c r="K605">
         <v>-12</v>
@@ -26639,7 +26639,7 @@
         <v>-6</v>
       </c>
       <c r="J606">
-        <v>19.19442391395569</v>
+        <v>63.46476316452026</v>
       </c>
       <c r="K606">
         <v>-12</v>
@@ -26680,7 +26680,7 @@
         <v>-6</v>
       </c>
       <c r="J607">
-        <v>18.99140000343323</v>
+        <v>64.05435824394226</v>
       </c>
       <c r="K607">
         <v>-12</v>
@@ -26721,7 +26721,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J608">
-        <v>18.69275689125061</v>
+        <v>62.38076519966125</v>
       </c>
       <c r="K608">
         <v>-12</v>
@@ -26762,7 +26762,7 @@
         <v>-6</v>
       </c>
       <c r="J609">
-        <v>18.75791525840759</v>
+        <v>63.75557398796082</v>
       </c>
       <c r="K609">
         <v>-12</v>
@@ -26803,7 +26803,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J610">
-        <v>18.74479413032532</v>
+        <v>51.4970920085907</v>
       </c>
       <c r="K610">
         <v>-12</v>
@@ -26844,7 +26844,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J611">
-        <v>19.51482820510864</v>
+        <v>59.50003719329834</v>
       </c>
       <c r="K611">
         <v>-12</v>
@@ -26885,7 +26885,7 @@
         <v>-1.999998894615322</v>
       </c>
       <c r="J612">
-        <v>20.1463668346405</v>
+        <v>63.62071204185486</v>
       </c>
       <c r="K612">
         <v>-7.999998894615322</v>
@@ -26926,7 +26926,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J613">
-        <v>19.78743410110474</v>
+        <v>63.72810125350952</v>
       </c>
       <c r="K613">
         <v>-12</v>
@@ -26967,7 +26967,7 @@
         <v>-6</v>
       </c>
       <c r="J614">
-        <v>19.74925899505615</v>
+        <v>65.02994918823242</v>
       </c>
       <c r="K614">
         <v>-12</v>
@@ -27008,7 +27008,7 @@
         <v>-6</v>
       </c>
       <c r="J615">
-        <v>18.92035293579102</v>
+        <v>58.93638396263123</v>
       </c>
       <c r="K615">
         <v>-12</v>
@@ -27049,7 +27049,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J616">
-        <v>18.83226299285889</v>
+        <v>62.6104588508606</v>
       </c>
       <c r="K616">
         <v>-11.99999999999999</v>
@@ -27090,7 +27090,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J617">
-        <v>18.70559501647949</v>
+        <v>62.41343283653259</v>
       </c>
       <c r="K617">
         <v>-12.00000000000001</v>
@@ -27131,7 +27131,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J618">
-        <v>18.98345804214478</v>
+        <v>63.19251465797424</v>
       </c>
       <c r="K618">
         <v>-12</v>
@@ -27172,7 +27172,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J619">
-        <v>19.08302164077759</v>
+        <v>65.68729710578918</v>
       </c>
       <c r="K619">
         <v>-11.99999999999999</v>
@@ -27213,7 +27213,7 @@
         <v>-1.999999604897674</v>
       </c>
       <c r="J620">
-        <v>19.14412331581116</v>
+        <v>64.74136328697205</v>
       </c>
       <c r="K620">
         <v>-7.999999604897674</v>
@@ -27254,7 +27254,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J621">
-        <v>19.10756087303162</v>
+        <v>65.19746804237366</v>
       </c>
       <c r="K621">
         <v>-12</v>
@@ -27295,7 +27295,7 @@
         <v>-2.999999946105733</v>
       </c>
       <c r="J622">
-        <v>19.08880996704102</v>
+        <v>63.94145822525024</v>
       </c>
       <c r="K622">
         <v>-8.999999946105733</v>
@@ -27336,7 +27336,7 @@
         <v>-6</v>
       </c>
       <c r="J623">
-        <v>19.40746974945068</v>
+        <v>61.85757899284363</v>
       </c>
       <c r="K623">
         <v>-12</v>
@@ -27377,7 +27377,7 @@
         <v>-6</v>
       </c>
       <c r="J624">
-        <v>18.78257298469543</v>
+        <v>65.30772972106934</v>
       </c>
       <c r="K624">
         <v>-12</v>
@@ -27418,7 +27418,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J625">
-        <v>19.44683289527893</v>
+        <v>62.87667012214661</v>
       </c>
       <c r="K625">
         <v>-11.99999999999999</v>
@@ -27459,7 +27459,7 @@
         <v>-6</v>
       </c>
       <c r="J626">
-        <v>18.87790632247925</v>
+        <v>65.02252006530762</v>
       </c>
       <c r="K626">
         <v>-12</v>
@@ -27500,7 +27500,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J627">
-        <v>19.10795903205872</v>
+        <v>64.70389103889465</v>
       </c>
       <c r="K627">
         <v>-12</v>
@@ -27541,7 +27541,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J628">
-        <v>18.96413803100586</v>
+        <v>65.34382224082947</v>
       </c>
       <c r="K628">
         <v>-12</v>
@@ -27582,7 +27582,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J629">
-        <v>19.0787308216095</v>
+        <v>64.61061596870422</v>
       </c>
       <c r="K629">
         <v>-12</v>
@@ -27623,7 +27623,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J630">
-        <v>19.00033283233643</v>
+        <v>64.23776507377625</v>
       </c>
       <c r="K630">
         <v>-12</v>
@@ -27664,7 +27664,7 @@
         <v>-2.99999875835962</v>
       </c>
       <c r="J631">
-        <v>16.26117277145386</v>
+        <v>61.67312693595886</v>
       </c>
       <c r="K631">
         <v>-8.99999875835962</v>
@@ -27705,7 +27705,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J632">
-        <v>16.07540988922119</v>
+        <v>64.5652928352356</v>
       </c>
       <c r="K632">
         <v>-12</v>
@@ -27746,7 +27746,7 @@
         <v>-6</v>
       </c>
       <c r="J633">
-        <v>19.18536591529846</v>
+        <v>65.75407385826111</v>
       </c>
       <c r="K633">
         <v>-12</v>
@@ -27787,7 +27787,7 @@
         <v>-2.999999901523659</v>
       </c>
       <c r="J634">
-        <v>19.02259993553162</v>
+        <v>64.9891049861908</v>
       </c>
       <c r="K634">
         <v>-8.999999901523658</v>
@@ -27828,7 +27828,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J635">
-        <v>18.82774877548218</v>
+        <v>65.23010468482971</v>
       </c>
       <c r="K635">
         <v>-12</v>
@@ -27869,7 +27869,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J636">
-        <v>18.71346688270569</v>
+        <v>63.19372010231018</v>
       </c>
       <c r="K636">
         <v>-12</v>
@@ -27910,7 +27910,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J637">
-        <v>18.73387289047241</v>
+        <v>64.50858879089355</v>
       </c>
       <c r="K637">
         <v>-12</v>
@@ -27951,7 +27951,7 @@
         <v>-2.99999926785854</v>
       </c>
       <c r="J638">
-        <v>18.81698083877563</v>
+        <v>62.14399981498718</v>
       </c>
       <c r="K638">
         <v>-8.99999926785854</v>
@@ -27992,7 +27992,7 @@
         <v>-6</v>
       </c>
       <c r="J639">
-        <v>19.06137990951538</v>
+        <v>64.20711994171143</v>
       </c>
       <c r="K639">
         <v>-12</v>
@@ -28033,7 +28033,7 @@
         <v>-2.99999990651394</v>
       </c>
       <c r="J640">
-        <v>18.72760701179504</v>
+        <v>62.57598519325256</v>
       </c>
       <c r="K640">
         <v>-8.99999990651394</v>
@@ -28074,7 +28074,7 @@
         <v>-6</v>
       </c>
       <c r="J641">
-        <v>18.90299010276794</v>
+        <v>64.61447715759277</v>
       </c>
       <c r="K641">
         <v>-12</v>
@@ -28115,7 +28115,7 @@
         <v>-6</v>
       </c>
       <c r="J642">
-        <v>18.83950519561768</v>
+        <v>65.54405498504639</v>
       </c>
       <c r="K642">
         <v>-12</v>
@@ -28156,7 +28156,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J643">
-        <v>18.78239393234253</v>
+        <v>63.2847888469696</v>
       </c>
       <c r="K643">
         <v>-12</v>
@@ -28197,7 +28197,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J644">
-        <v>21.5127899646759</v>
+        <v>58.60169386863708</v>
       </c>
       <c r="K644">
         <v>-12</v>
@@ -28238,7 +28238,7 @@
         <v>-5.999999999999728</v>
       </c>
       <c r="J645">
-        <v>19.21363997459412</v>
+        <v>58.38176083564758</v>
       </c>
       <c r="K645">
         <v>-11.99999999999973</v>
@@ -28279,7 +28279,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J646">
-        <v>18.72197699546814</v>
+        <v>64.11245584487915</v>
       </c>
       <c r="K646">
         <v>-12</v>
@@ -28320,7 +28320,7 @@
         <v>-2.999999691040587</v>
       </c>
       <c r="J647">
-        <v>18.72891497612</v>
+        <v>64.55880808830261</v>
       </c>
       <c r="K647">
         <v>-8.999999691040587</v>
@@ -28361,7 +28361,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J648">
-        <v>18.67325282096863</v>
+        <v>64.60973906517029</v>
       </c>
       <c r="K648">
         <v>-12</v>
@@ -28402,7 +28402,7 @@
         <v>-2.999999962094671</v>
       </c>
       <c r="J649">
-        <v>17.34808135032654</v>
+        <v>65.01776909828186</v>
       </c>
       <c r="K649">
         <v>-8.999999962094671</v>
@@ -28443,7 +28443,7 @@
         <v>-6</v>
       </c>
       <c r="J650">
-        <v>17.81948804855347</v>
+        <v>64.47422313690186</v>
       </c>
       <c r="K650">
         <v>-12</v>
@@ -28484,7 +28484,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J651">
-        <v>17.43571519851685</v>
+        <v>65.08911085128784</v>
       </c>
       <c r="K651">
         <v>-12</v>
@@ -28525,7 +28525,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J652">
-        <v>17.55978393554688</v>
+        <v>65.51863288879395</v>
       </c>
       <c r="K652">
         <v>-12</v>
@@ -28566,7 +28566,7 @@
         <v>-6</v>
       </c>
       <c r="J653">
-        <v>27.8212947845459</v>
+        <v>64.40817809104919</v>
       </c>
       <c r="K653">
         <v>-12</v>
@@ -28607,7 +28607,7 @@
         <v>-6</v>
       </c>
       <c r="J654">
-        <v>26.26534199714661</v>
+        <v>64.94491624832153</v>
       </c>
       <c r="K654">
         <v>-12</v>
@@ -28648,7 +28648,7 @@
         <v>-5.999982065837818</v>
       </c>
       <c r="J655">
-        <v>18.6360981464386</v>
+        <v>60.08678126335144</v>
       </c>
       <c r="K655">
         <v>-11.99998206583782</v>
@@ -28689,7 +28689,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J656">
-        <v>19.04567122459412</v>
+        <v>60.94514083862305</v>
       </c>
       <c r="K656">
         <v>-12.00000000000001</v>
@@ -28730,7 +28730,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J657">
-        <v>18.70517110824585</v>
+        <v>64.37762308120728</v>
       </c>
       <c r="K657">
         <v>-12</v>
@@ -28771,7 +28771,7 @@
         <v>-6</v>
       </c>
       <c r="J658">
-        <v>18.68904495239258</v>
+        <v>61.87626075744629</v>
       </c>
       <c r="K658">
         <v>-12</v>
@@ -28812,7 +28812,7 @@
         <v>-6</v>
       </c>
       <c r="J659">
-        <v>18.97520208358765</v>
+        <v>64.33267092704773</v>
       </c>
       <c r="K659">
         <v>-12</v>
@@ -28853,7 +28853,7 @@
         <v>-6</v>
       </c>
       <c r="J660">
-        <v>18.68849515914917</v>
+        <v>62.83734679222107</v>
       </c>
       <c r="K660">
         <v>-12</v>
@@ -28894,7 +28894,7 @@
         <v>-6</v>
       </c>
       <c r="J661">
-        <v>18.74816608428955</v>
+        <v>61.71851801872253</v>
       </c>
       <c r="K661">
         <v>-12</v>
@@ -28935,7 +28935,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J662">
-        <v>19.06210398674011</v>
+        <v>61.22563219070435</v>
       </c>
       <c r="K662">
         <v>-12</v>
@@ -28976,7 +28976,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J663">
-        <v>19.02550196647644</v>
+        <v>65.51415801048279</v>
       </c>
       <c r="K663">
         <v>-12</v>
@@ -29017,7 +29017,7 @@
         <v>-6</v>
       </c>
       <c r="J664">
-        <v>18.88443493843079</v>
+        <v>63.52372574806213</v>
       </c>
       <c r="K664">
         <v>-12</v>
@@ -29058,7 +29058,7 @@
         <v>-6</v>
       </c>
       <c r="J665">
-        <v>18.76741909980774</v>
+        <v>63.27840995788574</v>
       </c>
       <c r="K665">
         <v>-12</v>
@@ -29099,7 +29099,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J666">
-        <v>18.72024893760681</v>
+        <v>64.91690397262573</v>
       </c>
       <c r="K666">
         <v>-12</v>
@@ -29140,7 +29140,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J667">
-        <v>18.56084799766541</v>
+        <v>64.52530694007874</v>
       </c>
       <c r="K667">
         <v>-12</v>
@@ -29181,7 +29181,7 @@
         <v>-2.999999922074519</v>
       </c>
       <c r="J668">
-        <v>18.59190201759338</v>
+        <v>61.47538375854492</v>
       </c>
       <c r="K668">
         <v>-8.999999922074519</v>
@@ -29222,7 +29222,7 @@
         <v>-5.999999216796109</v>
       </c>
       <c r="J669">
-        <v>18.67076396942139</v>
+        <v>64.51404595375061</v>
       </c>
       <c r="K669">
         <v>-11.99999921679611</v>
@@ -29263,7 +29263,7 @@
         <v>-2.999997792097366</v>
       </c>
       <c r="J670">
-        <v>18.81785225868225</v>
+        <v>63.78052401542664</v>
       </c>
       <c r="K670">
         <v>-8.999997792097366</v>
@@ -29304,7 +29304,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J671">
-        <v>18.70856237411499</v>
+        <v>61.67896389961243</v>
       </c>
       <c r="K671">
         <v>-12</v>
@@ -29345,7 +29345,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J672">
-        <v>18.81095409393311</v>
+        <v>62.50357985496521</v>
       </c>
       <c r="K672">
         <v>-12</v>
@@ -29386,7 +29386,7 @@
         <v>-6</v>
       </c>
       <c r="J673">
-        <v>18.909836769104</v>
+        <v>64.04948306083679</v>
       </c>
       <c r="K673">
         <v>-12</v>
@@ -29427,7 +29427,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J674">
-        <v>18.77019715309143</v>
+        <v>64.93168783187866</v>
       </c>
       <c r="K674">
         <v>-12</v>
@@ -29468,7 +29468,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J675">
-        <v>19.73579788208008</v>
+        <v>64.90140271186829</v>
       </c>
       <c r="K675">
         <v>-12</v>
@@ -29509,7 +29509,7 @@
         <v>-6</v>
       </c>
       <c r="J676">
-        <v>19.11738801002502</v>
+        <v>64.03959608078003</v>
       </c>
       <c r="K676">
         <v>-12</v>
@@ -29550,7 +29550,7 @@
         <v>-6</v>
       </c>
       <c r="J677">
-        <v>18.83420729637146</v>
+        <v>64.2475950717926</v>
       </c>
       <c r="K677">
         <v>-12</v>
@@ -29591,7 +29591,7 @@
         <v>-6</v>
       </c>
       <c r="J678">
-        <v>18.78228402137756</v>
+        <v>64.07052969932556</v>
       </c>
       <c r="K678">
         <v>-12</v>
@@ -29632,7 +29632,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J679">
-        <v>18.60038495063782</v>
+        <v>62.6622200012207</v>
       </c>
       <c r="K679">
         <v>-12</v>
@@ -29673,7 +29673,7 @@
         <v>-2.999999925116628</v>
       </c>
       <c r="J680">
-        <v>18.56728315353394</v>
+        <v>64.95433592796326</v>
       </c>
       <c r="K680">
         <v>-8.999999925116629</v>
@@ -29714,7 +29714,7 @@
         <v>-2.999998989851662</v>
       </c>
       <c r="J681">
-        <v>18.76426696777344</v>
+        <v>63.10739207267761</v>
       </c>
       <c r="K681">
         <v>-8.999998989851662</v>
@@ -29755,7 +29755,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J682">
-        <v>18.87056303024292</v>
+        <v>62.59979701042175</v>
       </c>
       <c r="K682">
         <v>-12</v>
@@ -29796,7 +29796,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J683">
-        <v>18.5508599281311</v>
+        <v>63.77781677246094</v>
       </c>
       <c r="K683">
         <v>-12</v>
@@ -29837,7 +29837,7 @@
         <v>-6</v>
       </c>
       <c r="J684">
-        <v>20.56132888793945</v>
+        <v>65.14679622650146</v>
       </c>
       <c r="K684">
         <v>-12</v>
@@ -29878,7 +29878,7 @@
         <v>-6</v>
       </c>
       <c r="J685">
-        <v>29.1175639629364</v>
+        <v>58.13235211372375</v>
       </c>
       <c r="K685">
         <v>-12</v>
@@ -29919,7 +29919,7 @@
         <v>-6</v>
       </c>
       <c r="J686">
-        <v>30.59097981452942</v>
+        <v>65.05600523948669</v>
       </c>
       <c r="K686">
         <v>-12</v>
@@ -29960,7 +29960,7 @@
         <v>-6</v>
       </c>
       <c r="J687">
-        <v>18.11370396614075</v>
+        <v>64.36275696754456</v>
       </c>
       <c r="K687">
         <v>-12</v>
@@ -30001,7 +30001,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J688">
-        <v>18.2125198841095</v>
+        <v>64.74662303924561</v>
       </c>
       <c r="K688">
         <v>-12</v>
@@ -30042,7 +30042,7 @@
         <v>-6</v>
       </c>
       <c r="J689">
-        <v>17.23287582397461</v>
+        <v>65.76009488105774</v>
       </c>
       <c r="K689">
         <v>-12</v>
@@ -30083,7 +30083,7 @@
         <v>-6</v>
       </c>
       <c r="J690">
-        <v>18.8902280330658</v>
+        <v>63.68094515800476</v>
       </c>
       <c r="K690">
         <v>-12</v>
@@ -30124,7 +30124,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J691">
-        <v>18.74684524536133</v>
+        <v>65.12677097320557</v>
       </c>
       <c r="K691">
         <v>-12</v>
@@ -30165,7 +30165,7 @@
         <v>-2.999999028561883</v>
       </c>
       <c r="J692">
-        <v>18.5778796672821</v>
+        <v>64.48107290267944</v>
       </c>
       <c r="K692">
         <v>-8.999999028561882</v>
@@ -30206,7 +30206,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J693">
-        <v>18.62505602836609</v>
+        <v>65.20120906829834</v>
       </c>
       <c r="K693">
         <v>-12</v>
@@ -30247,7 +30247,7 @@
         <v>-6</v>
       </c>
       <c r="J694">
-        <v>18.75967907905579</v>
+        <v>65.31246113777161</v>
       </c>
       <c r="K694">
         <v>-12</v>
@@ -30288,7 +30288,7 @@
         <v>-2.999999917555988</v>
       </c>
       <c r="J695">
-        <v>18.84809398651123</v>
+        <v>64.18632292747498</v>
       </c>
       <c r="K695">
         <v>-8.999999917555989</v>
@@ -30329,7 +30329,7 @@
         <v>-6</v>
       </c>
       <c r="J696">
-        <v>18.65199279785156</v>
+        <v>65.1447958946228</v>
       </c>
       <c r="K696">
         <v>-12</v>
@@ -30370,7 +30370,7 @@
         <v>-6</v>
       </c>
       <c r="J697">
-        <v>18.66156888008118</v>
+        <v>55.04201292991638</v>
       </c>
       <c r="K697">
         <v>-12</v>
@@ -30411,7 +30411,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J698">
-        <v>18.92248702049255</v>
+        <v>65.24263596534729</v>
       </c>
       <c r="K698">
         <v>-11.99999999999999</v>
@@ -30452,7 +30452,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J699">
-        <v>19.0718469619751</v>
+        <v>61.35065913200378</v>
       </c>
       <c r="K699">
         <v>-12</v>
@@ -30493,7 +30493,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J700">
-        <v>18.66686391830444</v>
+        <v>63.63697099685669</v>
       </c>
       <c r="K700">
         <v>-12</v>
@@ -30534,7 +30534,7 @@
         <v>-2.999999917646111</v>
       </c>
       <c r="J701">
-        <v>18.84155488014221</v>
+        <v>63.58186221122742</v>
       </c>
       <c r="K701">
         <v>-8.999999917646111</v>
@@ -30575,7 +30575,7 @@
         <v>-6</v>
       </c>
       <c r="J702">
-        <v>18.6812698841095</v>
+        <v>64.79709601402283</v>
       </c>
       <c r="K702">
         <v>-12</v>
@@ -30616,7 +30616,7 @@
         <v>-6</v>
       </c>
       <c r="J703">
-        <v>19.07577419281006</v>
+        <v>65.21028280258179</v>
       </c>
       <c r="K703">
         <v>-12</v>
@@ -30657,7 +30657,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J704">
-        <v>18.74811387062073</v>
+        <v>64.24300861358643</v>
       </c>
       <c r="K704">
         <v>-12</v>
@@ -30698,7 +30698,7 @@
         <v>-6</v>
       </c>
       <c r="J705">
-        <v>18.76175308227539</v>
+        <v>64.83146500587463</v>
       </c>
       <c r="K705">
         <v>-12</v>
@@ -30739,7 +30739,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J706">
-        <v>20.52871298789978</v>
+        <v>64.42830896377563</v>
       </c>
       <c r="K706">
         <v>-12</v>
@@ -30780,7 +30780,7 @@
         <v>-2.999999211948599</v>
       </c>
       <c r="J707">
-        <v>19.31198024749756</v>
+        <v>65.03826785087585</v>
       </c>
       <c r="K707">
         <v>-8.999999211948598</v>
@@ -30821,7 +30821,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J708">
-        <v>18.83570003509521</v>
+        <v>64.8588228225708</v>
       </c>
       <c r="K708">
         <v>-12</v>
@@ -30862,7 +30862,7 @@
         <v>-6</v>
       </c>
       <c r="J709">
-        <v>19.45087790489197</v>
+        <v>64.39874982833862</v>
       </c>
       <c r="K709">
         <v>-12</v>
@@ -30903,7 +30903,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J710">
-        <v>20.9175398349762</v>
+        <v>65.08148908615112</v>
       </c>
       <c r="K710">
         <v>-12</v>
@@ -30944,7 +30944,7 @@
         <v>-6</v>
       </c>
       <c r="J711">
-        <v>21.85041785240173</v>
+        <v>63.36012005805969</v>
       </c>
       <c r="K711">
         <v>-12</v>
@@ -30985,7 +30985,7 @@
         <v>-2.999999448800102</v>
       </c>
       <c r="J712">
-        <v>19.7046000957489</v>
+        <v>65.54371500015259</v>
       </c>
       <c r="K712">
         <v>-8.999999448800102</v>
@@ -31026,7 +31026,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J713">
-        <v>21.92900514602661</v>
+        <v>64.63534498214722</v>
       </c>
       <c r="K713">
         <v>-12</v>
@@ -31067,7 +31067,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J714">
-        <v>28.20080280303955</v>
+        <v>64.82664513587952</v>
       </c>
       <c r="K714">
         <v>-12</v>
@@ -31108,7 +31108,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J715">
-        <v>18.60783410072327</v>
+        <v>53.3979320526123</v>
       </c>
       <c r="K715">
         <v>-12</v>
@@ -31149,7 +31149,7 @@
         <v>-6</v>
       </c>
       <c r="J716">
-        <v>18.6628623008728</v>
+        <v>64.99659085273743</v>
       </c>
       <c r="K716">
         <v>-12</v>
@@ -31190,7 +31190,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J717">
-        <v>18.70904397964478</v>
+        <v>64.65837478637695</v>
       </c>
       <c r="K717">
         <v>-12</v>
@@ -31231,7 +31231,7 @@
         <v>-6</v>
       </c>
       <c r="J718">
-        <v>18.74249124526978</v>
+        <v>64.61555504798889</v>
       </c>
       <c r="K718">
         <v>-12</v>
@@ -31272,7 +31272,7 @@
         <v>-2.999999910354262</v>
       </c>
       <c r="J719">
-        <v>18.67033076286316</v>
+        <v>57.89974594116211</v>
       </c>
       <c r="K719">
         <v>-8.999999910354262</v>
@@ -31313,7 +31313,7 @@
         <v>-6</v>
       </c>
       <c r="J720">
-        <v>18.89008188247681</v>
+        <v>64.82397890090942</v>
       </c>
       <c r="K720">
         <v>-12</v>
@@ -31354,7 +31354,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J721">
-        <v>19.22372603416443</v>
+        <v>57.13033699989319</v>
       </c>
       <c r="K721">
         <v>-12</v>
@@ -31395,7 +31395,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J722">
-        <v>18.87698936462402</v>
+        <v>64.3395471572876</v>
       </c>
       <c r="K722">
         <v>-12</v>
@@ -31436,7 +31436,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J723">
-        <v>19.56578922271729</v>
+        <v>65.21710205078125</v>
       </c>
       <c r="K723">
         <v>-12</v>
@@ -31477,7 +31477,7 @@
         <v>-6</v>
       </c>
       <c r="J724">
-        <v>18.69081974029541</v>
+        <v>59.65438294410706</v>
       </c>
       <c r="K724">
         <v>-12</v>
@@ -31518,7 +31518,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J725">
-        <v>18.65554308891296</v>
+        <v>62.08927488327026</v>
       </c>
       <c r="K725">
         <v>-12</v>
@@ -31559,7 +31559,7 @@
         <v>-1.999999740779942</v>
       </c>
       <c r="J726">
-        <v>18.75567603111267</v>
+        <v>64.95136690139771</v>
       </c>
       <c r="K726">
         <v>-7.999999740779942</v>
@@ -31600,7 +31600,7 @@
         <v>-6</v>
       </c>
       <c r="J727">
-        <v>18.88803791999817</v>
+        <v>63.51146221160889</v>
       </c>
       <c r="K727">
         <v>-12</v>
@@ -31641,7 +31641,7 @@
         <v>-2.999999996893905</v>
       </c>
       <c r="J728">
-        <v>18.6030809879303</v>
+        <v>64.99535584449768</v>
       </c>
       <c r="K728">
         <v>-8.999999996893905</v>
@@ -31682,7 +31682,7 @@
         <v>-6</v>
       </c>
       <c r="J729">
-        <v>18.74905705451965</v>
+        <v>61.2137188911438</v>
       </c>
       <c r="K729">
         <v>-12</v>
@@ -31723,7 +31723,7 @@
         <v>-6</v>
       </c>
       <c r="J730">
-        <v>18.53233003616333</v>
+        <v>63.3520040512085</v>
       </c>
       <c r="K730">
         <v>-12</v>
@@ -31764,7 +31764,7 @@
         <v>-2.999999375362933</v>
       </c>
       <c r="J731">
-        <v>18.67243909835815</v>
+        <v>63.34849095344543</v>
       </c>
       <c r="K731">
         <v>-8.999999375362933</v>
@@ -31805,7 +31805,7 @@
         <v>-2.99999991791433</v>
       </c>
       <c r="J732">
-        <v>18.83157801628113</v>
+        <v>61.86884784698486</v>
       </c>
       <c r="K732">
         <v>-8.99999991791433</v>
@@ -31846,7 +31846,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J733">
-        <v>18.73158597946167</v>
+        <v>65.11640501022339</v>
       </c>
       <c r="K733">
         <v>-12</v>
@@ -31887,7 +31887,7 @@
         <v>-6</v>
       </c>
       <c r="J734">
-        <v>18.74612092971802</v>
+        <v>64.2601490020752</v>
       </c>
       <c r="K734">
         <v>-12</v>
@@ -31928,7 +31928,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J735">
-        <v>18.92809700965881</v>
+        <v>65.15851378440857</v>
       </c>
       <c r="K735">
         <v>-11.99999999999999</v>
@@ -31969,7 +31969,7 @@
         <v>-6</v>
       </c>
       <c r="J736">
-        <v>18.69118404388428</v>
+        <v>61.62689089775085</v>
       </c>
       <c r="K736">
         <v>-12</v>
@@ -32010,7 +32010,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J737">
-        <v>21.28386116027832</v>
+        <v>64.80507016181946</v>
       </c>
       <c r="K737">
         <v>-12</v>
@@ -32051,7 +32051,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J738">
-        <v>19.22452092170715</v>
+        <v>63.93088388442993</v>
       </c>
       <c r="K738">
         <v>-12</v>
@@ -32092,7 +32092,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J739">
-        <v>18.77163600921631</v>
+        <v>58.76338791847229</v>
       </c>
       <c r="K739">
         <v>-12</v>
@@ -32133,7 +32133,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J740">
-        <v>18.73979187011719</v>
+        <v>62.06336784362793</v>
       </c>
       <c r="K740">
         <v>-12</v>
@@ -32174,7 +32174,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J741">
-        <v>17.88013315200806</v>
+        <v>64.96668982505798</v>
       </c>
       <c r="K741">
         <v>-12</v>
@@ -32215,7 +32215,7 @@
         <v>-6</v>
       </c>
       <c r="J742">
-        <v>18.21941924095154</v>
+        <v>65.29239130020142</v>
       </c>
       <c r="K742">
         <v>-12</v>
@@ -32256,7 +32256,7 @@
         <v>-6</v>
       </c>
       <c r="J743">
-        <v>18.67797088623047</v>
+        <v>64.07322597503662</v>
       </c>
       <c r="K743">
         <v>-12</v>
@@ -32297,7 +32297,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J744">
-        <v>18.57089591026306</v>
+        <v>62.39298510551453</v>
       </c>
       <c r="K744">
         <v>-12</v>
@@ -32338,7 +32338,7 @@
         <v>-6</v>
       </c>
       <c r="J745">
-        <v>19.00173783302307</v>
+        <v>63.72729682922363</v>
       </c>
       <c r="K745">
         <v>-12</v>
@@ -32379,7 +32379,7 @@
         <v>-2.999999694294063</v>
       </c>
       <c r="J746">
-        <v>19.78243517875671</v>
+        <v>63.73324084281921</v>
       </c>
       <c r="K746">
         <v>-8.999999694294063</v>
@@ -32420,7 +32420,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J747">
-        <v>18.93997430801392</v>
+        <v>64.58324027061462</v>
       </c>
       <c r="K747">
         <v>-12</v>
@@ -32461,7 +32461,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J748">
-        <v>18.65220403671265</v>
+        <v>64.83070373535156</v>
       </c>
       <c r="K748">
         <v>-12</v>
@@ -32502,7 +32502,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J749">
-        <v>19.26612496376038</v>
+        <v>65.42135310173035</v>
       </c>
       <c r="K749">
         <v>-12</v>
@@ -32543,7 +32543,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J750">
-        <v>19.12160897254944</v>
+        <v>63.27099800109863</v>
       </c>
       <c r="K750">
         <v>-11.99999999999999</v>
@@ -32584,7 +32584,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J751">
-        <v>18.72642207145691</v>
+        <v>65.59903311729431</v>
       </c>
       <c r="K751">
         <v>-12</v>
@@ -32625,7 +32625,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J752">
-        <v>18.9284029006958</v>
+        <v>62.32258319854736</v>
       </c>
       <c r="K752">
         <v>-12</v>
@@ -32666,7 +32666,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J753">
-        <v>19.37058520317078</v>
+        <v>63.52263188362122</v>
       </c>
       <c r="K753">
         <v>-12</v>
@@ -32707,7 +32707,7 @@
         <v>-6</v>
       </c>
       <c r="J754">
-        <v>19.40003299713135</v>
+        <v>62.36454892158508</v>
       </c>
       <c r="K754">
         <v>-12</v>
@@ -32748,7 +32748,7 @@
         <v>-6</v>
       </c>
       <c r="J755">
-        <v>18.96477317810059</v>
+        <v>64.52949285507202</v>
       </c>
       <c r="K755">
         <v>-12</v>
@@ -32789,7 +32789,7 @@
         <v>-1.999998699030287</v>
       </c>
       <c r="J756">
-        <v>18.94568014144897</v>
+        <v>65.02477884292603</v>
       </c>
       <c r="K756">
         <v>-7.999998699030288</v>
@@ -32830,7 +32830,7 @@
         <v>-2.999999913435574</v>
       </c>
       <c r="J757">
-        <v>18.77306771278381</v>
+        <v>64.20531105995178</v>
       </c>
       <c r="K757">
         <v>-8.999999913435573</v>
@@ -32871,7 +32871,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J758">
-        <v>19.06802892684937</v>
+        <v>61.96957588195801</v>
       </c>
       <c r="K758">
         <v>-11.99999999999999</v>
@@ -32912,7 +32912,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J759">
-        <v>18.80021810531616</v>
+        <v>64.32435488700867</v>
       </c>
       <c r="K759">
         <v>-11.99999999999999</v>
@@ -32953,7 +32953,7 @@
         <v>-2.99999952224558</v>
       </c>
       <c r="J760">
-        <v>18.80061483383179</v>
+        <v>64.93312406539917</v>
       </c>
       <c r="K760">
         <v>-8.999999522245581</v>
@@ -32994,7 +32994,7 @@
         <v>-1.999998306255176</v>
       </c>
       <c r="J761">
-        <v>18.73065400123596</v>
+        <v>63.84946608543396</v>
       </c>
       <c r="K761">
         <v>-7.999998306255176</v>
@@ -33035,7 +33035,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J762">
-        <v>19.20277500152588</v>
+        <v>64.26932311058044</v>
       </c>
       <c r="K762">
         <v>-12</v>
@@ -33076,7 +33076,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J763">
-        <v>19.04456400871277</v>
+        <v>65.01016187667847</v>
       </c>
       <c r="K763">
         <v>-12</v>
@@ -33117,7 +33117,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J764">
-        <v>18.79864406585693</v>
+        <v>64.72370576858521</v>
       </c>
       <c r="K764">
         <v>-12</v>
@@ -33158,7 +33158,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J765">
-        <v>18.8469250202179</v>
+        <v>65.37129306793213</v>
       </c>
       <c r="K765">
         <v>-12</v>
@@ -33199,7 +33199,7 @@
         <v>-5.999999999999982</v>
       </c>
       <c r="J766">
-        <v>18.81409192085266</v>
+        <v>64.82576489448547</v>
       </c>
       <c r="K766">
         <v>-11.99999999999998</v>
@@ -33240,7 +33240,7 @@
         <v>-6</v>
       </c>
       <c r="J767">
-        <v>19.24088907241821</v>
+        <v>62.66498899459839</v>
       </c>
       <c r="K767">
         <v>-12</v>
@@ -33281,7 +33281,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J768">
-        <v>19.17625498771667</v>
+        <v>65.29921889305115</v>
       </c>
       <c r="K768">
         <v>-12</v>
@@ -33322,7 +33322,7 @@
         <v>-2.999998677702979</v>
       </c>
       <c r="J769">
-        <v>18.33401012420654</v>
+        <v>64.39177012443542</v>
       </c>
       <c r="K769">
         <v>-8.99999867770298</v>
@@ -33363,7 +33363,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J770">
-        <v>18.94217896461487</v>
+        <v>65.20026803016663</v>
       </c>
       <c r="K770">
         <v>-12</v>
@@ -33404,7 +33404,7 @@
         <v>-6</v>
       </c>
       <c r="J771">
-        <v>18.99171614646912</v>
+        <v>64.24827218055725</v>
       </c>
       <c r="K771">
         <v>-12</v>
@@ -33445,7 +33445,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J772">
-        <v>19.43226218223572</v>
+        <v>65.18768119812012</v>
       </c>
       <c r="K772">
         <v>-12</v>
@@ -33486,7 +33486,7 @@
         <v>-6</v>
       </c>
       <c r="J773">
-        <v>18.71602082252502</v>
+        <v>64.4291090965271</v>
       </c>
       <c r="K773">
         <v>-12</v>
@@ -33527,7 +33527,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J774">
-        <v>18.9491708278656</v>
+        <v>64.75943565368652</v>
       </c>
       <c r="K774">
         <v>-12</v>
@@ -33568,7 +33568,7 @@
         <v>-6</v>
       </c>
       <c r="J775">
-        <v>18.84323978424072</v>
+        <v>65.31191086769104</v>
       </c>
       <c r="K775">
         <v>-12</v>
@@ -33609,7 +33609,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J776">
-        <v>18.97463488578796</v>
+        <v>64.28243517875671</v>
       </c>
       <c r="K776">
         <v>-12</v>
@@ -33650,7 +33650,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J777">
-        <v>18.91008996963501</v>
+        <v>56.98348689079285</v>
       </c>
       <c r="K777">
         <v>-12</v>
@@ -33691,7 +33691,7 @@
         <v>-6</v>
       </c>
       <c r="J778">
-        <v>19.0935971736908</v>
+        <v>65.14523196220398</v>
       </c>
       <c r="K778">
         <v>-12</v>
@@ -33732,7 +33732,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J779">
-        <v>18.91574001312256</v>
+        <v>65.34975099563599</v>
       </c>
       <c r="K779">
         <v>-12</v>
@@ -33773,7 +33773,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J780">
-        <v>22.14247393608093</v>
+        <v>64.76101136207581</v>
       </c>
       <c r="K780">
         <v>-12</v>
@@ -33814,7 +33814,7 @@
         <v>-2.999997518866911</v>
       </c>
       <c r="J781">
-        <v>18.84844708442688</v>
+        <v>64.68458294868469</v>
       </c>
       <c r="K781">
         <v>-8.999997518866911</v>
@@ -33855,7 +33855,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J782">
-        <v>18.73266506195068</v>
+        <v>65.28384494781494</v>
       </c>
       <c r="K782">
         <v>-12</v>
@@ -33896,7 +33896,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J783">
-        <v>18.7765519618988</v>
+        <v>58.86742496490479</v>
       </c>
       <c r="K783">
         <v>-12</v>
@@ -33937,7 +33937,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J784">
-        <v>18.78927898406982</v>
+        <v>64.94184494018555</v>
       </c>
       <c r="K784">
         <v>-11.99999999999999</v>
@@ -33978,7 +33978,7 @@
         <v>-2.999999284292392</v>
       </c>
       <c r="J785">
-        <v>18.90622401237488</v>
+        <v>64.52823185920715</v>
       </c>
       <c r="K785">
         <v>-8.999999284292393</v>
@@ -34019,7 +34019,7 @@
         <v>-2.999999990383347</v>
       </c>
       <c r="J786">
-        <v>18.67662310600281</v>
+        <v>64.74828910827637</v>
       </c>
       <c r="K786">
         <v>-8.999999990383348</v>
@@ -34060,7 +34060,7 @@
         <v>-6</v>
       </c>
       <c r="J787">
-        <v>18.95511913299561</v>
+        <v>65.37552809715271</v>
       </c>
       <c r="K787">
         <v>-12</v>
@@ -34101,7 +34101,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J788">
-        <v>18.65386009216309</v>
+        <v>61.44067883491516</v>
       </c>
       <c r="K788">
         <v>-12</v>
@@ -34142,7 +34142,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J789">
-        <v>19.18199992179871</v>
+        <v>65.34721517562866</v>
       </c>
       <c r="K789">
         <v>-11.99999999999999</v>
@@ -34183,7 +34183,7 @@
         <v>-2.999999919311589</v>
       </c>
       <c r="J790">
-        <v>18.99810099601746</v>
+        <v>64.62734603881836</v>
       </c>
       <c r="K790">
         <v>-8.999999919311589</v>
@@ -34224,7 +34224,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J791">
-        <v>18.61844563484192</v>
+        <v>63.09609222412109</v>
       </c>
       <c r="K791">
         <v>-11.99999999999999</v>
@@ -34265,7 +34265,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J792">
-        <v>19.18420505523682</v>
+        <v>64.36186289787292</v>
       </c>
       <c r="K792">
         <v>-12</v>
@@ -34306,7 +34306,7 @@
         <v>-2.99999910625977</v>
       </c>
       <c r="J793">
-        <v>18.57771015167236</v>
+        <v>61.33937072753906</v>
       </c>
       <c r="K793">
         <v>-8.99999910625977</v>
@@ -34347,7 +34347,7 @@
         <v>-2.999973475535602</v>
       </c>
       <c r="J794">
-        <v>18.96499490737915</v>
+        <v>64.49119210243225</v>
       </c>
       <c r="K794">
         <v>-8.999973475535603</v>
@@ -34388,7 +34388,7 @@
         <v>-6</v>
       </c>
       <c r="J795">
-        <v>18.89859986305237</v>
+        <v>64.70795798301697</v>
       </c>
       <c r="K795">
         <v>-12</v>
@@ -34429,7 +34429,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J796">
-        <v>18.87279200553894</v>
+        <v>60.79874992370605</v>
       </c>
       <c r="K796">
         <v>-12</v>
@@ -34470,7 +34470,7 @@
         <v>-6</v>
       </c>
       <c r="J797">
-        <v>18.6708779335022</v>
+        <v>64.65778207778931</v>
       </c>
       <c r="K797">
         <v>-12</v>
@@ -34511,7 +34511,7 @@
         <v>-5.999999999977842</v>
       </c>
       <c r="J798">
-        <v>17.55918169021606</v>
+        <v>65.27084493637085</v>
       </c>
       <c r="K798">
         <v>-11.99999999997784</v>
@@ -34552,7 +34552,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J799">
-        <v>16.83175086975098</v>
+        <v>61.7149498462677</v>
       </c>
       <c r="K799">
         <v>-12</v>
@@ -34593,7 +34593,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J800">
-        <v>18.32591891288757</v>
+        <v>60.40494680404663</v>
       </c>
       <c r="K800">
         <v>-12</v>
@@ -34634,7 +34634,7 @@
         <v>-6</v>
       </c>
       <c r="J801">
-        <v>16.63308596611023</v>
+        <v>53.01366710662842</v>
       </c>
       <c r="K801">
         <v>-12</v>
@@ -34675,7 +34675,7 @@
         <v>-6</v>
       </c>
       <c r="J802">
-        <v>16.32522487640381</v>
+        <v>53.20336675643921</v>
       </c>
       <c r="K802">
         <v>-12</v>
@@ -34716,7 +34716,7 @@
         <v>-6</v>
       </c>
       <c r="J803">
-        <v>16.65662312507629</v>
+        <v>52.11557412147522</v>
       </c>
       <c r="K803">
         <v>-12</v>
@@ -34757,7 +34757,7 @@
         <v>-1.999998067706368</v>
       </c>
       <c r="J804">
-        <v>16.49505281448364</v>
+        <v>52.86543416976929</v>
       </c>
       <c r="K804">
         <v>-7.999998067706368</v>
@@ -34798,7 +34798,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J805">
-        <v>17.92366123199463</v>
+        <v>51.74999499320984</v>
       </c>
       <c r="K805">
         <v>-12</v>
@@ -34839,7 +34839,7 @@
         <v>-6</v>
       </c>
       <c r="J806">
-        <v>18.28363704681396</v>
+        <v>52.70128917694092</v>
       </c>
       <c r="K806">
         <v>-12</v>
@@ -34880,7 +34880,7 @@
         <v>-6</v>
       </c>
       <c r="J807">
-        <v>16.91970014572144</v>
+        <v>51.7221040725708</v>
       </c>
       <c r="K807">
         <v>-12</v>
@@ -34921,7 +34921,7 @@
         <v>-6</v>
       </c>
       <c r="J808">
-        <v>16.44199919700623</v>
+        <v>51.0709011554718</v>
       </c>
       <c r="K808">
         <v>-12</v>
@@ -34962,7 +34962,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J809">
-        <v>16.91697669029236</v>
+        <v>52.46461391448975</v>
       </c>
       <c r="K809">
         <v>-12</v>
@@ -35003,7 +35003,7 @@
         <v>-5.999999964738734</v>
       </c>
       <c r="J810">
-        <v>16.48456311225891</v>
+        <v>51.77631592750549</v>
       </c>
       <c r="K810">
         <v>-11.99999996473873</v>
@@ -35044,7 +35044,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J811">
-        <v>16.36247396469116</v>
+        <v>52.6291880607605</v>
       </c>
       <c r="K811">
         <v>-12</v>
@@ -35085,7 +35085,7 @@
         <v>-2.036608083883972</v>
       </c>
       <c r="J812">
-        <v>16.38753366470337</v>
+        <v>51.8394148349762</v>
       </c>
       <c r="K812">
         <v>-8.036608083883973</v>
@@ -35126,7 +35126,7 @@
         <v>-6</v>
       </c>
       <c r="J813">
-        <v>17.0651650428772</v>
+        <v>52.62798190116882</v>
       </c>
       <c r="K813">
         <v>-12</v>
@@ -35167,7 +35167,7 @@
         <v>-2.999998982588648</v>
       </c>
       <c r="J814">
-        <v>16.75389194488525</v>
+        <v>52.01276707649231</v>
       </c>
       <c r="K814">
         <v>-8.999998982588647</v>
@@ -35208,7 +35208,7 @@
         <v>-6</v>
       </c>
       <c r="J815">
-        <v>16.4039568901062</v>
+        <v>52.60462093353271</v>
       </c>
       <c r="K815">
         <v>-12</v>
@@ -35249,7 +35249,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J816">
-        <v>17.72028923034668</v>
+        <v>52.04011511802673</v>
       </c>
       <c r="K816">
         <v>-12</v>
@@ -35290,7 +35290,7 @@
         <v>-6</v>
       </c>
       <c r="J817">
-        <v>18.89687013626099</v>
+        <v>51.21247601509094</v>
       </c>
       <c r="K817">
         <v>-12</v>
@@ -35331,7 +35331,7 @@
         <v>-1.999999476223049</v>
       </c>
       <c r="J818">
-        <v>16.43170213699341</v>
+        <v>47.9995481967926</v>
       </c>
       <c r="K818">
         <v>-7.999999476223049</v>
@@ -35372,7 +35372,7 @@
         <v>-6</v>
       </c>
       <c r="J819">
-        <v>16.29727220535278</v>
+        <v>49.55367612838745</v>
       </c>
       <c r="K819">
         <v>-12</v>
@@ -35413,7 +35413,7 @@
         <v>-6</v>
       </c>
       <c r="J820">
-        <v>16.36926198005676</v>
+        <v>51.92693686485291</v>
       </c>
       <c r="K820">
         <v>-12</v>
@@ -35454,7 +35454,7 @@
         <v>-6</v>
       </c>
       <c r="J821">
-        <v>16.63343381881714</v>
+        <v>52.21338295936584</v>
       </c>
       <c r="K821">
         <v>-12</v>
@@ -35495,7 +35495,7 @@
         <v>-6</v>
       </c>
       <c r="J822">
-        <v>16.38214302062988</v>
+        <v>52.36470818519592</v>
       </c>
       <c r="K822">
         <v>-12</v>
@@ -35536,7 +35536,7 @@
         <v>-6</v>
       </c>
       <c r="J823">
-        <v>16.39501023292542</v>
+        <v>52.0469491481781</v>
       </c>
       <c r="K823">
         <v>-12</v>
@@ -35577,7 +35577,7 @@
         <v>-2.999999810621073</v>
       </c>
       <c r="J824">
-        <v>16.37536406517029</v>
+        <v>52.95635414123535</v>
       </c>
       <c r="K824">
         <v>-8.999999810621073</v>
@@ -35618,7 +35618,7 @@
         <v>-6</v>
       </c>
       <c r="J825">
-        <v>16.49997997283936</v>
+        <v>52.06412124633789</v>
       </c>
       <c r="K825">
         <v>-12</v>
@@ -35659,7 +35659,7 @@
         <v>-6</v>
       </c>
       <c r="J826">
-        <v>16.34595513343811</v>
+        <v>52.85893678665161</v>
       </c>
       <c r="K826">
         <v>-12</v>
@@ -35700,7 +35700,7 @@
         <v>-2.99999972920499</v>
       </c>
       <c r="J827">
-        <v>16.70058703422546</v>
+        <v>51.70538210868835</v>
       </c>
       <c r="K827">
         <v>-8.99999972920499</v>
@@ -35741,7 +35741,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J828">
-        <v>16.57840013504028</v>
+        <v>52.8932089805603</v>
       </c>
       <c r="K828">
         <v>-12</v>
@@ -35782,7 +35782,7 @@
         <v>-6</v>
       </c>
       <c r="J829">
-        <v>16.71256327629089</v>
+        <v>52.1451358795166</v>
       </c>
       <c r="K829">
         <v>-12</v>
@@ -35823,7 +35823,7 @@
         <v>-6</v>
       </c>
       <c r="J830">
-        <v>16.36211276054382</v>
+        <v>51.96825814247131</v>
       </c>
       <c r="K830">
         <v>-12</v>
@@ -35864,7 +35864,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J831">
-        <v>16.49533104896545</v>
+        <v>52.1156861782074</v>
       </c>
       <c r="K831">
         <v>-11.99999999999999</v>
@@ -35905,7 +35905,7 @@
         <v>-5.999999999999994</v>
       </c>
       <c r="J832">
-        <v>16.34732699394226</v>
+        <v>52.40730381011963</v>
       </c>
       <c r="K832">
         <v>-11.99999999999999</v>
@@ -35946,7 +35946,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J833">
-        <v>16.65614414215088</v>
+        <v>52.05617499351501</v>
       </c>
       <c r="K833">
         <v>-12</v>
@@ -35987,7 +35987,7 @@
         <v>-2.999999377874018</v>
       </c>
       <c r="J834">
-        <v>16.83028101921082</v>
+        <v>52.42601776123047</v>
       </c>
       <c r="K834">
         <v>-8.999999377874017</v>
@@ -36028,7 +36028,7 @@
         <v>-6</v>
       </c>
       <c r="J835">
-        <v>20.62350106239319</v>
+        <v>52.24074602127075</v>
       </c>
       <c r="K835">
         <v>-12</v>
@@ -36069,7 +36069,7 @@
         <v>-2.999999967533393</v>
       </c>
       <c r="J836">
-        <v>18.6597728729248</v>
+        <v>52.45218396186829</v>
       </c>
       <c r="K836">
         <v>-8.999999967533393</v>
@@ -36110,7 +36110,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J837">
-        <v>17.10294079780579</v>
+        <v>52.52339720726013</v>
       </c>
       <c r="K837">
         <v>-12</v>
@@ -36151,7 +36151,7 @@
         <v>-6</v>
       </c>
       <c r="J838">
-        <v>22.07370495796204</v>
+        <v>51.98321986198425</v>
       </c>
       <c r="K838">
         <v>-12</v>
@@ -36192,7 +36192,7 @@
         <v>-6</v>
       </c>
       <c r="J839">
-        <v>19.09291100502014</v>
+        <v>51.92442393302917</v>
       </c>
       <c r="K839">
         <v>-12</v>
@@ -36233,7 +36233,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J840">
-        <v>18.55317807197571</v>
+        <v>52.41524600982666</v>
       </c>
       <c r="K840">
         <v>-12</v>
@@ -36274,7 +36274,7 @@
         <v>-2.999997733654595</v>
       </c>
       <c r="J841">
-        <v>21.83753705024719</v>
+        <v>52.72810077667236</v>
       </c>
       <c r="K841">
         <v>-8.999997733654595</v>
@@ -36315,7 +36315,7 @@
         <v>-3.043865676520858</v>
       </c>
       <c r="J842">
-        <v>21.01997113227844</v>
+        <v>51.774001121521</v>
       </c>
       <c r="K842">
         <v>-9.043865676520859</v>
@@ -36356,7 +36356,7 @@
         <v>-6</v>
       </c>
       <c r="J843">
-        <v>16.5719051361084</v>
+        <v>51.66530823707581</v>
       </c>
       <c r="K843">
         <v>-12</v>
@@ -36397,7 +36397,7 @@
         <v>-1.999999487906208</v>
       </c>
       <c r="J844">
-        <v>16.43050599098206</v>
+        <v>52.86212301254272</v>
       </c>
       <c r="K844">
         <v>-7.999999487906209</v>
@@ -36438,7 +36438,7 @@
         <v>-6</v>
       </c>
       <c r="J845">
-        <v>16.38721323013306</v>
+        <v>59.54017090797424</v>
       </c>
       <c r="K845">
         <v>-12</v>
@@ -36479,7 +36479,7 @@
         <v>-2.999999431427207</v>
       </c>
       <c r="J846">
-        <v>16.78458786010742</v>
+        <v>55.05236506462097</v>
       </c>
       <c r="K846">
         <v>-8.999999431427206</v>
@@ -36520,7 +36520,7 @@
         <v>-6</v>
       </c>
       <c r="J847">
-        <v>16.59611392021179</v>
+        <v>55.86277198791504</v>
       </c>
       <c r="K847">
         <v>-12</v>
@@ -36561,7 +36561,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J848">
-        <v>21.83757090568542</v>
+        <v>56.17935585975647</v>
       </c>
       <c r="K848">
         <v>-12</v>
@@ -36602,7 +36602,7 @@
         <v>-6</v>
       </c>
       <c r="J849">
-        <v>18.01987314224243</v>
+        <v>56.43897795677185</v>
       </c>
       <c r="K849">
         <v>-12</v>
@@ -36643,7 +36643,7 @@
         <v>-2.999999722019509</v>
       </c>
       <c r="J850">
-        <v>21.29718518257141</v>
+        <v>56.58202505111694</v>
       </c>
       <c r="K850">
         <v>-8.99999972201951</v>
@@ -36684,7 +36684,7 @@
         <v>-2.999999982631816</v>
       </c>
       <c r="J851">
-        <v>17.66384696960449</v>
+        <v>57.1719217300415</v>
       </c>
       <c r="K851">
         <v>-8.999999982631817</v>
@@ -36725,7 +36725,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J852">
-        <v>17.66834998130798</v>
+        <v>59.61343216896057</v>
       </c>
       <c r="K852">
         <v>-12</v>
@@ -36766,7 +36766,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J853">
-        <v>20.61319303512573</v>
+        <v>57.65263676643372</v>
       </c>
       <c r="K853">
         <v>-12</v>
@@ -36807,7 +36807,7 @@
         <v>-1.999998996901877</v>
       </c>
       <c r="J854">
-        <v>17.15511083602905</v>
+        <v>59.00856685638428</v>
       </c>
       <c r="K854">
         <v>-7.999998996901876</v>
@@ -36848,7 +36848,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J855">
-        <v>19.8595860004425</v>
+        <v>52.01983404159546</v>
       </c>
       <c r="K855">
         <v>-12</v>
@@ -36889,7 +36889,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J856">
-        <v>17.96025705337524</v>
+        <v>56.04441380500793</v>
       </c>
       <c r="K856">
         <v>-12</v>
@@ -36930,7 +36930,7 @@
         <v>-6</v>
       </c>
       <c r="J857">
-        <v>16.62962508201599</v>
+        <v>56.65199279785156</v>
       </c>
       <c r="K857">
         <v>-12</v>
@@ -36971,7 +36971,7 @@
         <v>-6</v>
       </c>
       <c r="J858">
-        <v>18.33247303962708</v>
+        <v>57.23603320121765</v>
       </c>
       <c r="K858">
         <v>-12</v>
@@ -37012,7 +37012,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J859">
-        <v>19.44308590888977</v>
+        <v>56.23494911193848</v>
       </c>
       <c r="K859">
         <v>-12</v>
@@ -37053,7 +37053,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J860">
-        <v>17.86224913597107</v>
+        <v>55.16303992271423</v>
       </c>
       <c r="K860">
         <v>-12</v>
@@ -37094,7 +37094,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J861">
-        <v>16.42281794548035</v>
+        <v>54.40129709243774</v>
       </c>
       <c r="K861">
         <v>-12</v>
@@ -37135,7 +37135,7 @@
         <v>-2.999999958228035</v>
       </c>
       <c r="J862">
-        <v>16.43076586723328</v>
+        <v>52.63443112373352</v>
       </c>
       <c r="K862">
         <v>-8.999999958228035</v>
@@ -37176,7 +37176,7 @@
         <v>-6</v>
       </c>
       <c r="J863">
-        <v>16.57849287986755</v>
+        <v>54.60116195678711</v>
       </c>
       <c r="K863">
         <v>-12</v>
@@ -37217,7 +37217,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J864">
-        <v>16.79447174072266</v>
+        <v>51.85796308517456</v>
       </c>
       <c r="K864">
         <v>-11.99999999999999</v>
@@ -37258,7 +37258,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J865">
-        <v>16.70179677009583</v>
+        <v>55.54919290542603</v>
       </c>
       <c r="K865">
         <v>-12</v>
@@ -37299,7 +37299,7 @@
         <v>-1.999998833344366</v>
       </c>
       <c r="J866">
-        <v>16.49072313308716</v>
+        <v>53.78841876983643</v>
       </c>
       <c r="K866">
         <v>-7.999998833344366</v>
@@ -37340,7 +37340,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J867">
-        <v>16.59123802185059</v>
+        <v>53.40336275100708</v>
       </c>
       <c r="K867">
         <v>-12</v>
@@ -37381,7 +37381,7 @@
         <v>-2.999986649107099</v>
       </c>
       <c r="J868">
-        <v>17.18947982788086</v>
+        <v>55.7279269695282</v>
       </c>
       <c r="K868">
         <v>-8.999986649107099</v>
@@ -37422,7 +37422,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J869">
-        <v>17.3504011631012</v>
+        <v>56.81950831413269</v>
       </c>
       <c r="K869">
         <v>-11.99999999999999</v>
@@ -37463,7 +37463,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J870">
-        <v>16.7145619392395</v>
+        <v>54.37821388244629</v>
       </c>
       <c r="K870">
         <v>-12</v>
@@ -37504,7 +37504,7 @@
         <v>-6</v>
       </c>
       <c r="J871">
-        <v>16.58204984664917</v>
+        <v>56.55972814559937</v>
       </c>
       <c r="K871">
         <v>-12</v>
@@ -37545,7 +37545,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J872">
-        <v>16.51114511489868</v>
+        <v>55.55333399772644</v>
       </c>
       <c r="K872">
         <v>-12</v>
@@ -37586,7 +37586,7 @@
         <v>-1.999999793261081</v>
       </c>
       <c r="J873">
-        <v>18.38211584091187</v>
+        <v>57.05006885528564</v>
       </c>
       <c r="K873">
         <v>-7.999999793261082</v>
@@ -37627,7 +37627,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J874">
-        <v>16.63798189163208</v>
+        <v>56.42785286903381</v>
       </c>
       <c r="K874">
         <v>-12</v>
@@ -37668,7 +37668,7 @@
         <v>-6</v>
       </c>
       <c r="J875">
-        <v>16.54584693908691</v>
+        <v>56.85519123077393</v>
       </c>
       <c r="K875">
         <v>-12</v>
@@ -37709,7 +37709,7 @@
         <v>-2.999998989333855</v>
       </c>
       <c r="J876">
-        <v>16.64859008789062</v>
+        <v>56.3035728931427</v>
       </c>
       <c r="K876">
         <v>-8.999998989333854</v>
@@ -37750,7 +37750,7 @@
         <v>-2.99999900841258</v>
       </c>
       <c r="J877">
-        <v>17.22409009933472</v>
+        <v>55.64543986320496</v>
       </c>
       <c r="K877">
         <v>-8.99999900841258</v>
@@ -37791,7 +37791,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J878">
-        <v>16.67990303039551</v>
+        <v>55.47473907470703</v>
       </c>
       <c r="K878">
         <v>-12</v>
@@ -37832,7 +37832,7 @@
         <v>-6</v>
       </c>
       <c r="J879">
-        <v>16.49353814125061</v>
+        <v>54.76563096046448</v>
       </c>
       <c r="K879">
         <v>-12</v>
@@ -37873,7 +37873,7 @@
         <v>-3.035791437449864</v>
       </c>
       <c r="J880">
-        <v>16.52653694152832</v>
+        <v>57.54451036453247</v>
       </c>
       <c r="K880">
         <v>-9.035791437449864</v>
@@ -37914,7 +37914,7 @@
         <v>-2.999999898807201</v>
       </c>
       <c r="J881">
-        <v>16.56436824798584</v>
+        <v>55.29688501358032</v>
       </c>
       <c r="K881">
         <v>-8.9999998988072</v>
@@ -37955,7 +37955,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J882">
-        <v>16.76522707939148</v>
+        <v>57.62599587440491</v>
       </c>
       <c r="K882">
         <v>-12</v>
@@ -37996,7 +37996,7 @@
         <v>-6</v>
       </c>
       <c r="J883">
-        <v>16.49500107765198</v>
+        <v>58.79273200035095</v>
       </c>
       <c r="K883">
         <v>-12</v>
@@ -38037,7 +38037,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J884">
-        <v>17.00898504257202</v>
+        <v>56.51722192764282</v>
       </c>
       <c r="K884">
         <v>-12</v>
@@ -38078,7 +38078,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J885">
-        <v>16.93807101249695</v>
+        <v>56.73306012153625</v>
       </c>
       <c r="K885">
         <v>-12</v>
@@ -38119,7 +38119,7 @@
         <v>-6</v>
       </c>
       <c r="J886">
-        <v>16.49633693695068</v>
+        <v>56.82391667366028</v>
       </c>
       <c r="K886">
         <v>-12</v>
@@ -38160,7 +38160,7 @@
         <v>-6</v>
       </c>
       <c r="J887">
-        <v>17.28337097167969</v>
+        <v>56.53105306625366</v>
       </c>
       <c r="K887">
         <v>-12</v>
@@ -38201,7 +38201,7 @@
         <v>-6</v>
       </c>
       <c r="J888">
-        <v>16.51256990432739</v>
+        <v>56.99056196212769</v>
       </c>
       <c r="K888">
         <v>-12</v>
@@ -38242,7 +38242,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J889">
-        <v>16.51681709289551</v>
+        <v>57.43482685089111</v>
       </c>
       <c r="K889">
         <v>-12</v>
@@ -38283,7 +38283,7 @@
         <v>-6</v>
       </c>
       <c r="J890">
-        <v>16.67280077934265</v>
+        <v>52.26645994186401</v>
       </c>
       <c r="K890">
         <v>-12</v>
@@ -38324,7 +38324,7 @@
         <v>-1.999999205191682</v>
       </c>
       <c r="J891">
-        <v>16.53923797607422</v>
+        <v>53.58791780471802</v>
       </c>
       <c r="K891">
         <v>-7.999999205191681</v>
@@ -38365,7 +38365,7 @@
         <v>-2.999999811903011</v>
       </c>
       <c r="J892">
-        <v>16.80510997772217</v>
+        <v>54.80310416221619</v>
       </c>
       <c r="K892">
         <v>-8.999999811903011</v>
@@ -38406,7 +38406,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J893">
-        <v>17.3383936882019</v>
+        <v>56.53103303909302</v>
       </c>
       <c r="K893">
         <v>-12</v>
@@ -38447,7 +38447,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J894">
-        <v>16.80294704437256</v>
+        <v>47.55960083007812</v>
       </c>
       <c r="K894">
         <v>-12</v>
@@ -38488,7 +38488,7 @@
         <v>-3.000327725354922</v>
       </c>
       <c r="J895">
-        <v>16.4950749874115</v>
+        <v>53.43698000907898</v>
       </c>
       <c r="K895">
         <v>-9.000327725354921</v>
@@ -38529,7 +38529,7 @@
         <v>-2.999999896170137</v>
       </c>
       <c r="J896">
-        <v>17.07893991470337</v>
+        <v>54.22539186477661</v>
       </c>
       <c r="K896">
         <v>-8.999999896170136</v>
@@ -38570,7 +38570,7 @@
         <v>-2.999996704239235</v>
       </c>
       <c r="J897">
-        <v>16.63980293273926</v>
+        <v>52.22829103469849</v>
       </c>
       <c r="K897">
         <v>-8.999996704239235</v>
@@ -38611,7 +38611,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J898">
-        <v>17.10419988632202</v>
+        <v>57.88914108276367</v>
       </c>
       <c r="K898">
         <v>-12</v>
@@ -38652,7 +38652,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J899">
-        <v>18.42736101150513</v>
+        <v>47.97981190681458</v>
       </c>
       <c r="K899">
         <v>-11.99999999999999</v>
@@ -38693,7 +38693,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J900">
-        <v>20.0107889175415</v>
+        <v>57.81017589569092</v>
       </c>
       <c r="K900">
         <v>-12</v>
@@ -38734,7 +38734,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J901">
-        <v>17.61893796920776</v>
+        <v>56.02393484115601</v>
       </c>
       <c r="K901">
         <v>-12</v>
@@ -38775,7 +38775,7 @@
         <v>-2.999993657258353</v>
       </c>
       <c r="J902">
-        <v>17.44355797767639</v>
+        <v>55.3294529914856</v>
       </c>
       <c r="K902">
         <v>-8.999993657258353</v>
@@ -38816,7 +38816,7 @@
         <v>-6</v>
       </c>
       <c r="J903">
-        <v>17.43091201782227</v>
+        <v>55.51083970069885</v>
       </c>
       <c r="K903">
         <v>-12</v>
@@ -38857,7 +38857,7 @@
         <v>-2.999999723227332</v>
       </c>
       <c r="J904">
-        <v>17.90362763404846</v>
+        <v>56.73115396499634</v>
       </c>
       <c r="K904">
         <v>-8.999999723227331</v>
@@ -38898,7 +38898,7 @@
         <v>-2.999999643461816</v>
       </c>
       <c r="J905">
-        <v>16.95774912834167</v>
+        <v>55.95661306381226</v>
       </c>
       <c r="K905">
         <v>-8.999999643461816</v>
@@ -38939,7 +38939,7 @@
         <v>-6</v>
       </c>
       <c r="J906">
-        <v>17.18865418434143</v>
+        <v>56.3922119140625</v>
       </c>
       <c r="K906">
         <v>-12</v>
@@ -38980,7 +38980,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J907">
-        <v>16.98164296150208</v>
+        <v>55.81117105484009</v>
       </c>
       <c r="K907">
         <v>-12</v>
@@ -39021,7 +39021,7 @@
         <v>-6</v>
       </c>
       <c r="J908">
-        <v>17.27056694030762</v>
+        <v>54.32581806182861</v>
       </c>
       <c r="K908">
         <v>-12</v>
@@ -39062,7 +39062,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J909">
-        <v>17.31119394302368</v>
+        <v>54.30719089508057</v>
       </c>
       <c r="K909">
         <v>-12</v>
@@ -39103,7 +39103,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J910">
-        <v>17.12389993667603</v>
+        <v>57.54630780220032</v>
       </c>
       <c r="K910">
         <v>-12</v>
@@ -39144,7 +39144,7 @@
         <v>-6</v>
       </c>
       <c r="J911">
-        <v>17.7812831401825</v>
+        <v>55.8776581287384</v>
       </c>
       <c r="K911">
         <v>-12</v>
@@ -39185,7 +39185,7 @@
         <v>-2.999999492857292</v>
       </c>
       <c r="J912">
-        <v>16.94071078300476</v>
+        <v>56.55186676979065</v>
       </c>
       <c r="K912">
         <v>-8.999999492857292</v>
@@ -39226,7 +39226,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J913">
-        <v>17.34455299377441</v>
+        <v>55.21797394752502</v>
       </c>
       <c r="K913">
         <v>-12</v>
@@ -39267,7 +39267,7 @@
         <v>-5.999999999966468</v>
       </c>
       <c r="J914">
-        <v>16.78787684440613</v>
+        <v>52.48881506919861</v>
       </c>
       <c r="K914">
         <v>-11.99999999996647</v>
@@ -39308,7 +39308,7 @@
         <v>-6</v>
       </c>
       <c r="J915">
-        <v>20.18773603439331</v>
+        <v>54.20801687240601</v>
       </c>
       <c r="K915">
         <v>-12</v>
@@ -39349,7 +39349,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J916">
-        <v>17.77101111412048</v>
+        <v>54.08340096473694</v>
       </c>
       <c r="K916">
         <v>-12</v>
@@ -39390,7 +39390,7 @@
         <v>-6</v>
       </c>
       <c r="J917">
-        <v>16.61206817626953</v>
+        <v>55.35490393638611</v>
       </c>
       <c r="K917">
         <v>-12</v>
@@ -39431,7 +39431,7 @@
         <v>-6</v>
       </c>
       <c r="J918">
-        <v>16.67014384269714</v>
+        <v>54.89797806739807</v>
       </c>
       <c r="K918">
         <v>-12</v>
@@ -39472,7 +39472,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J919">
-        <v>16.5488440990448</v>
+        <v>58.26314806938171</v>
       </c>
       <c r="K919">
         <v>-12</v>
@@ -39513,7 +39513,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J920">
-        <v>16.86841607093811</v>
+        <v>59.15639925003052</v>
       </c>
       <c r="K920">
         <v>-12</v>
@@ -39554,7 +39554,7 @@
         <v>-6</v>
       </c>
       <c r="J921">
-        <v>16.68107914924622</v>
+        <v>58.14028429985046</v>
       </c>
       <c r="K921">
         <v>-12</v>
@@ -39595,7 +39595,7 @@
         <v>-6</v>
       </c>
       <c r="J922">
-        <v>19.54116702079773</v>
+        <v>56.3912079334259</v>
       </c>
       <c r="K922">
         <v>-12</v>
@@ -39636,7 +39636,7 @@
         <v>-2.999999883383548</v>
       </c>
       <c r="J923">
-        <v>19.12596011161804</v>
+        <v>58.68503665924072</v>
       </c>
       <c r="K923">
         <v>-8.999999883383548</v>
@@ -39677,7 +39677,7 @@
         <v>-2.999999655165816</v>
       </c>
       <c r="J924">
-        <v>17.98167395591736</v>
+        <v>67.24881720542908</v>
       </c>
       <c r="K924">
         <v>-8.999999655165816</v>
@@ -39718,7 +39718,7 @@
         <v>-6</v>
       </c>
       <c r="J925">
-        <v>18.99331402778625</v>
+        <v>68.65328812599182</v>
       </c>
       <c r="K925">
         <v>-12</v>
@@ -39759,7 +39759,7 @@
         <v>-6</v>
       </c>
       <c r="J926">
-        <v>17.97799587249756</v>
+        <v>54.66738796234131</v>
       </c>
       <c r="K926">
         <v>-12</v>
@@ -39800,7 +39800,7 @@
         <v>-6</v>
       </c>
       <c r="J927">
-        <v>17.15986108779907</v>
+        <v>54.3179829120636</v>
       </c>
       <c r="K927">
         <v>-12</v>
@@ -39841,7 +39841,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J928">
-        <v>16.857421875</v>
+        <v>53.22609090805054</v>
       </c>
       <c r="K928">
         <v>-12</v>
@@ -39882,7 +39882,7 @@
         <v>-6</v>
       </c>
       <c r="J929">
-        <v>16.8801372051239</v>
+        <v>64.64709711074829</v>
       </c>
       <c r="K929">
         <v>-12</v>
@@ -39923,7 +39923,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J930">
-        <v>16.5988872051239</v>
+        <v>55.67552089691162</v>
       </c>
       <c r="K930">
         <v>-12</v>
@@ -39964,7 +39964,7 @@
         <v>-6</v>
       </c>
       <c r="J931">
-        <v>17.39242696762085</v>
+        <v>56.92077708244324</v>
       </c>
       <c r="K931">
         <v>-12</v>
@@ -40005,7 +40005,7 @@
         <v>-6</v>
       </c>
       <c r="J932">
-        <v>19.63015007972717</v>
+        <v>54.87448596954346</v>
       </c>
       <c r="K932">
         <v>-12</v>
@@ -40046,7 +40046,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J933">
-        <v>18.00813317298889</v>
+        <v>58.11485695838928</v>
       </c>
       <c r="K933">
         <v>-12</v>
@@ -40087,7 +40087,7 @@
         <v>-6</v>
       </c>
       <c r="J934">
-        <v>18.52421474456787</v>
+        <v>60.27816700935364</v>
       </c>
       <c r="K934">
         <v>-12</v>
@@ -40128,7 +40128,7 @@
         <v>-2.999999972260582</v>
       </c>
       <c r="J935">
-        <v>16.76367115974426</v>
+        <v>60.92009305953979</v>
       </c>
       <c r="K935">
         <v>-8.999999972260582</v>
@@ -40169,7 +40169,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J936">
-        <v>17.16829204559326</v>
+        <v>54.64253687858582</v>
       </c>
       <c r="K936">
         <v>-12</v>
@@ -40210,7 +40210,7 @@
         <v>-1.999998662457954</v>
       </c>
       <c r="J937">
-        <v>24.79872369766235</v>
+        <v>53.08463382720947</v>
       </c>
       <c r="K937">
         <v>-7.999998662457954</v>
@@ -40251,7 +40251,7 @@
         <v>-5.999999915066282</v>
       </c>
       <c r="J938">
-        <v>17.99295806884766</v>
+        <v>53.51112198829651</v>
       </c>
       <c r="K938">
         <v>-11.99999991506628</v>
@@ -40292,7 +40292,7 @@
         <v>-6</v>
       </c>
       <c r="J939">
-        <v>16.7717809677124</v>
+        <v>59.4883770942688</v>
       </c>
       <c r="K939">
         <v>-12</v>
@@ -40333,7 +40333,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J940">
-        <v>16.72918915748596</v>
+        <v>63.29497194290161</v>
       </c>
       <c r="K940">
         <v>-11.99999999999999</v>
@@ -40374,7 +40374,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J941">
-        <v>16.89817214012146</v>
+        <v>60.76564002037048</v>
       </c>
       <c r="K941">
         <v>-12</v>
@@ -40415,7 +40415,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J942">
-        <v>16.76656270027161</v>
+        <v>51.66690897941589</v>
       </c>
       <c r="K942">
         <v>-12</v>
@@ -40456,7 +40456,7 @@
         <v>-6</v>
       </c>
       <c r="J943">
-        <v>17.95288991928101</v>
+        <v>58.36475205421448</v>
       </c>
       <c r="K943">
         <v>-12</v>
@@ -40497,7 +40497,7 @@
         <v>-2.999999230802191</v>
       </c>
       <c r="J944">
-        <v>26.17328000068665</v>
+        <v>54.83888578414917</v>
       </c>
       <c r="K944">
         <v>-8.999999230802191</v>
@@ -40538,7 +40538,7 @@
         <v>-6</v>
       </c>
       <c r="J945">
-        <v>17.96484231948853</v>
+        <v>56.54540586471558</v>
       </c>
       <c r="K945">
         <v>-12</v>
@@ -40579,7 +40579,7 @@
         <v>-1.99999414643206</v>
       </c>
       <c r="J946">
-        <v>17.87444996833801</v>
+        <v>54.6883590221405</v>
       </c>
       <c r="K946">
         <v>-7.99999414643206</v>
@@ -40620,7 +40620,7 @@
         <v>-2.999999336188615</v>
       </c>
       <c r="J947">
-        <v>16.61140990257263</v>
+        <v>66.71770215034485</v>
       </c>
       <c r="K947">
         <v>-8.999999336188615</v>
@@ -40661,7 +40661,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J948">
-        <v>18.6405029296875</v>
+        <v>50.02937388420105</v>
       </c>
       <c r="K948">
         <v>-12</v>
@@ -40702,7 +40702,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J949">
-        <v>17.60822010040283</v>
+        <v>53.88774704933167</v>
       </c>
       <c r="K949">
         <v>-12</v>
@@ -40743,7 +40743,7 @@
         <v>-6</v>
       </c>
       <c r="J950">
-        <v>18.2281391620636</v>
+        <v>54.89340496063232</v>
       </c>
       <c r="K950">
         <v>-12</v>
@@ -40784,7 +40784,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J951">
-        <v>17.48402786254883</v>
+        <v>47.10543394088745</v>
       </c>
       <c r="K951">
         <v>-12</v>
@@ -40825,7 +40825,7 @@
         <v>-6</v>
       </c>
       <c r="J952">
-        <v>17.44215202331543</v>
+        <v>54.06283807754517</v>
       </c>
       <c r="K952">
         <v>-12</v>
@@ -40866,7 +40866,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J953">
-        <v>17.03037905693054</v>
+        <v>56.30301690101624</v>
       </c>
       <c r="K953">
         <v>-12</v>
@@ -40907,7 +40907,7 @@
         <v>-2.999999788215614</v>
       </c>
       <c r="J954">
-        <v>17.37808680534363</v>
+        <v>57.00048995018005</v>
       </c>
       <c r="K954">
         <v>-8.999999788215614</v>
@@ -40948,7 +40948,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J955">
-        <v>17.64815402030945</v>
+        <v>55.47662591934204</v>
       </c>
       <c r="K955">
         <v>-12</v>
@@ -40989,7 +40989,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J956">
-        <v>17.61623883247375</v>
+        <v>57.35786294937134</v>
       </c>
       <c r="K956">
         <v>-12</v>
@@ -41030,7 +41030,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J957">
-        <v>17.28600025177002</v>
+        <v>56.05033707618713</v>
       </c>
       <c r="K957">
         <v>-12</v>
@@ -41071,7 +41071,7 @@
         <v>-2.999998948528915</v>
       </c>
       <c r="J958">
-        <v>17.96179604530334</v>
+        <v>59.03783202171326</v>
       </c>
       <c r="K958">
         <v>-8.999998948528916</v>
@@ -41112,7 +41112,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J959">
-        <v>18.5334677696228</v>
+        <v>57.55579614639282</v>
       </c>
       <c r="K959">
         <v>-12</v>
@@ -41153,7 +41153,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J960">
-        <v>18.92470693588257</v>
+        <v>59.4892258644104</v>
       </c>
       <c r="K960">
         <v>-11.99999999999999</v>
@@ -41194,7 +41194,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J961">
-        <v>18.39562010765076</v>
+        <v>57.40367913246155</v>
       </c>
       <c r="K961">
         <v>-12</v>
@@ -41235,7 +41235,7 @@
         <v>-2.999996192123567</v>
       </c>
       <c r="J962">
-        <v>20.76111507415771</v>
+        <v>57.34915590286255</v>
       </c>
       <c r="K962">
         <v>-8.999996192123568</v>
@@ -41276,7 +41276,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J963">
-        <v>18.26844215393066</v>
+        <v>57.45716691017151</v>
       </c>
       <c r="K963">
         <v>-12</v>
@@ -41317,7 +41317,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J964">
-        <v>17.91017603874207</v>
+        <v>55.62986183166504</v>
       </c>
       <c r="K964">
         <v>-12</v>
@@ -41358,7 +41358,7 @@
         <v>-6</v>
       </c>
       <c r="J965">
-        <v>19.93049478530884</v>
+        <v>57.84326195716858</v>
       </c>
       <c r="K965">
         <v>-12</v>
@@ -41399,7 +41399,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J966">
-        <v>17.90670680999756</v>
+        <v>60.14140224456787</v>
       </c>
       <c r="K966">
         <v>-12</v>
@@ -41440,7 +41440,7 @@
         <v>-1.999999221369635</v>
       </c>
       <c r="J967">
-        <v>19.92033696174622</v>
+        <v>58.55027890205383</v>
       </c>
       <c r="K967">
         <v>-7.999999221369635</v>
@@ -41481,7 +41481,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J968">
-        <v>18.17050790786743</v>
+        <v>58.10109376907349</v>
       </c>
       <c r="K968">
         <v>-12</v>
@@ -41522,7 +41522,7 @@
         <v>-6</v>
       </c>
       <c r="J969">
-        <v>17.41611385345459</v>
+        <v>59.11017489433289</v>
       </c>
       <c r="K969">
         <v>-12</v>
@@ -41563,7 +41563,7 @@
         <v>-2.9999993665601</v>
       </c>
       <c r="J970">
-        <v>18.11921620368958</v>
+        <v>55.75543308258057</v>
       </c>
       <c r="K970">
         <v>-8.9999993665601</v>
@@ -41604,7 +41604,7 @@
         <v>-2.999999815083617</v>
       </c>
       <c r="J971">
-        <v>16.48251104354858</v>
+        <v>57.24129819869995</v>
       </c>
       <c r="K971">
         <v>-8.999999815083617</v>
@@ -41645,7 +41645,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J972">
-        <v>16.68127393722534</v>
+        <v>51.25498795509338</v>
       </c>
       <c r="K972">
         <v>-12</v>
@@ -41686,7 +41686,7 @@
         <v>-2.999996898742473</v>
       </c>
       <c r="J973">
-        <v>16.4452760219574</v>
+        <v>55.00883674621582</v>
       </c>
       <c r="K973">
         <v>-8.999996898742474</v>
@@ -41727,7 +41727,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J974">
-        <v>16.37722396850586</v>
+        <v>56.25550222396851</v>
       </c>
       <c r="K974">
         <v>-11.99999999999999</v>
@@ -41768,7 +41768,7 @@
         <v>-6</v>
       </c>
       <c r="J975">
-        <v>17.02407789230347</v>
+        <v>51.99050402641296</v>
       </c>
       <c r="K975">
         <v>-12</v>
@@ -41809,7 +41809,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J976">
-        <v>16.55635499954224</v>
+        <v>52.51038384437561</v>
       </c>
       <c r="K976">
         <v>-12</v>
@@ -41850,7 +41850,7 @@
         <v>-6</v>
       </c>
       <c r="J977">
-        <v>16.46376442909241</v>
+        <v>54.16135621070862</v>
       </c>
       <c r="K977">
         <v>-12</v>
@@ -41891,7 +41891,7 @@
         <v>-6</v>
       </c>
       <c r="J978">
-        <v>16.53078389167786</v>
+        <v>54.4580979347229</v>
       </c>
       <c r="K978">
         <v>-12</v>
@@ -41932,7 +41932,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J979">
-        <v>16.49699401855469</v>
+        <v>54.51952886581421</v>
       </c>
       <c r="K979">
         <v>-12</v>
@@ -41973,7 +41973,7 @@
         <v>-2.99999984482348</v>
       </c>
       <c r="J980">
-        <v>16.33522415161133</v>
+        <v>54.20832824707031</v>
       </c>
       <c r="K980">
         <v>-8.999999844823479</v>
@@ -42014,7 +42014,7 @@
         <v>-1.999999473715463</v>
       </c>
       <c r="J981">
-        <v>16.46811485290527</v>
+        <v>51.01758909225464</v>
       </c>
       <c r="K981">
         <v>-7.999999473715463</v>
@@ -42055,7 +42055,7 @@
         <v>-6</v>
       </c>
       <c r="J982">
-        <v>17.05102682113647</v>
+        <v>50.26609301567078</v>
       </c>
       <c r="K982">
         <v>-12</v>
@@ -42096,7 +42096,7 @@
         <v>-2.999999588157408</v>
       </c>
       <c r="J983">
-        <v>16.56347608566284</v>
+        <v>59.63499402999878</v>
       </c>
       <c r="K983">
         <v>-8.999999588157408</v>
@@ -42137,7 +42137,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J984">
-        <v>16.30603218078613</v>
+        <v>56.5786988735199</v>
       </c>
       <c r="K984">
         <v>-12</v>
@@ -42178,7 +42178,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J985">
-        <v>16.32130098342896</v>
+        <v>57.79957294464111</v>
       </c>
       <c r="K985">
         <v>-12</v>
@@ -42219,7 +42219,7 @@
         <v>-6</v>
       </c>
       <c r="J986">
-        <v>16.35063505172729</v>
+        <v>58.19544196128845</v>
       </c>
       <c r="K986">
         <v>-12</v>
@@ -42260,7 +42260,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J987">
-        <v>16.33243799209595</v>
+        <v>52.65308380126953</v>
       </c>
       <c r="K987">
         <v>-12</v>
@@ -42301,7 +42301,7 @@
         <v>-6</v>
       </c>
       <c r="J988">
-        <v>16.58093690872192</v>
+        <v>56.05051326751709</v>
       </c>
       <c r="K988">
         <v>-12</v>
@@ -42342,7 +42342,7 @@
         <v>-6</v>
       </c>
       <c r="J989">
-        <v>16.57413768768311</v>
+        <v>54.1744339466095</v>
       </c>
       <c r="K989">
         <v>-12</v>
@@ -42383,7 +42383,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J990">
-        <v>16.56549715995789</v>
+        <v>57.7501392364502</v>
       </c>
       <c r="K990">
         <v>-12</v>
@@ -42424,7 +42424,7 @@
         <v>-2.999999617229762</v>
       </c>
       <c r="J991">
-        <v>16.82340908050537</v>
+        <v>57.03940296173096</v>
       </c>
       <c r="K991">
         <v>-8.999999617229761</v>
@@ -42465,7 +42465,7 @@
         <v>-6</v>
       </c>
       <c r="J992">
-        <v>17.78759622573853</v>
+        <v>56.60623288154602</v>
       </c>
       <c r="K992">
         <v>-12</v>
@@ -42506,7 +42506,7 @@
         <v>-2.999995143693909</v>
       </c>
       <c r="J993">
-        <v>19.17224717140198</v>
+        <v>55.68752670288086</v>
       </c>
       <c r="K993">
         <v>-8.999995143693909</v>
@@ -42547,7 +42547,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J994">
-        <v>17.15949892997742</v>
+        <v>58.57303500175476</v>
       </c>
       <c r="K994">
         <v>-12</v>
@@ -42588,7 +42588,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J995">
-        <v>17.94831919670105</v>
+        <v>50.06785702705383</v>
       </c>
       <c r="K995">
         <v>-12</v>
@@ -42629,7 +42629,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J996">
-        <v>17.02869987487793</v>
+        <v>59.96401882171631</v>
       </c>
       <c r="K996">
         <v>-12</v>
@@ -42670,7 +42670,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J997">
-        <v>17.19973468780518</v>
+        <v>52.5929012298584</v>
       </c>
       <c r="K997">
         <v>-12</v>
@@ -42711,7 +42711,7 @@
         <v>-6</v>
       </c>
       <c r="J998">
-        <v>17.845458984375</v>
+        <v>57.03081679344177</v>
       </c>
       <c r="K998">
         <v>-12</v>
@@ -42752,7 +42752,7 @@
         <v>-2.999999784603435</v>
       </c>
       <c r="J999">
-        <v>16.56634330749512</v>
+        <v>55.96820616722107</v>
       </c>
       <c r="K999">
         <v>-8.999999784603435</v>
@@ -42793,7 +42793,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J1000">
-        <v>20.21621203422546</v>
+        <v>23.51623487472534</v>
       </c>
       <c r="K1000">
         <v>-12</v>
@@ -42834,7 +42834,7 @@
         <v>-2.999998713818654</v>
       </c>
       <c r="J1001">
-        <v>17.63957095146179</v>
+        <v>18.43395400047302</v>
       </c>
       <c r="K1001">
         <v>-8.999998713818654</v>
